--- a/内部設計書/内部設計書_2_1_ユーザ登録.xlsx
+++ b/内部設計書/内部設計書_2_1_ユーザ登録.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kawamoto\Desktop\人技室\02_活動\研修\Gips\Java\03_演習課題\07_実践演習\01_設計\ドキュメントフォーマット\設計書サンプル\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gips\Documents\GitHub\sleepyProject\内部設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C62A4E7-DDB3-4676-A48B-EAA262F0F401}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2.処理内容" sheetId="6" r:id="rId1"/>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="51">
   <si>
     <t>システム名</t>
   </si>
@@ -100,10 +101,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>/</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>GET</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -113,44 +110,6 @@
   </si>
   <si>
     <t>（２）</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>項目名</t>
-    <rPh sb="0" eb="2">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>必須チェック</t>
-    <rPh sb="0" eb="2">
-      <t>ヒッス</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>最大桁チェック</t>
-    <rPh sb="0" eb="2">
-      <t>サイダイ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ケタ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>〇</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Gips実践演習</t>
-    <rPh sb="4" eb="8">
-      <t>ジッセンエンシュウ</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -167,62 +126,162 @@
     <t>概要説明</t>
   </si>
   <si>
-    <t>ログイン画面</t>
+    <t>init</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2.処理内容 </t>
+    <rPh sb="2" eb="4">
+      <t>ショリ</t>
+    </rPh>
     <rPh sb="4" eb="6">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>模擬試験Webアプリ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ユーザー登録画面</t>
+    <rPh sb="4" eb="6">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
       <t>ガメン</t>
     </rPh>
     <phoneticPr fontId="7"/>
   </si>
   <si>
-    <t>login</t>
+    <t>Sylph</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>齋藤信吾</t>
+    <rPh sb="0" eb="2">
+      <t>サイトウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シンゴ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ユーザー登録</t>
+    <rPh sb="4" eb="6">
+      <t>トウロク</t>
+    </rPh>
     <phoneticPr fontId="7"/>
   </si>
   <si>
-    <t>ログイン画面のFormをインスタンス化し、Modelに追加する。</t>
+    <t>loginregister</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>ユーザー登録画面のFormをインスタンス化し、Modelに追加する。</t>
     <rPh sb="4" eb="6">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
       <t>ガメン</t>
     </rPh>
-    <rPh sb="18" eb="19">
+    <rPh sb="20" eb="21">
       <t>カ</t>
     </rPh>
-    <rPh sb="27" eb="29">
+    <rPh sb="29" eb="31">
       <t>ツイカ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ログイン画面のViewを返却する。</t>
+    <t>ユーザー登録画面のViewを返却する。</t>
     <rPh sb="4" eb="6">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
       <t>ガメン</t>
     </rPh>
-    <rPh sb="12" eb="14">
+    <rPh sb="14" eb="16">
       <t>ヘンキャク</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>init</t>
+    <t>ユーザー登録画面初期表示</t>
+    <rPh sb="4" eb="6">
+      <t>トウロク</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ユーザID</t>
+    <t>登録</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>パスワード</t>
+    <t>loginregister</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>形式チェック</t>
-    <rPh sb="0" eb="2">
-      <t>ケイシキ</t>
+    <t>ユーザーIDとパスワードが10桁以内、また、パスワードと確認パスワードが合致しているかの判定。</t>
+    <rPh sb="15" eb="16">
+      <t>ケタ</t>
     </rPh>
+    <rPh sb="16" eb="18">
+      <t>イナイ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ガッチ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>（ 2 ）エラーがある場合はエラーがある個所を赤く表示させる。</t>
+    <rPh sb="11" eb="13">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カショ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>アカ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>( 3 )  入力が正常な場合はデータベースのm_userテーブルに格納。</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
       <t>コウバン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>項目名</t>
+    <rPh sb="0" eb="2">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -242,56 +301,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>Form.ユーザID</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Form.パスワード</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>（１）の結果が正常ではなかった場合にはModelに以下の項目を追加して、ログイン画面のViewを返却して処理を終了する。</t>
-    <rPh sb="4" eb="6">
-      <t>ケッカ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>セイジョウ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>ツイカ</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="48" eb="50">
-      <t>ヘンキャク</t>
-    </rPh>
-    <rPh sb="52" eb="54">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="55" eb="57">
-      <t>シュウリョウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>メッセージ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ログインに失敗しました</t>
-    <rPh sb="5" eb="7">
-      <t>シッパイ</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -299,163 +309,9 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>/listをリダイレクトし、ユーザ一覧表示処理を呼び出す。</t>
-    <rPh sb="17" eb="19">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>ヨ</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>ダ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>－</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>login</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>引数の入力チェックを行う。</t>
+    <t>登録サービスを呼び出す。サービスには以下の引数を渡す。</t>
     <rPh sb="0" eb="2">
-      <t>ヒキスウ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>オコナ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>（２）</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>検索SQL</t>
-    <rPh sb="0" eb="2">
-      <t>ケンサク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ユーザマスタからレコードを検索する。</t>
-    <rPh sb="13" eb="15">
-      <t>ケンサク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>（３）</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Form.ユーザID</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>１つでもエラーがあった場合には、処理を異常終了する。</t>
-    <rPh sb="11" eb="13">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>イジョウ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>シュウリョウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>レコードが１件も取得できなかった場合には、処理を異常終了する。</t>
-    <rPh sb="6" eb="7">
-      <t>ケン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>取得したレコードのパスワードと引数のパスワードが一致しなかった場合には、処理を異常終了する。</t>
-    <rPh sb="0" eb="2">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ヒキスウ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>イッチ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>処理を正常終了する。</t>
-    <rPh sb="3" eb="5">
-      <t>セイジョウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">2.処理内容 </t>
-    <rPh sb="2" eb="4">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ナイヨウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>－</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>－</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ー</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>認証</t>
-    <rPh sb="0" eb="2">
-      <t>ニンショウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>認証サービス</t>
-    <rPh sb="0" eb="2">
-      <t>ニンショウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>認証サービスを呼び出す。サービスには以下の引数を渡す。</t>
-    <rPh sb="0" eb="2">
-      <t>ニンショウ</t>
+      <t>トウロク</t>
     </rPh>
     <rPh sb="7" eb="8">
       <t>ヨ</t>
@@ -475,109 +331,85 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>login</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>/</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>SELECT * FROM ユーザマスタ
-WHERE ユーザID = 引数のユーザID</t>
-    <rPh sb="35" eb="37">
-      <t>ヒキスウ</t>
+    <t>アカウント登録に失敗しました</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シッパイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>模擬試験Webアプリ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>POST</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ログイン画面初期表示</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>（４）</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>（５）</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ユーザマスタの最終ログイン日時を更新する。</t>
-    <rPh sb="7" eb="9">
-      <t>サイシュウ</t>
+    <t>アカウント登録が成功した場合ログインページに遷移。</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
     </rPh>
-    <rPh sb="13" eb="15">
-      <t>ニチジ</t>
+    <rPh sb="8" eb="10">
+      <t>セイコウ</t>
     </rPh>
-    <rPh sb="16" eb="18">
-      <t>コウシン</t>
+    <rPh sb="12" eb="14">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>センイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>正常に更新できなかった場合には、処理を異常終了する。</t>
-    <rPh sb="0" eb="2">
+    <t>/register</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>（１）の結果が正常ではなかった場合にはModelに以下の項目を追加して、アカウント登録画面のViewを返却して処理を終了する。</t>
+    <rPh sb="4" eb="6">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
       <t>セイジョウ</t>
     </rPh>
-    <rPh sb="3" eb="5">
-      <t>コウシン</t>
+    <rPh sb="15" eb="17">
+      <t>バアイ</t>
     </rPh>
-    <rPh sb="11" eb="13">
-      <t>バアイ</t>
+    <rPh sb="25" eb="27">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>ヘンキャク</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>シュウリョウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>最終ログイン日時</t>
-    <rPh sb="0" eb="2">
-      <t>サイシュウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ニチジ</t>
-    </rPh>
+    <t>RegisterForm.ユーザID</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>システム現在時刻</t>
-    <rPh sb="4" eb="6">
-      <t>ゲンザイ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ジコク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ユーザID = 引数のユーザID</t>
-    <rPh sb="8" eb="10">
-      <t>ヒキスウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>更新条件</t>
-    <rPh sb="0" eb="2">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジョウケン</t>
-    </rPh>
+    <t>RegisterForm.パスワード</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
@@ -694,7 +526,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="38">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -1069,93 +901,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1224,9 +976,6 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1234,31 +983,30 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1285,6 +1033,9 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1301,6 +1052,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1351,31 +1105,64 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="TableStyleLight1" xfId="1"/>
+    <cellStyle name="TableStyleLight1" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="2"/>
+    <cellStyle name="標準 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1720,117 +1507,121 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK65"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AMK66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="Y37" sqref="Y37:BK37"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="0.625" style="6"/>
-    <col min="2" max="87" width="1.625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="0.6640625" style="6"/>
+    <col min="2" max="87" width="1.6640625" style="6" customWidth="1"/>
     <col min="88" max="1025" width="9" style="6"/>
     <col min="1026" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1"/>
-      <c r="B1" s="64" t="s">
+      <c r="B1" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="65" t="s">
-        <v>21</v>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="67" t="s">
+        <v>25</v>
       </c>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65"/>
-      <c r="N1" s="65"/>
-      <c r="O1" s="65"/>
-      <c r="P1" s="65"/>
-      <c r="Q1" s="65"/>
-      <c r="R1" s="65"/>
-      <c r="S1" s="65"/>
-      <c r="T1" s="65"/>
-      <c r="U1" s="65"/>
-      <c r="V1" s="65"/>
-      <c r="W1" s="66" t="s">
-        <v>22</v>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="67"/>
+      <c r="P1" s="67"/>
+      <c r="Q1" s="67"/>
+      <c r="R1" s="67"/>
+      <c r="S1" s="67"/>
+      <c r="T1" s="67"/>
+      <c r="U1" s="67"/>
+      <c r="V1" s="67"/>
+      <c r="W1" s="68" t="s">
+        <v>16</v>
       </c>
-      <c r="X1" s="66"/>
-      <c r="Y1" s="66"/>
-      <c r="Z1" s="66"/>
-      <c r="AA1" s="66"/>
-      <c r="AB1" s="66"/>
-      <c r="AC1" s="66"/>
-      <c r="AD1" s="66"/>
-      <c r="AE1" s="66"/>
-      <c r="AF1" s="66"/>
-      <c r="AG1" s="66"/>
-      <c r="AH1" s="66"/>
-      <c r="AI1" s="66"/>
-      <c r="AJ1" s="66"/>
-      <c r="AK1" s="66"/>
-      <c r="AL1" s="66"/>
-      <c r="AM1" s="66"/>
-      <c r="AN1" s="66"/>
-      <c r="AO1" s="66"/>
-      <c r="AP1" s="66"/>
-      <c r="AQ1" s="66"/>
-      <c r="AR1" s="66"/>
-      <c r="AS1" s="66"/>
-      <c r="AT1" s="66"/>
-      <c r="AU1" s="66"/>
-      <c r="AV1" s="66"/>
-      <c r="AW1" s="66"/>
-      <c r="AX1" s="66"/>
-      <c r="AY1" s="66"/>
-      <c r="AZ1" s="66"/>
-      <c r="BA1" s="66"/>
-      <c r="BB1" s="66"/>
-      <c r="BC1" s="66"/>
-      <c r="BD1" s="66"/>
-      <c r="BE1" s="66"/>
-      <c r="BF1" s="66"/>
-      <c r="BG1" s="66"/>
-      <c r="BH1" s="66"/>
-      <c r="BI1" s="66"/>
-      <c r="BJ1" s="66"/>
-      <c r="BK1" s="66"/>
-      <c r="BL1" s="67" t="s">
+      <c r="X1" s="68"/>
+      <c r="Y1" s="68"/>
+      <c r="Z1" s="68"/>
+      <c r="AA1" s="68"/>
+      <c r="AB1" s="68"/>
+      <c r="AC1" s="68"/>
+      <c r="AD1" s="68"/>
+      <c r="AE1" s="68"/>
+      <c r="AF1" s="68"/>
+      <c r="AG1" s="68"/>
+      <c r="AH1" s="68"/>
+      <c r="AI1" s="68"/>
+      <c r="AJ1" s="68"/>
+      <c r="AK1" s="68"/>
+      <c r="AL1" s="68"/>
+      <c r="AM1" s="68"/>
+      <c r="AN1" s="68"/>
+      <c r="AO1" s="68"/>
+      <c r="AP1" s="68"/>
+      <c r="AQ1" s="68"/>
+      <c r="AR1" s="68"/>
+      <c r="AS1" s="68"/>
+      <c r="AT1" s="68"/>
+      <c r="AU1" s="68"/>
+      <c r="AV1" s="68"/>
+      <c r="AW1" s="68"/>
+      <c r="AX1" s="68"/>
+      <c r="AY1" s="68"/>
+      <c r="AZ1" s="68"/>
+      <c r="BA1" s="68"/>
+      <c r="BB1" s="68"/>
+      <c r="BC1" s="68"/>
+      <c r="BD1" s="68"/>
+      <c r="BE1" s="68"/>
+      <c r="BF1" s="68"/>
+      <c r="BG1" s="68"/>
+      <c r="BH1" s="68"/>
+      <c r="BI1" s="68"/>
+      <c r="BJ1" s="68"/>
+      <c r="BK1" s="68"/>
+      <c r="BL1" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="BM1" s="67"/>
-      <c r="BN1" s="67"/>
-      <c r="BO1" s="67"/>
-      <c r="BP1" s="68"/>
-      <c r="BQ1" s="68"/>
-      <c r="BR1" s="68"/>
-      <c r="BS1" s="68"/>
-      <c r="BT1" s="68"/>
-      <c r="BU1" s="68"/>
-      <c r="BV1" s="68"/>
-      <c r="BW1" s="68"/>
-      <c r="BX1" s="78" t="s">
+      <c r="BM1" s="69"/>
+      <c r="BN1" s="69"/>
+      <c r="BO1" s="69"/>
+      <c r="BP1" s="70" t="s">
+        <v>26</v>
+      </c>
+      <c r="BQ1" s="70"/>
+      <c r="BR1" s="70"/>
+      <c r="BS1" s="70"/>
+      <c r="BT1" s="70"/>
+      <c r="BU1" s="70"/>
+      <c r="BV1" s="70"/>
+      <c r="BW1" s="70"/>
+      <c r="BX1" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="BY1" s="78"/>
-      <c r="BZ1" s="78"/>
-      <c r="CA1" s="78"/>
-      <c r="CB1" s="56"/>
-      <c r="CC1" s="56"/>
-      <c r="CD1" s="56"/>
-      <c r="CE1" s="56"/>
-      <c r="CF1" s="56"/>
-      <c r="CG1" s="56"/>
-      <c r="CH1" s="56"/>
-      <c r="CI1" s="56"/>
+      <c r="BY1" s="71"/>
+      <c r="BZ1" s="71"/>
+      <c r="CA1" s="71"/>
+      <c r="CB1" s="58"/>
+      <c r="CC1" s="58"/>
+      <c r="CD1" s="58"/>
+      <c r="CE1" s="58"/>
+      <c r="CF1" s="58"/>
+      <c r="CG1" s="58"/>
+      <c r="CH1" s="58"/>
+      <c r="CI1" s="58"/>
       <c r="CJ1" s="1"/>
       <c r="CK1" s="1"/>
       <c r="CL1" s="1"/>
@@ -2770,104 +2561,106 @@
       <c r="AMJ1" s="1"/>
       <c r="AMK1" s="2"/>
     </row>
-    <row r="2" spans="1:1025" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:1025" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="1"/>
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="58" t="s">
-        <v>67</v>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="60" t="s">
+        <v>22</v>
       </c>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="58"/>
-      <c r="N2" s="58"/>
-      <c r="O2" s="58"/>
-      <c r="P2" s="58"/>
-      <c r="Q2" s="58"/>
-      <c r="R2" s="58"/>
-      <c r="S2" s="58"/>
-      <c r="T2" s="58"/>
-      <c r="U2" s="58"/>
-      <c r="V2" s="58"/>
-      <c r="W2" s="59" t="s">
-        <v>57</v>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="60"/>
+      <c r="P2" s="60"/>
+      <c r="Q2" s="60"/>
+      <c r="R2" s="60"/>
+      <c r="S2" s="60"/>
+      <c r="T2" s="60"/>
+      <c r="U2" s="60"/>
+      <c r="V2" s="60"/>
+      <c r="W2" s="61" t="s">
+        <v>21</v>
       </c>
-      <c r="X2" s="59"/>
-      <c r="Y2" s="59"/>
-      <c r="Z2" s="59"/>
-      <c r="AA2" s="59"/>
-      <c r="AB2" s="59"/>
-      <c r="AC2" s="59"/>
-      <c r="AD2" s="59"/>
-      <c r="AE2" s="59"/>
-      <c r="AF2" s="59"/>
-      <c r="AG2" s="59"/>
-      <c r="AH2" s="59"/>
-      <c r="AI2" s="59"/>
-      <c r="AJ2" s="59"/>
-      <c r="AK2" s="59"/>
-      <c r="AL2" s="59"/>
-      <c r="AM2" s="59"/>
-      <c r="AN2" s="59"/>
-      <c r="AO2" s="59"/>
-      <c r="AP2" s="59"/>
-      <c r="AQ2" s="59"/>
-      <c r="AR2" s="59"/>
-      <c r="AS2" s="59"/>
-      <c r="AT2" s="59"/>
-      <c r="AU2" s="59"/>
-      <c r="AV2" s="59"/>
-      <c r="AW2" s="59"/>
-      <c r="AX2" s="59"/>
-      <c r="AY2" s="59"/>
-      <c r="AZ2" s="59"/>
-      <c r="BA2" s="59"/>
-      <c r="BB2" s="59"/>
-      <c r="BC2" s="59"/>
-      <c r="BD2" s="59"/>
-      <c r="BE2" s="59"/>
-      <c r="BF2" s="59"/>
-      <c r="BG2" s="59"/>
-      <c r="BH2" s="59"/>
-      <c r="BI2" s="59"/>
-      <c r="BJ2" s="59"/>
-      <c r="BK2" s="59"/>
-      <c r="BL2" s="60" t="s">
+      <c r="X2" s="61"/>
+      <c r="Y2" s="61"/>
+      <c r="Z2" s="61"/>
+      <c r="AA2" s="61"/>
+      <c r="AB2" s="61"/>
+      <c r="AC2" s="61"/>
+      <c r="AD2" s="61"/>
+      <c r="AE2" s="61"/>
+      <c r="AF2" s="61"/>
+      <c r="AG2" s="61"/>
+      <c r="AH2" s="61"/>
+      <c r="AI2" s="61"/>
+      <c r="AJ2" s="61"/>
+      <c r="AK2" s="61"/>
+      <c r="AL2" s="61"/>
+      <c r="AM2" s="61"/>
+      <c r="AN2" s="61"/>
+      <c r="AO2" s="61"/>
+      <c r="AP2" s="61"/>
+      <c r="AQ2" s="61"/>
+      <c r="AR2" s="61"/>
+      <c r="AS2" s="61"/>
+      <c r="AT2" s="61"/>
+      <c r="AU2" s="61"/>
+      <c r="AV2" s="61"/>
+      <c r="AW2" s="61"/>
+      <c r="AX2" s="61"/>
+      <c r="AY2" s="61"/>
+      <c r="AZ2" s="61"/>
+      <c r="BA2" s="61"/>
+      <c r="BB2" s="61"/>
+      <c r="BC2" s="61"/>
+      <c r="BD2" s="61"/>
+      <c r="BE2" s="61"/>
+      <c r="BF2" s="61"/>
+      <c r="BG2" s="61"/>
+      <c r="BH2" s="61"/>
+      <c r="BI2" s="61"/>
+      <c r="BJ2" s="61"/>
+      <c r="BK2" s="61"/>
+      <c r="BL2" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="BM2" s="60"/>
-      <c r="BN2" s="60"/>
-      <c r="BO2" s="60"/>
-      <c r="BP2" s="61"/>
-      <c r="BQ2" s="61"/>
-      <c r="BR2" s="61"/>
-      <c r="BS2" s="61"/>
-      <c r="BT2" s="61"/>
-      <c r="BU2" s="61"/>
-      <c r="BV2" s="61"/>
-      <c r="BW2" s="61"/>
-      <c r="BX2" s="62" t="s">
+      <c r="BM2" s="62"/>
+      <c r="BN2" s="62"/>
+      <c r="BO2" s="62"/>
+      <c r="BP2" s="63">
+        <v>44691</v>
+      </c>
+      <c r="BQ2" s="63"/>
+      <c r="BR2" s="63"/>
+      <c r="BS2" s="63"/>
+      <c r="BT2" s="63"/>
+      <c r="BU2" s="63"/>
+      <c r="BV2" s="63"/>
+      <c r="BW2" s="63"/>
+      <c r="BX2" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="BY2" s="62"/>
-      <c r="BZ2" s="62"/>
-      <c r="CA2" s="62"/>
-      <c r="CB2" s="63"/>
-      <c r="CC2" s="63"/>
-      <c r="CD2" s="63"/>
-      <c r="CE2" s="63"/>
-      <c r="CF2" s="63"/>
-      <c r="CG2" s="63"/>
-      <c r="CH2" s="63"/>
-      <c r="CI2" s="63"/>
+      <c r="BY2" s="64"/>
+      <c r="BZ2" s="64"/>
+      <c r="CA2" s="64"/>
+      <c r="CB2" s="65"/>
+      <c r="CC2" s="65"/>
+      <c r="CD2" s="65"/>
+      <c r="CE2" s="65"/>
+      <c r="CF2" s="65"/>
+      <c r="CG2" s="65"/>
+      <c r="CH2" s="65"/>
+      <c r="CI2" s="65"/>
       <c r="CJ2" s="1"/>
       <c r="CK2" s="1"/>
       <c r="CL2" s="1"/>
@@ -3807,147 +3600,147 @@
       <c r="AMJ2" s="1"/>
       <c r="AMK2" s="2"/>
     </row>
-    <row r="3" spans="1:1025" s="3" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="27"/>
-      <c r="M3" s="27"/>
-      <c r="N3" s="27"/>
-      <c r="O3" s="27"/>
-      <c r="P3" s="27"/>
-      <c r="Q3" s="27"/>
-      <c r="R3" s="27"/>
-      <c r="S3" s="27"/>
-      <c r="T3" s="27"/>
-      <c r="U3" s="27"/>
-      <c r="V3" s="27"/>
-      <c r="W3" s="27"/>
-      <c r="X3" s="27"/>
-      <c r="Y3" s="27"/>
-      <c r="Z3" s="27"/>
-      <c r="AA3" s="27"/>
-      <c r="AB3" s="27"/>
-      <c r="AC3" s="27"/>
-      <c r="AD3" s="27"/>
-      <c r="AE3" s="27"/>
-      <c r="AF3" s="27"/>
-      <c r="AG3" s="27"/>
-      <c r="AH3" s="27"/>
-      <c r="AI3" s="27"/>
-      <c r="AJ3" s="27"/>
-      <c r="AK3" s="27"/>
-      <c r="AL3" s="28"/>
-      <c r="AM3" s="28"/>
-      <c r="AN3" s="28"/>
-      <c r="AO3" s="27"/>
-      <c r="AP3" s="27"/>
-      <c r="AQ3" s="27"/>
-      <c r="AR3" s="27"/>
-      <c r="AS3" s="27"/>
-      <c r="AT3" s="27"/>
-      <c r="AU3" s="27"/>
-      <c r="AV3" s="27"/>
-      <c r="AW3" s="27"/>
-      <c r="AX3" s="27"/>
-      <c r="AY3" s="27"/>
-      <c r="AZ3" s="27"/>
-      <c r="BA3" s="27"/>
-      <c r="BB3" s="27"/>
-      <c r="BC3" s="27"/>
-      <c r="BD3" s="27"/>
-      <c r="BE3" s="27"/>
-      <c r="BF3" s="27"/>
-      <c r="BG3" s="27"/>
-      <c r="BH3" s="27"/>
-      <c r="BI3" s="27"/>
-      <c r="BJ3" s="27"/>
-      <c r="BK3" s="27"/>
-      <c r="BL3" s="27"/>
-      <c r="BM3" s="27"/>
-      <c r="BN3" s="27"/>
-      <c r="BO3" s="27"/>
-      <c r="BP3" s="27"/>
-      <c r="BQ3" s="27"/>
-      <c r="BR3" s="28"/>
-      <c r="BS3" s="28"/>
-      <c r="BT3" s="28"/>
-      <c r="BU3" s="28"/>
-      <c r="BV3" s="28"/>
-      <c r="BW3" s="28"/>
-      <c r="BX3" s="28"/>
-      <c r="BY3" s="28"/>
-      <c r="BZ3" s="28"/>
-      <c r="CA3" s="28"/>
-      <c r="CB3" s="28"/>
-      <c r="CC3" s="28"/>
-      <c r="CD3" s="28"/>
-      <c r="CE3" s="28"/>
-      <c r="CF3" s="28"/>
-      <c r="CG3" s="28"/>
-      <c r="CH3" s="28"/>
-      <c r="CI3" s="28"/>
+    <row r="3" spans="1:1025" s="3" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="26"/>
+      <c r="Q3" s="26"/>
+      <c r="R3" s="26"/>
+      <c r="S3" s="26"/>
+      <c r="T3" s="26"/>
+      <c r="U3" s="26"/>
+      <c r="V3" s="26"/>
+      <c r="W3" s="26"/>
+      <c r="X3" s="26"/>
+      <c r="Y3" s="26"/>
+      <c r="Z3" s="26"/>
+      <c r="AA3" s="26"/>
+      <c r="AB3" s="26"/>
+      <c r="AC3" s="26"/>
+      <c r="AD3" s="26"/>
+      <c r="AE3" s="26"/>
+      <c r="AF3" s="26"/>
+      <c r="AG3" s="26"/>
+      <c r="AH3" s="26"/>
+      <c r="AI3" s="26"/>
+      <c r="AJ3" s="26"/>
+      <c r="AK3" s="26"/>
+      <c r="AL3" s="27"/>
+      <c r="AM3" s="27"/>
+      <c r="AN3" s="27"/>
+      <c r="AO3" s="26"/>
+      <c r="AP3" s="26"/>
+      <c r="AQ3" s="26"/>
+      <c r="AR3" s="26"/>
+      <c r="AS3" s="26"/>
+      <c r="AT3" s="26"/>
+      <c r="AU3" s="26"/>
+      <c r="AV3" s="26"/>
+      <c r="AW3" s="26"/>
+      <c r="AX3" s="26"/>
+      <c r="AY3" s="26"/>
+      <c r="AZ3" s="26"/>
+      <c r="BA3" s="26"/>
+      <c r="BB3" s="26"/>
+      <c r="BC3" s="26"/>
+      <c r="BD3" s="26"/>
+      <c r="BE3" s="26"/>
+      <c r="BF3" s="26"/>
+      <c r="BG3" s="26"/>
+      <c r="BH3" s="26"/>
+      <c r="BI3" s="26"/>
+      <c r="BJ3" s="26"/>
+      <c r="BK3" s="26"/>
+      <c r="BL3" s="26"/>
+      <c r="BM3" s="26"/>
+      <c r="BN3" s="26"/>
+      <c r="BO3" s="26"/>
+      <c r="BP3" s="26"/>
+      <c r="BQ3" s="26"/>
+      <c r="BR3" s="27"/>
+      <c r="BS3" s="27"/>
+      <c r="BT3" s="27"/>
+      <c r="BU3" s="27"/>
+      <c r="BV3" s="27"/>
+      <c r="BW3" s="27"/>
+      <c r="BX3" s="27"/>
+      <c r="BY3" s="27"/>
+      <c r="BZ3" s="27"/>
+      <c r="CA3" s="27"/>
+      <c r="CB3" s="27"/>
+      <c r="CC3" s="27"/>
+      <c r="CD3" s="27"/>
+      <c r="CE3" s="27"/>
+      <c r="CF3" s="27"/>
+      <c r="CG3" s="27"/>
+      <c r="CH3" s="27"/>
+      <c r="CI3" s="27"/>
     </row>
-    <row r="4" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="2"/>
       <c r="B4" s="39" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="39"/>
       <c r="D4" s="39"/>
-      <c r="E4" s="50" t="s">
-        <v>23</v>
+      <c r="E4" s="51" t="s">
+        <v>17</v>
       </c>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="50"/>
-      <c r="I4" s="50"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="50"/>
-      <c r="L4" s="50"/>
-      <c r="M4" s="50"/>
-      <c r="N4" s="50"/>
-      <c r="O4" s="50"/>
-      <c r="P4" s="50"/>
-      <c r="Q4" s="50"/>
-      <c r="R4" s="50"/>
-      <c r="S4" s="50"/>
-      <c r="T4" s="50"/>
-      <c r="U4" s="50"/>
-      <c r="V4" s="50"/>
-      <c r="W4" s="50"/>
-      <c r="X4" s="50"/>
-      <c r="Y4" s="50" t="s">
-        <v>24</v>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="51"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="51"/>
+      <c r="N4" s="51"/>
+      <c r="O4" s="51"/>
+      <c r="P4" s="51"/>
+      <c r="Q4" s="51"/>
+      <c r="R4" s="51"/>
+      <c r="S4" s="51"/>
+      <c r="T4" s="51"/>
+      <c r="U4" s="51"/>
+      <c r="V4" s="51"/>
+      <c r="W4" s="51"/>
+      <c r="X4" s="51"/>
+      <c r="Y4" s="51" t="s">
+        <v>18</v>
       </c>
-      <c r="Z4" s="50"/>
-      <c r="AA4" s="50"/>
-      <c r="AB4" s="50"/>
-      <c r="AC4" s="50"/>
-      <c r="AD4" s="50"/>
-      <c r="AE4" s="50"/>
-      <c r="AF4" s="50"/>
-      <c r="AG4" s="50"/>
-      <c r="AH4" s="50"/>
-      <c r="AI4" s="50"/>
-      <c r="AJ4" s="50"/>
-      <c r="AK4" s="50"/>
-      <c r="AL4" s="50"/>
-      <c r="AM4" s="50"/>
-      <c r="AN4" s="50"/>
-      <c r="AO4" s="50"/>
-      <c r="AP4" s="50"/>
-      <c r="AQ4" s="50"/>
-      <c r="AR4" s="50"/>
+      <c r="Z4" s="51"/>
+      <c r="AA4" s="51"/>
+      <c r="AB4" s="51"/>
+      <c r="AC4" s="51"/>
+      <c r="AD4" s="51"/>
+      <c r="AE4" s="51"/>
+      <c r="AF4" s="51"/>
+      <c r="AG4" s="51"/>
+      <c r="AH4" s="51"/>
+      <c r="AI4" s="51"/>
+      <c r="AJ4" s="51"/>
+      <c r="AK4" s="51"/>
+      <c r="AL4" s="51"/>
+      <c r="AM4" s="51"/>
+      <c r="AN4" s="51"/>
+      <c r="AO4" s="51"/>
+      <c r="AP4" s="51"/>
+      <c r="AQ4" s="51"/>
+      <c r="AR4" s="51"/>
       <c r="AS4" s="44" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="AT4" s="44"/>
       <c r="AU4" s="44"/>
@@ -4930,102 +4723,102 @@
       <c r="AMJ4" s="2"/>
       <c r="AMK4" s="2"/>
     </row>
-    <row r="5" spans="1:1025" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:1025" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" s="2"/>
       <c r="B5" s="45">
         <v>1</v>
       </c>
       <c r="C5" s="45"/>
       <c r="D5" s="45"/>
-      <c r="E5" s="51" t="s">
-        <v>26</v>
+      <c r="E5" s="52" t="s">
+        <v>24</v>
       </c>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="51"/>
-      <c r="K5" s="51"/>
-      <c r="L5" s="51"/>
-      <c r="M5" s="51"/>
-      <c r="N5" s="51"/>
-      <c r="O5" s="51"/>
-      <c r="P5" s="51"/>
-      <c r="Q5" s="51"/>
-      <c r="R5" s="51"/>
-      <c r="S5" s="51"/>
-      <c r="T5" s="51"/>
-      <c r="U5" s="51"/>
-      <c r="V5" s="51"/>
-      <c r="W5" s="51"/>
-      <c r="X5" s="51"/>
-      <c r="Y5" s="51" t="s">
+      <c r="F5" s="52"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="52"/>
+      <c r="K5" s="52"/>
+      <c r="L5" s="52"/>
+      <c r="M5" s="52"/>
+      <c r="N5" s="52"/>
+      <c r="O5" s="52"/>
+      <c r="P5" s="52"/>
+      <c r="Q5" s="52"/>
+      <c r="R5" s="52"/>
+      <c r="S5" s="52"/>
+      <c r="T5" s="52"/>
+      <c r="U5" s="52"/>
+      <c r="V5" s="52"/>
+      <c r="W5" s="52"/>
+      <c r="X5" s="52"/>
+      <c r="Y5" s="52" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z5" s="52"/>
+      <c r="AA5" s="52"/>
+      <c r="AB5" s="52"/>
+      <c r="AC5" s="52"/>
+      <c r="AD5" s="52"/>
+      <c r="AE5" s="52"/>
+      <c r="AF5" s="52"/>
+      <c r="AG5" s="52"/>
+      <c r="AH5" s="52"/>
+      <c r="AI5" s="52"/>
+      <c r="AJ5" s="52"/>
+      <c r="AK5" s="52"/>
+      <c r="AL5" s="52"/>
+      <c r="AM5" s="52"/>
+      <c r="AN5" s="52"/>
+      <c r="AO5" s="52"/>
+      <c r="AP5" s="52"/>
+      <c r="AQ5" s="52"/>
+      <c r="AR5" s="52"/>
+      <c r="AS5" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="Z5" s="51"/>
-      <c r="AA5" s="51"/>
-      <c r="AB5" s="51"/>
-      <c r="AC5" s="51"/>
-      <c r="AD5" s="51"/>
-      <c r="AE5" s="51"/>
-      <c r="AF5" s="51"/>
-      <c r="AG5" s="51"/>
-      <c r="AH5" s="51"/>
-      <c r="AI5" s="51"/>
-      <c r="AJ5" s="51"/>
-      <c r="AK5" s="51"/>
-      <c r="AL5" s="51"/>
-      <c r="AM5" s="51"/>
-      <c r="AN5" s="51"/>
-      <c r="AO5" s="51"/>
-      <c r="AP5" s="51"/>
-      <c r="AQ5" s="51"/>
-      <c r="AR5" s="51"/>
-      <c r="AS5" s="52" t="s">
-        <v>26</v>
-      </c>
-      <c r="AT5" s="52"/>
-      <c r="AU5" s="52"/>
-      <c r="AV5" s="52"/>
-      <c r="AW5" s="52"/>
-      <c r="AX5" s="52"/>
-      <c r="AY5" s="52"/>
-      <c r="AZ5" s="52"/>
-      <c r="BA5" s="52"/>
-      <c r="BB5" s="52"/>
-      <c r="BC5" s="52"/>
-      <c r="BD5" s="52"/>
-      <c r="BE5" s="52"/>
-      <c r="BF5" s="52"/>
-      <c r="BG5" s="52"/>
-      <c r="BH5" s="52"/>
-      <c r="BI5" s="52"/>
-      <c r="BJ5" s="52"/>
-      <c r="BK5" s="52"/>
-      <c r="BL5" s="52"/>
-      <c r="BM5" s="52"/>
-      <c r="BN5" s="52"/>
-      <c r="BO5" s="52"/>
-      <c r="BP5" s="52"/>
-      <c r="BQ5" s="52"/>
-      <c r="BR5" s="52"/>
-      <c r="BS5" s="52"/>
-      <c r="BT5" s="52"/>
-      <c r="BU5" s="52"/>
-      <c r="BV5" s="52"/>
-      <c r="BW5" s="52"/>
-      <c r="BX5" s="52"/>
-      <c r="BY5" s="52"/>
-      <c r="BZ5" s="52"/>
-      <c r="CA5" s="52"/>
-      <c r="CB5" s="52"/>
-      <c r="CC5" s="52"/>
-      <c r="CD5" s="52"/>
-      <c r="CE5" s="52"/>
-      <c r="CF5" s="52"/>
-      <c r="CG5" s="52"/>
-      <c r="CH5" s="52"/>
-      <c r="CI5" s="52"/>
+      <c r="AT5" s="53"/>
+      <c r="AU5" s="53"/>
+      <c r="AV5" s="53"/>
+      <c r="AW5" s="53"/>
+      <c r="AX5" s="53"/>
+      <c r="AY5" s="53"/>
+      <c r="AZ5" s="53"/>
+      <c r="BA5" s="53"/>
+      <c r="BB5" s="53"/>
+      <c r="BC5" s="53"/>
+      <c r="BD5" s="53"/>
+      <c r="BE5" s="53"/>
+      <c r="BF5" s="53"/>
+      <c r="BG5" s="53"/>
+      <c r="BH5" s="53"/>
+      <c r="BI5" s="53"/>
+      <c r="BJ5" s="53"/>
+      <c r="BK5" s="53"/>
+      <c r="BL5" s="53"/>
+      <c r="BM5" s="53"/>
+      <c r="BN5" s="53"/>
+      <c r="BO5" s="53"/>
+      <c r="BP5" s="53"/>
+      <c r="BQ5" s="53"/>
+      <c r="BR5" s="53"/>
+      <c r="BS5" s="53"/>
+      <c r="BT5" s="53"/>
+      <c r="BU5" s="53"/>
+      <c r="BV5" s="53"/>
+      <c r="BW5" s="53"/>
+      <c r="BX5" s="53"/>
+      <c r="BY5" s="53"/>
+      <c r="BZ5" s="53"/>
+      <c r="CA5" s="53"/>
+      <c r="CB5" s="53"/>
+      <c r="CC5" s="53"/>
+      <c r="CD5" s="53"/>
+      <c r="CE5" s="53"/>
+      <c r="CF5" s="53"/>
+      <c r="CG5" s="53"/>
+      <c r="CH5" s="53"/>
+      <c r="CI5" s="53"/>
       <c r="CJ5" s="2"/>
       <c r="CK5" s="2"/>
       <c r="CL5" s="2"/>
@@ -5965,7 +5758,7 @@
       <c r="AMJ5" s="2"/>
       <c r="AMK5" s="2"/>
     </row>
-    <row r="6" spans="1:1025" s="3" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1025" s="3" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -6053,7 +5846,7 @@
       <c r="CH6" s="5"/>
       <c r="CI6" s="5"/>
     </row>
-    <row r="7" spans="1:1025" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:1025" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="39" t="s">
         <v>6</v>
       </c>
@@ -6151,104 +5944,104 @@
       <c r="CH7" s="44"/>
       <c r="CI7" s="44"/>
     </row>
-    <row r="8" spans="1:1025" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:1025" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A8" s="2"/>
       <c r="B8" s="45">
         <v>1</v>
       </c>
       <c r="C8" s="45"/>
       <c r="D8" s="45"/>
-      <c r="E8" s="53" t="s">
-        <v>69</v>
+      <c r="E8" s="55" t="s">
+        <v>31</v>
       </c>
-      <c r="F8" s="54"/>
-      <c r="G8" s="54"/>
-      <c r="H8" s="54"/>
-      <c r="I8" s="54"/>
-      <c r="J8" s="54"/>
-      <c r="K8" s="54"/>
-      <c r="L8" s="54"/>
-      <c r="M8" s="54"/>
-      <c r="N8" s="54"/>
-      <c r="O8" s="54"/>
-      <c r="P8" s="54"/>
-      <c r="Q8" s="54"/>
-      <c r="R8" s="54"/>
-      <c r="S8" s="54"/>
-      <c r="T8" s="54"/>
-      <c r="U8" s="54"/>
-      <c r="V8" s="54"/>
-      <c r="W8" s="54"/>
-      <c r="X8" s="55"/>
-      <c r="Y8" s="53" t="s">
+      <c r="F8" s="56"/>
+      <c r="G8" s="56"/>
+      <c r="H8" s="56"/>
+      <c r="I8" s="56"/>
+      <c r="J8" s="56"/>
+      <c r="K8" s="56"/>
+      <c r="L8" s="56"/>
+      <c r="M8" s="56"/>
+      <c r="N8" s="56"/>
+      <c r="O8" s="56"/>
+      <c r="P8" s="56"/>
+      <c r="Q8" s="56"/>
+      <c r="R8" s="56"/>
+      <c r="S8" s="56"/>
+      <c r="T8" s="56"/>
+      <c r="U8" s="56"/>
+      <c r="V8" s="56"/>
+      <c r="W8" s="56"/>
+      <c r="X8" s="57"/>
+      <c r="Y8" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z8" s="56"/>
+      <c r="AA8" s="56"/>
+      <c r="AB8" s="56"/>
+      <c r="AC8" s="56"/>
+      <c r="AD8" s="56"/>
+      <c r="AE8" s="56"/>
+      <c r="AF8" s="56"/>
+      <c r="AG8" s="56"/>
+      <c r="AH8" s="57"/>
+      <c r="AI8" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="Z8" s="54"/>
-      <c r="AA8" s="54"/>
-      <c r="AB8" s="54"/>
-      <c r="AC8" s="54"/>
-      <c r="AD8" s="54"/>
-      <c r="AE8" s="54"/>
-      <c r="AF8" s="54"/>
-      <c r="AG8" s="54"/>
-      <c r="AH8" s="55"/>
-      <c r="AI8" s="53" t="s">
-        <v>14</v>
+      <c r="AJ8" s="56"/>
+      <c r="AK8" s="56"/>
+      <c r="AL8" s="56"/>
+      <c r="AM8" s="56"/>
+      <c r="AN8" s="56"/>
+      <c r="AO8" s="56"/>
+      <c r="AP8" s="56"/>
+      <c r="AQ8" s="56"/>
+      <c r="AR8" s="57"/>
+      <c r="AS8" s="50" t="s">
+        <v>20</v>
       </c>
-      <c r="AJ8" s="54"/>
-      <c r="AK8" s="54"/>
-      <c r="AL8" s="54"/>
-      <c r="AM8" s="54"/>
-      <c r="AN8" s="54"/>
-      <c r="AO8" s="54"/>
-      <c r="AP8" s="54"/>
-      <c r="AQ8" s="54"/>
-      <c r="AR8" s="55"/>
-      <c r="AS8" s="49" t="s">
-        <v>30</v>
-      </c>
-      <c r="AT8" s="49"/>
-      <c r="AU8" s="49"/>
-      <c r="AV8" s="49"/>
-      <c r="AW8" s="49"/>
-      <c r="AX8" s="49"/>
-      <c r="AY8" s="49"/>
-      <c r="AZ8" s="49"/>
-      <c r="BA8" s="49"/>
-      <c r="BB8" s="49"/>
-      <c r="BC8" s="49"/>
-      <c r="BD8" s="49"/>
-      <c r="BE8" s="49"/>
-      <c r="BF8" s="49"/>
-      <c r="BG8" s="49"/>
-      <c r="BH8" s="49"/>
-      <c r="BI8" s="49"/>
-      <c r="BJ8" s="49"/>
-      <c r="BK8" s="49"/>
-      <c r="BL8" s="49"/>
-      <c r="BM8" s="49"/>
-      <c r="BN8" s="49"/>
-      <c r="BO8" s="49"/>
-      <c r="BP8" s="49"/>
-      <c r="BQ8" s="49"/>
-      <c r="BR8" s="49"/>
-      <c r="BS8" s="49"/>
-      <c r="BT8" s="49"/>
-      <c r="BU8" s="49"/>
-      <c r="BV8" s="49"/>
-      <c r="BW8" s="49"/>
-      <c r="BX8" s="49"/>
-      <c r="BY8" s="49"/>
-      <c r="BZ8" s="49"/>
-      <c r="CA8" s="49"/>
-      <c r="CB8" s="49"/>
-      <c r="CC8" s="49"/>
-      <c r="CD8" s="49"/>
-      <c r="CE8" s="49"/>
-      <c r="CF8" s="49"/>
-      <c r="CG8" s="49"/>
-      <c r="CH8" s="49"/>
-      <c r="CI8" s="49"/>
+      <c r="AT8" s="50"/>
+      <c r="AU8" s="50"/>
+      <c r="AV8" s="50"/>
+      <c r="AW8" s="50"/>
+      <c r="AX8" s="50"/>
+      <c r="AY8" s="50"/>
+      <c r="AZ8" s="50"/>
+      <c r="BA8" s="50"/>
+      <c r="BB8" s="50"/>
+      <c r="BC8" s="50"/>
+      <c r="BD8" s="50"/>
+      <c r="BE8" s="50"/>
+      <c r="BF8" s="50"/>
+      <c r="BG8" s="50"/>
+      <c r="BH8" s="50"/>
+      <c r="BI8" s="50"/>
+      <c r="BJ8" s="50"/>
+      <c r="BK8" s="50"/>
+      <c r="BL8" s="50"/>
+      <c r="BM8" s="50"/>
+      <c r="BN8" s="50"/>
+      <c r="BO8" s="50"/>
+      <c r="BP8" s="50"/>
+      <c r="BQ8" s="50"/>
+      <c r="BR8" s="50"/>
+      <c r="BS8" s="50"/>
+      <c r="BT8" s="50"/>
+      <c r="BU8" s="50"/>
+      <c r="BV8" s="50"/>
+      <c r="BW8" s="50"/>
+      <c r="BX8" s="50"/>
+      <c r="BY8" s="50"/>
+      <c r="BZ8" s="50"/>
+      <c r="CA8" s="50"/>
+      <c r="CB8" s="50"/>
+      <c r="CC8" s="50"/>
+      <c r="CD8" s="50"/>
+      <c r="CE8" s="50"/>
+      <c r="CF8" s="50"/>
+      <c r="CG8" s="50"/>
+      <c r="CH8" s="50"/>
+      <c r="CI8" s="50"/>
       <c r="CJ8" s="1"/>
       <c r="CK8" s="1"/>
       <c r="CL8" s="1"/>
@@ -7187,7 +6980,7 @@
       <c r="AMI8" s="1"/>
       <c r="AMJ8" s="1"/>
     </row>
-    <row r="9" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="1"/>
       <c r="B9" s="9"/>
       <c r="C9" s="10"/>
@@ -8213,19 +8006,19 @@
       <c r="AMI9" s="1"/>
       <c r="AMJ9" s="1"/>
     </row>
-    <row r="10" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="1"/>
       <c r="B10" s="12"/>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
       <c r="E10" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F10" s="15"/>
       <c r="G10" s="15"/>
       <c r="H10" s="1"/>
       <c r="I10" s="15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J10" s="15"/>
       <c r="K10" s="15"/>
@@ -9243,7 +9036,7 @@
       <c r="AMI10" s="1"/>
       <c r="AMJ10" s="1"/>
     </row>
-    <row r="11" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="1"/>
       <c r="B11" s="12"/>
       <c r="C11" s="13"/>
@@ -10269,19 +10062,19 @@
       <c r="AMI11" s="1"/>
       <c r="AMJ11" s="1"/>
     </row>
-    <row r="12" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="1"/>
       <c r="B12" s="12"/>
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
       <c r="E12" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F12" s="15"/>
       <c r="G12" s="15"/>
       <c r="H12" s="1"/>
       <c r="I12" s="15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J12" s="15"/>
       <c r="K12" s="15"/>
@@ -11299,7 +11092,7 @@
       <c r="AMI12" s="1"/>
       <c r="AMJ12" s="1"/>
     </row>
-    <row r="13" spans="1:1025" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:1025" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A13" s="1"/>
       <c r="B13" s="18"/>
       <c r="C13" s="19"/>
@@ -12325,7 +12118,7 @@
       <c r="AMI13" s="1"/>
       <c r="AMJ13" s="1"/>
     </row>
-    <row r="14" spans="1:1025" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:1025" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -13351,7 +13144,7 @@
       <c r="AMI14" s="1"/>
       <c r="AMJ14" s="1"/>
     </row>
-    <row r="15" spans="1:1025" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:1025" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="39" t="s">
         <v>6</v>
       </c>
@@ -13449,7 +13242,7 @@
       <c r="CH15" s="44"/>
       <c r="CI15" s="44"/>
     </row>
-    <row r="16" spans="1:1025" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:1025" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A16" s="2"/>
       <c r="B16" s="45">
         <v>2</v>
@@ -13457,7 +13250,7 @@
       <c r="C16" s="45"/>
       <c r="D16" s="45"/>
       <c r="E16" s="46" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="F16" s="46"/>
       <c r="G16" s="46"/>
@@ -13478,75 +13271,75 @@
       <c r="V16" s="46"/>
       <c r="W16" s="46"/>
       <c r="X16" s="46"/>
-      <c r="Y16" s="36" t="s">
-        <v>65</v>
+      <c r="Y16" s="47" t="s">
+        <v>47</v>
       </c>
-      <c r="Z16" s="47"/>
-      <c r="AA16" s="47"/>
-      <c r="AB16" s="47"/>
-      <c r="AC16" s="47"/>
-      <c r="AD16" s="47"/>
-      <c r="AE16" s="47"/>
-      <c r="AF16" s="47"/>
-      <c r="AG16" s="47"/>
-      <c r="AH16" s="48"/>
-      <c r="AI16" s="36" t="s">
-        <v>68</v>
+      <c r="Z16" s="48"/>
+      <c r="AA16" s="48"/>
+      <c r="AB16" s="48"/>
+      <c r="AC16" s="48"/>
+      <c r="AD16" s="48"/>
+      <c r="AE16" s="48"/>
+      <c r="AF16" s="48"/>
+      <c r="AG16" s="48"/>
+      <c r="AH16" s="49"/>
+      <c r="AI16" s="47" t="s">
+        <v>23</v>
       </c>
-      <c r="AJ16" s="47"/>
-      <c r="AK16" s="47"/>
-      <c r="AL16" s="47"/>
-      <c r="AM16" s="47"/>
-      <c r="AN16" s="47"/>
-      <c r="AO16" s="47"/>
-      <c r="AP16" s="47"/>
-      <c r="AQ16" s="47"/>
-      <c r="AR16" s="48"/>
-      <c r="AS16" s="49" t="s">
-        <v>64</v>
+      <c r="AJ16" s="48"/>
+      <c r="AK16" s="48"/>
+      <c r="AL16" s="48"/>
+      <c r="AM16" s="48"/>
+      <c r="AN16" s="48"/>
+      <c r="AO16" s="48"/>
+      <c r="AP16" s="48"/>
+      <c r="AQ16" s="48"/>
+      <c r="AR16" s="49"/>
+      <c r="AS16" s="50" t="s">
+        <v>33</v>
       </c>
-      <c r="AT16" s="49"/>
-      <c r="AU16" s="49"/>
-      <c r="AV16" s="49"/>
-      <c r="AW16" s="49"/>
-      <c r="AX16" s="49"/>
-      <c r="AY16" s="49"/>
-      <c r="AZ16" s="49"/>
-      <c r="BA16" s="49"/>
-      <c r="BB16" s="49"/>
-      <c r="BC16" s="49"/>
-      <c r="BD16" s="49"/>
-      <c r="BE16" s="49"/>
-      <c r="BF16" s="49"/>
-      <c r="BG16" s="49"/>
-      <c r="BH16" s="49"/>
-      <c r="BI16" s="49"/>
-      <c r="BJ16" s="49"/>
-      <c r="BK16" s="49"/>
-      <c r="BL16" s="49"/>
-      <c r="BM16" s="49"/>
-      <c r="BN16" s="49"/>
-      <c r="BO16" s="49"/>
-      <c r="BP16" s="49"/>
-      <c r="BQ16" s="49"/>
-      <c r="BR16" s="49"/>
-      <c r="BS16" s="49"/>
-      <c r="BT16" s="49"/>
-      <c r="BU16" s="49"/>
-      <c r="BV16" s="49"/>
-      <c r="BW16" s="49"/>
-      <c r="BX16" s="49"/>
-      <c r="BY16" s="49"/>
-      <c r="BZ16" s="49"/>
-      <c r="CA16" s="49"/>
-      <c r="CB16" s="49"/>
-      <c r="CC16" s="49"/>
-      <c r="CD16" s="49"/>
-      <c r="CE16" s="49"/>
-      <c r="CF16" s="49"/>
-      <c r="CG16" s="49"/>
-      <c r="CH16" s="49"/>
-      <c r="CI16" s="49"/>
+      <c r="AT16" s="50"/>
+      <c r="AU16" s="50"/>
+      <c r="AV16" s="50"/>
+      <c r="AW16" s="50"/>
+      <c r="AX16" s="50"/>
+      <c r="AY16" s="50"/>
+      <c r="AZ16" s="50"/>
+      <c r="BA16" s="50"/>
+      <c r="BB16" s="50"/>
+      <c r="BC16" s="50"/>
+      <c r="BD16" s="50"/>
+      <c r="BE16" s="50"/>
+      <c r="BF16" s="50"/>
+      <c r="BG16" s="50"/>
+      <c r="BH16" s="50"/>
+      <c r="BI16" s="50"/>
+      <c r="BJ16" s="50"/>
+      <c r="BK16" s="50"/>
+      <c r="BL16" s="50"/>
+      <c r="BM16" s="50"/>
+      <c r="BN16" s="50"/>
+      <c r="BO16" s="50"/>
+      <c r="BP16" s="50"/>
+      <c r="BQ16" s="50"/>
+      <c r="BR16" s="50"/>
+      <c r="BS16" s="50"/>
+      <c r="BT16" s="50"/>
+      <c r="BU16" s="50"/>
+      <c r="BV16" s="50"/>
+      <c r="BW16" s="50"/>
+      <c r="BX16" s="50"/>
+      <c r="BY16" s="50"/>
+      <c r="BZ16" s="50"/>
+      <c r="CA16" s="50"/>
+      <c r="CB16" s="50"/>
+      <c r="CC16" s="50"/>
+      <c r="CD16" s="50"/>
+      <c r="CE16" s="50"/>
+      <c r="CF16" s="50"/>
+      <c r="CG16" s="50"/>
+      <c r="CH16" s="50"/>
+      <c r="CI16" s="50"/>
       <c r="CJ16" s="1"/>
       <c r="CK16" s="1"/>
       <c r="CL16" s="1"/>
@@ -14485,7 +14278,7 @@
       <c r="AMI16" s="1"/>
       <c r="AMJ16" s="1"/>
     </row>
-    <row r="17" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="1"/>
       <c r="B17" s="9"/>
       <c r="C17" s="10"/>
@@ -15511,19 +15304,19 @@
       <c r="AMI17" s="1"/>
       <c r="AMJ17" s="1"/>
     </row>
-    <row r="18" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="1"/>
       <c r="B18" s="12"/>
       <c r="C18" s="13"/>
       <c r="D18" s="24"/>
       <c r="E18" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F18" s="15"/>
       <c r="G18" s="15"/>
       <c r="H18" s="1"/>
       <c r="I18" s="15" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="J18" s="15"/>
       <c r="K18" s="15"/>
@@ -16541,38 +16334,38 @@
       <c r="AMI18" s="1"/>
       <c r="AMJ18" s="1"/>
     </row>
-    <row r="19" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="1"/>
       <c r="B19" s="12"/>
       <c r="C19" s="13"/>
       <c r="D19" s="24"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="15"/>
-      <c r="L19" s="15"/>
-      <c r="M19" s="15"/>
-      <c r="N19" s="15"/>
-      <c r="O19" s="15"/>
-      <c r="P19" s="15"/>
-      <c r="Q19" s="15"/>
-      <c r="R19" s="15"/>
-      <c r="S19" s="15"/>
-      <c r="T19" s="15"/>
-      <c r="U19" s="15"/>
-      <c r="V19" s="15"/>
-      <c r="W19" s="15"/>
-      <c r="X19" s="15"/>
-      <c r="Y19" s="15"/>
-      <c r="Z19" s="15"/>
-      <c r="AA19" s="15"/>
-      <c r="AB19" s="15"/>
-      <c r="AC19" s="15"/>
-      <c r="AD19" s="15"/>
-      <c r="AE19" s="15"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="13"/>
+      <c r="O19" s="13"/>
+      <c r="P19" s="13"/>
+      <c r="Q19" s="13"/>
+      <c r="R19" s="13"/>
+      <c r="S19" s="13"/>
+      <c r="T19" s="13"/>
+      <c r="U19" s="13"/>
+      <c r="V19" s="13"/>
+      <c r="W19" s="13"/>
+      <c r="X19" s="13"/>
+      <c r="Y19" s="13"/>
+      <c r="Z19" s="13"/>
+      <c r="AA19" s="13"/>
+      <c r="AB19" s="13"/>
+      <c r="AC19" s="13"/>
+      <c r="AD19" s="13"/>
+      <c r="AE19" s="13"/>
       <c r="AF19" s="24"/>
       <c r="AG19" s="24"/>
       <c r="AH19" s="24"/>
@@ -17567,76 +17360,72 @@
       <c r="AMI19" s="1"/>
       <c r="AMJ19" s="1"/>
     </row>
-    <row r="20" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="1"/>
       <c r="B20" s="12"/>
       <c r="C20" s="13"/>
       <c r="D20" s="24"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="H20" s="32"/>
-      <c r="I20" s="33"/>
-      <c r="J20" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="K20" s="35"/>
-      <c r="L20" s="35"/>
-      <c r="M20" s="35"/>
-      <c r="N20" s="35"/>
-      <c r="O20" s="35"/>
-      <c r="P20" s="35"/>
-      <c r="Q20" s="35"/>
-      <c r="R20" s="35"/>
-      <c r="S20" s="35"/>
-      <c r="T20" s="32"/>
-      <c r="U20" s="32"/>
-      <c r="V20" s="32"/>
-      <c r="W20" s="32"/>
-      <c r="X20" s="33"/>
-      <c r="Y20" s="31" t="s">
+      <c r="E20" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="Z20" s="37"/>
-      <c r="AA20" s="37"/>
-      <c r="AB20" s="37"/>
-      <c r="AC20" s="37"/>
-      <c r="AD20" s="37"/>
-      <c r="AE20" s="37"/>
-      <c r="AF20" s="37"/>
-      <c r="AG20" s="37"/>
-      <c r="AH20" s="37"/>
-      <c r="AI20" s="37"/>
-      <c r="AJ20" s="37"/>
-      <c r="AK20" s="37"/>
-      <c r="AL20" s="37"/>
-      <c r="AM20" s="37"/>
-      <c r="AN20" s="37"/>
-      <c r="AO20" s="37"/>
-      <c r="AP20" s="37"/>
-      <c r="AQ20" s="37"/>
-      <c r="AR20" s="37"/>
-      <c r="AS20" s="37"/>
-      <c r="AT20" s="37"/>
-      <c r="AU20" s="37"/>
-      <c r="AV20" s="37"/>
-      <c r="AW20" s="37"/>
-      <c r="AX20" s="37"/>
-      <c r="AY20" s="37"/>
-      <c r="AZ20" s="37"/>
-      <c r="BA20" s="37"/>
-      <c r="BB20" s="37"/>
-      <c r="BC20" s="37"/>
-      <c r="BD20" s="37"/>
-      <c r="BE20" s="37"/>
-      <c r="BF20" s="37"/>
-      <c r="BG20" s="37"/>
-      <c r="BH20" s="37"/>
-      <c r="BI20" s="37"/>
-      <c r="BJ20" s="37"/>
-      <c r="BK20" s="38"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="32"/>
+      <c r="K20" s="32"/>
+      <c r="L20" s="32"/>
+      <c r="M20" s="32"/>
+      <c r="N20" s="32"/>
+      <c r="O20" s="32"/>
+      <c r="P20" s="32"/>
+      <c r="Q20" s="32"/>
+      <c r="R20" s="32"/>
+      <c r="S20" s="32"/>
+      <c r="T20" s="31"/>
+      <c r="U20" s="31"/>
+      <c r="V20" s="31"/>
+      <c r="W20" s="31"/>
+      <c r="X20" s="31"/>
+      <c r="Y20" s="24"/>
+      <c r="Z20" s="31"/>
+      <c r="AA20" s="31"/>
+      <c r="AB20" s="31"/>
+      <c r="AC20" s="31"/>
+      <c r="AD20" s="31"/>
+      <c r="AE20" s="31"/>
+      <c r="AF20" s="31"/>
+      <c r="AG20" s="31"/>
+      <c r="AH20" s="31"/>
+      <c r="AI20" s="31"/>
+      <c r="AJ20" s="31"/>
+      <c r="AK20" s="31"/>
+      <c r="AL20" s="31"/>
+      <c r="AM20" s="31"/>
+      <c r="AN20" s="31"/>
+      <c r="AO20" s="31"/>
+      <c r="AP20" s="31"/>
+      <c r="AQ20" s="31"/>
+      <c r="AR20" s="31"/>
+      <c r="AS20" s="31"/>
+      <c r="AT20" s="31"/>
+      <c r="AU20" s="31"/>
+      <c r="AV20" s="31"/>
+      <c r="AW20" s="31"/>
+      <c r="AX20" s="31"/>
+      <c r="AY20" s="31"/>
+      <c r="AZ20" s="31"/>
+      <c r="BA20" s="31"/>
+      <c r="BB20" s="31"/>
+      <c r="BC20" s="31"/>
+      <c r="BD20" s="31"/>
+      <c r="BE20" s="31"/>
+      <c r="BF20" s="31"/>
+      <c r="BG20" s="31"/>
+      <c r="BH20" s="31"/>
+      <c r="BI20" s="31"/>
+      <c r="BJ20" s="31"/>
+      <c r="BK20" s="31"/>
       <c r="BL20" s="24"/>
       <c r="BM20" s="24"/>
       <c r="BN20" s="24"/>
@@ -18599,75 +18388,69 @@
       <c r="AMI20" s="1"/>
       <c r="AMJ20" s="1"/>
     </row>
-    <row r="21" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="1"/>
       <c r="B21" s="12"/>
       <c r="C21" s="13"/>
       <c r="D21" s="24"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="36">
-        <v>1</v>
-      </c>
-      <c r="H21" s="37"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="38"/>
       <c r="I21" s="38"/>
-      <c r="J21" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="K21" s="37"/>
-      <c r="L21" s="37"/>
-      <c r="M21" s="37"/>
-      <c r="N21" s="37"/>
-      <c r="O21" s="37"/>
-      <c r="P21" s="37"/>
-      <c r="Q21" s="37"/>
-      <c r="R21" s="37"/>
-      <c r="S21" s="37"/>
-      <c r="T21" s="37"/>
-      <c r="U21" s="37"/>
-      <c r="V21" s="37"/>
-      <c r="W21" s="37"/>
+      <c r="J21" s="37"/>
+      <c r="K21" s="38"/>
+      <c r="L21" s="38"/>
+      <c r="M21" s="38"/>
+      <c r="N21" s="38"/>
+      <c r="O21" s="38"/>
+      <c r="P21" s="38"/>
+      <c r="Q21" s="38"/>
+      <c r="R21" s="38"/>
+      <c r="S21" s="38"/>
+      <c r="T21" s="38"/>
+      <c r="U21" s="38"/>
+      <c r="V21" s="38"/>
+      <c r="W21" s="38"/>
       <c r="X21" s="38"/>
-      <c r="Y21" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z21" s="37"/>
-      <c r="AA21" s="37"/>
-      <c r="AB21" s="37"/>
-      <c r="AC21" s="37"/>
-      <c r="AD21" s="37"/>
-      <c r="AE21" s="37"/>
-      <c r="AF21" s="37"/>
-      <c r="AG21" s="37"/>
-      <c r="AH21" s="37"/>
-      <c r="AI21" s="37"/>
-      <c r="AJ21" s="37"/>
-      <c r="AK21" s="37"/>
-      <c r="AL21" s="37"/>
-      <c r="AM21" s="37"/>
-      <c r="AN21" s="37"/>
-      <c r="AO21" s="37"/>
-      <c r="AP21" s="37"/>
-      <c r="AQ21" s="37"/>
-      <c r="AR21" s="37"/>
-      <c r="AS21" s="37"/>
-      <c r="AT21" s="37"/>
-      <c r="AU21" s="37"/>
-      <c r="AV21" s="37"/>
-      <c r="AW21" s="37"/>
-      <c r="AX21" s="37"/>
-      <c r="AY21" s="37"/>
-      <c r="AZ21" s="37"/>
-      <c r="BA21" s="37"/>
-      <c r="BB21" s="37"/>
-      <c r="BC21" s="37"/>
-      <c r="BD21" s="37"/>
-      <c r="BE21" s="37"/>
-      <c r="BF21" s="37"/>
-      <c r="BG21" s="37"/>
-      <c r="BH21" s="37"/>
-      <c r="BI21" s="37"/>
-      <c r="BJ21" s="37"/>
+      <c r="Y21" s="37"/>
+      <c r="Z21" s="38"/>
+      <c r="AA21" s="38"/>
+      <c r="AB21" s="38"/>
+      <c r="AC21" s="38"/>
+      <c r="AD21" s="38"/>
+      <c r="AE21" s="38"/>
+      <c r="AF21" s="38"/>
+      <c r="AG21" s="38"/>
+      <c r="AH21" s="38"/>
+      <c r="AI21" s="38"/>
+      <c r="AJ21" s="38"/>
+      <c r="AK21" s="38"/>
+      <c r="AL21" s="38"/>
+      <c r="AM21" s="38"/>
+      <c r="AN21" s="38"/>
+      <c r="AO21" s="38"/>
+      <c r="AP21" s="38"/>
+      <c r="AQ21" s="38"/>
+      <c r="AR21" s="38"/>
+      <c r="AS21" s="38"/>
+      <c r="AT21" s="38"/>
+      <c r="AU21" s="38"/>
+      <c r="AV21" s="38"/>
+      <c r="AW21" s="38"/>
+      <c r="AX21" s="38"/>
+      <c r="AY21" s="38"/>
+      <c r="AZ21" s="38"/>
+      <c r="BA21" s="38"/>
+      <c r="BB21" s="38"/>
+      <c r="BC21" s="38"/>
+      <c r="BD21" s="38"/>
+      <c r="BE21" s="38"/>
+      <c r="BF21" s="38"/>
+      <c r="BG21" s="38"/>
+      <c r="BH21" s="38"/>
+      <c r="BI21" s="38"/>
+      <c r="BJ21" s="38"/>
       <c r="BK21" s="38"/>
       <c r="BL21" s="24"/>
       <c r="BM21" s="24"/>
@@ -19631,76 +19414,72 @@
       <c r="AMI21" s="1"/>
       <c r="AMJ21" s="1"/>
     </row>
-    <row r="22" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="1"/>
       <c r="B22" s="12"/>
       <c r="C22" s="13"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="36">
-        <v>2</v>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13" t="s">
+        <v>36</v>
       </c>
-      <c r="H22" s="37"/>
-      <c r="I22" s="38"/>
-      <c r="J22" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="K22" s="37"/>
-      <c r="L22" s="37"/>
-      <c r="M22" s="37"/>
-      <c r="N22" s="37"/>
-      <c r="O22" s="37"/>
-      <c r="P22" s="37"/>
-      <c r="Q22" s="37"/>
-      <c r="R22" s="37"/>
-      <c r="S22" s="37"/>
-      <c r="T22" s="37"/>
-      <c r="U22" s="37"/>
-      <c r="V22" s="37"/>
-      <c r="W22" s="37"/>
-      <c r="X22" s="38"/>
-      <c r="Y22" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z22" s="37"/>
-      <c r="AA22" s="37"/>
-      <c r="AB22" s="37"/>
-      <c r="AC22" s="37"/>
-      <c r="AD22" s="37"/>
-      <c r="AE22" s="37"/>
-      <c r="AF22" s="37"/>
-      <c r="AG22" s="37"/>
-      <c r="AH22" s="37"/>
-      <c r="AI22" s="37"/>
-      <c r="AJ22" s="37"/>
-      <c r="AK22" s="37"/>
-      <c r="AL22" s="37"/>
-      <c r="AM22" s="37"/>
-      <c r="AN22" s="37"/>
-      <c r="AO22" s="37"/>
-      <c r="AP22" s="37"/>
-      <c r="AQ22" s="37"/>
-      <c r="AR22" s="37"/>
-      <c r="AS22" s="37"/>
-      <c r="AT22" s="37"/>
-      <c r="AU22" s="37"/>
-      <c r="AV22" s="37"/>
-      <c r="AW22" s="37"/>
-      <c r="AX22" s="37"/>
-      <c r="AY22" s="37"/>
-      <c r="AZ22" s="37"/>
-      <c r="BA22" s="37"/>
-      <c r="BB22" s="37"/>
-      <c r="BC22" s="37"/>
-      <c r="BD22" s="37"/>
-      <c r="BE22" s="37"/>
-      <c r="BF22" s="37"/>
-      <c r="BG22" s="37"/>
-      <c r="BH22" s="37"/>
-      <c r="BI22" s="37"/>
-      <c r="BJ22" s="37"/>
-      <c r="BK22" s="38"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="13"/>
+      <c r="O22" s="13"/>
+      <c r="P22" s="13"/>
+      <c r="Q22" s="13"/>
+      <c r="R22" s="13"/>
+      <c r="S22" s="13"/>
+      <c r="T22" s="13"/>
+      <c r="U22" s="13"/>
+      <c r="V22" s="13"/>
+      <c r="W22" s="13"/>
+      <c r="X22" s="13"/>
+      <c r="Y22" s="13"/>
+      <c r="Z22" s="13"/>
+      <c r="AA22" s="13"/>
+      <c r="AB22" s="13"/>
+      <c r="AC22" s="13"/>
+      <c r="AD22" s="13"/>
+      <c r="AE22" s="13"/>
+      <c r="AF22" s="13"/>
+      <c r="AG22" s="13"/>
+      <c r="AH22" s="13"/>
+      <c r="AI22" s="13"/>
+      <c r="AJ22" s="13"/>
+      <c r="AK22" s="13"/>
+      <c r="AL22" s="13"/>
+      <c r="AM22" s="13"/>
+      <c r="AN22" s="13"/>
+      <c r="AO22" s="13"/>
+      <c r="AP22" s="13"/>
+      <c r="AQ22" s="13"/>
+      <c r="AR22" s="13"/>
+      <c r="AS22" s="13"/>
+      <c r="AT22" s="13"/>
+      <c r="AU22" s="13"/>
+      <c r="AV22" s="13"/>
+      <c r="AW22" s="13"/>
+      <c r="AX22" s="13"/>
+      <c r="AY22" s="13"/>
+      <c r="AZ22" s="13"/>
+      <c r="BA22" s="13"/>
+      <c r="BB22" s="13"/>
+      <c r="BC22" s="13"/>
+      <c r="BD22" s="13"/>
+      <c r="BE22" s="13"/>
+      <c r="BF22" s="13"/>
+      <c r="BG22" s="13"/>
+      <c r="BH22" s="13"/>
+      <c r="BI22" s="13"/>
+      <c r="BJ22" s="13"/>
+      <c r="BK22" s="13"/>
       <c r="BL22" s="24"/>
       <c r="BM22" s="24"/>
       <c r="BN22" s="24"/>
@@ -20663,56 +20442,56 @@
       <c r="AMI22" s="1"/>
       <c r="AMJ22" s="1"/>
     </row>
-    <row r="23" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:1024" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A23" s="1"/>
       <c r="B23" s="12"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="15"/>
-      <c r="K23" s="15"/>
-      <c r="L23" s="15"/>
-      <c r="M23" s="15"/>
-      <c r="N23" s="15"/>
-      <c r="O23" s="15"/>
-      <c r="P23" s="15"/>
-      <c r="Q23" s="15"/>
-      <c r="R23" s="15"/>
-      <c r="S23" s="15"/>
-      <c r="T23" s="15"/>
-      <c r="U23" s="15"/>
-      <c r="V23" s="15"/>
-      <c r="W23" s="15"/>
-      <c r="X23" s="15"/>
-      <c r="Y23" s="15"/>
-      <c r="Z23" s="15"/>
-      <c r="AA23" s="15"/>
-      <c r="AB23" s="15"/>
-      <c r="AC23" s="15"/>
-      <c r="AD23" s="15"/>
-      <c r="AE23" s="15"/>
-      <c r="AF23" s="24"/>
-      <c r="AG23" s="24"/>
-      <c r="AH23" s="24"/>
-      <c r="AI23" s="24"/>
-      <c r="AJ23" s="24"/>
-      <c r="AK23" s="24"/>
-      <c r="AL23" s="24"/>
-      <c r="AM23" s="24"/>
-      <c r="AN23" s="24"/>
-      <c r="AO23" s="24"/>
-      <c r="AP23" s="24"/>
-      <c r="AQ23" s="24"/>
-      <c r="AR23" s="24"/>
-      <c r="AS23" s="24"/>
-      <c r="AT23" s="24"/>
-      <c r="AU23" s="24"/>
-      <c r="AV23" s="24"/>
-      <c r="AW23" s="24"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="29"/>
+      <c r="M23" s="29"/>
+      <c r="N23" s="29"/>
+      <c r="O23" s="29"/>
+      <c r="P23" s="29"/>
+      <c r="Q23" s="29"/>
+      <c r="R23" s="29"/>
+      <c r="S23" s="29"/>
+      <c r="T23" s="29"/>
+      <c r="U23" s="29"/>
+      <c r="V23" s="29"/>
+      <c r="W23" s="29"/>
+      <c r="X23" s="29"/>
+      <c r="Y23" s="29"/>
+      <c r="Z23" s="29"/>
+      <c r="AA23" s="29"/>
+      <c r="AB23" s="29"/>
+      <c r="AC23" s="29"/>
+      <c r="AD23" s="29"/>
+      <c r="AE23" s="29"/>
+      <c r="AF23" s="30"/>
+      <c r="AG23" s="30"/>
+      <c r="AH23" s="30"/>
+      <c r="AI23" s="30"/>
+      <c r="AJ23" s="30"/>
+      <c r="AK23" s="30"/>
+      <c r="AL23" s="30"/>
+      <c r="AM23" s="30"/>
+      <c r="AN23" s="30"/>
+      <c r="AO23" s="30"/>
+      <c r="AP23" s="30"/>
+      <c r="AQ23" s="30"/>
+      <c r="AR23" s="30"/>
+      <c r="AS23" s="30"/>
+      <c r="AT23" s="30"/>
+      <c r="AU23" s="30"/>
+      <c r="AV23" s="30"/>
+      <c r="AW23" s="30"/>
       <c r="AX23" s="25"/>
       <c r="AY23" s="25"/>
       <c r="AZ23" s="25"/>
@@ -20727,29 +20506,29 @@
       <c r="BI23" s="25"/>
       <c r="BJ23" s="25"/>
       <c r="BK23" s="25"/>
-      <c r="BL23" s="24"/>
-      <c r="BM23" s="24"/>
-      <c r="BN23" s="24"/>
-      <c r="BO23" s="24"/>
-      <c r="BP23" s="13"/>
-      <c r="BQ23" s="13"/>
-      <c r="BR23" s="13"/>
-      <c r="BS23" s="13"/>
-      <c r="BT23" s="13"/>
-      <c r="BU23" s="13"/>
-      <c r="BV23" s="13"/>
-      <c r="BW23" s="13"/>
-      <c r="BX23" s="13"/>
-      <c r="BY23" s="13"/>
-      <c r="BZ23" s="13"/>
-      <c r="CA23" s="13"/>
-      <c r="CB23" s="13"/>
-      <c r="CC23" s="13"/>
-      <c r="CD23" s="13"/>
-      <c r="CE23" s="13"/>
-      <c r="CF23" s="16"/>
-      <c r="CG23" s="16"/>
-      <c r="CH23" s="16"/>
+      <c r="BL23" s="30"/>
+      <c r="BM23" s="30"/>
+      <c r="BN23" s="30"/>
+      <c r="BO23" s="30"/>
+      <c r="BP23" s="29"/>
+      <c r="BQ23" s="29"/>
+      <c r="BR23" s="29"/>
+      <c r="BS23" s="29"/>
+      <c r="BT23" s="29"/>
+      <c r="BU23" s="29"/>
+      <c r="BV23" s="29"/>
+      <c r="BW23" s="29"/>
+      <c r="BX23" s="29"/>
+      <c r="BY23" s="29"/>
+      <c r="BZ23" s="29"/>
+      <c r="CA23" s="29"/>
+      <c r="CB23" s="29"/>
+      <c r="CC23" s="29"/>
+      <c r="CD23" s="29"/>
+      <c r="CE23" s="29"/>
+      <c r="CF23" s="35"/>
+      <c r="CG23" s="35"/>
+      <c r="CH23" s="35"/>
       <c r="CI23" s="17"/>
       <c r="CJ23" s="1"/>
       <c r="CK23" s="1"/>
@@ -21689,98 +21468,104 @@
       <c r="AMI23" s="1"/>
       <c r="AMJ23" s="1"/>
     </row>
-    <row r="24" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="1"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="14" t="s">
-        <v>16</v>
+      <c r="B24" s="39" t="s">
+        <v>6</v>
       </c>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="15" t="s">
-        <v>40</v>
+      <c r="C24" s="39"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="40" t="s">
+        <v>7</v>
       </c>
-      <c r="J24" s="15"/>
-      <c r="K24" s="15"/>
-      <c r="L24" s="15"/>
-      <c r="M24" s="15"/>
-      <c r="N24" s="15"/>
-      <c r="O24" s="15"/>
-      <c r="P24" s="15"/>
-      <c r="Q24" s="15"/>
-      <c r="R24" s="15"/>
-      <c r="S24" s="15"/>
-      <c r="T24" s="15"/>
-      <c r="U24" s="15"/>
-      <c r="V24" s="15"/>
-      <c r="W24" s="15"/>
-      <c r="X24" s="15"/>
-      <c r="Y24" s="15"/>
-      <c r="Z24" s="15"/>
-      <c r="AA24" s="15"/>
-      <c r="AB24" s="15"/>
-      <c r="AC24" s="15"/>
-      <c r="AD24" s="15"/>
-      <c r="AE24" s="15"/>
-      <c r="AF24" s="15"/>
-      <c r="AG24" s="15"/>
-      <c r="AH24" s="15"/>
-      <c r="AI24" s="15"/>
-      <c r="AJ24" s="15"/>
-      <c r="AK24" s="15"/>
-      <c r="AL24" s="15"/>
-      <c r="AM24" s="15"/>
-      <c r="AN24" s="15"/>
-      <c r="AO24" s="15"/>
-      <c r="AP24" s="15"/>
-      <c r="AQ24" s="15"/>
-      <c r="AR24" s="15"/>
-      <c r="AS24" s="15"/>
-      <c r="AT24" s="15"/>
-      <c r="AU24" s="15"/>
-      <c r="AV24" s="15"/>
-      <c r="AW24" s="15"/>
-      <c r="AX24" s="15"/>
-      <c r="AY24" s="15"/>
-      <c r="AZ24" s="15"/>
-      <c r="BA24" s="15"/>
-      <c r="BB24" s="15"/>
-      <c r="BC24" s="15"/>
-      <c r="BD24" s="15"/>
-      <c r="BE24" s="15"/>
-      <c r="BF24" s="15"/>
-      <c r="BG24" s="15"/>
-      <c r="BH24" s="15"/>
-      <c r="BI24" s="15"/>
-      <c r="BJ24" s="25"/>
-      <c r="BK24" s="25"/>
-      <c r="BL24" s="24"/>
-      <c r="BM24" s="24"/>
-      <c r="BN24" s="24"/>
-      <c r="BO24" s="24"/>
-      <c r="BP24" s="13"/>
-      <c r="BQ24" s="13"/>
-      <c r="BR24" s="13"/>
-      <c r="BS24" s="13"/>
-      <c r="BT24" s="13"/>
-      <c r="BU24" s="13"/>
-      <c r="BV24" s="13"/>
-      <c r="BW24" s="13"/>
-      <c r="BX24" s="13"/>
-      <c r="BY24" s="13"/>
-      <c r="BZ24" s="13"/>
-      <c r="CA24" s="13"/>
-      <c r="CB24" s="13"/>
-      <c r="CC24" s="13"/>
-      <c r="CD24" s="13"/>
-      <c r="CE24" s="13"/>
-      <c r="CF24" s="16"/>
-      <c r="CG24" s="16"/>
-      <c r="CH24" s="16"/>
-      <c r="CI24" s="17"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="40"/>
+      <c r="I24" s="40"/>
+      <c r="J24" s="40"/>
+      <c r="K24" s="40"/>
+      <c r="L24" s="40"/>
+      <c r="M24" s="40"/>
+      <c r="N24" s="40"/>
+      <c r="O24" s="40"/>
+      <c r="P24" s="40"/>
+      <c r="Q24" s="40"/>
+      <c r="R24" s="40"/>
+      <c r="S24" s="40"/>
+      <c r="T24" s="40"/>
+      <c r="U24" s="40"/>
+      <c r="V24" s="40"/>
+      <c r="W24" s="40"/>
+      <c r="X24" s="40"/>
+      <c r="Y24" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z24" s="42"/>
+      <c r="AA24" s="42"/>
+      <c r="AB24" s="42"/>
+      <c r="AC24" s="42"/>
+      <c r="AD24" s="42"/>
+      <c r="AE24" s="42"/>
+      <c r="AF24" s="42"/>
+      <c r="AG24" s="42"/>
+      <c r="AH24" s="43"/>
+      <c r="AI24" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ24" s="42"/>
+      <c r="AK24" s="42"/>
+      <c r="AL24" s="42"/>
+      <c r="AM24" s="42"/>
+      <c r="AN24" s="42"/>
+      <c r="AO24" s="42"/>
+      <c r="AP24" s="42"/>
+      <c r="AQ24" s="42"/>
+      <c r="AR24" s="43"/>
+      <c r="AS24" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="AT24" s="44"/>
+      <c r="AU24" s="44"/>
+      <c r="AV24" s="44"/>
+      <c r="AW24" s="44"/>
+      <c r="AX24" s="44"/>
+      <c r="AY24" s="44"/>
+      <c r="AZ24" s="44"/>
+      <c r="BA24" s="44"/>
+      <c r="BB24" s="44"/>
+      <c r="BC24" s="44"/>
+      <c r="BD24" s="44"/>
+      <c r="BE24" s="44"/>
+      <c r="BF24" s="44"/>
+      <c r="BG24" s="44"/>
+      <c r="BH24" s="44"/>
+      <c r="BI24" s="44"/>
+      <c r="BJ24" s="44"/>
+      <c r="BK24" s="44"/>
+      <c r="BL24" s="44"/>
+      <c r="BM24" s="44"/>
+      <c r="BN24" s="44"/>
+      <c r="BO24" s="44"/>
+      <c r="BP24" s="44"/>
+      <c r="BQ24" s="44"/>
+      <c r="BR24" s="44"/>
+      <c r="BS24" s="44"/>
+      <c r="BT24" s="44"/>
+      <c r="BU24" s="44"/>
+      <c r="BV24" s="44"/>
+      <c r="BW24" s="44"/>
+      <c r="BX24" s="44"/>
+      <c r="BY24" s="44"/>
+      <c r="BZ24" s="44"/>
+      <c r="CA24" s="44"/>
+      <c r="CB24" s="44"/>
+      <c r="CC24" s="44"/>
+      <c r="CD24" s="44"/>
+      <c r="CE24" s="44"/>
+      <c r="CF24" s="44"/>
+      <c r="CG24" s="44"/>
+      <c r="CH24" s="44"/>
+      <c r="CI24" s="44"/>
       <c r="CJ24" s="1"/>
       <c r="CK24" s="1"/>
       <c r="CL24" s="1"/>
@@ -22719,94 +22504,104 @@
       <c r="AMI24" s="1"/>
       <c r="AMJ24" s="1"/>
     </row>
-    <row r="25" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:1024" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A25" s="1"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="15"/>
-      <c r="K25" s="15"/>
-      <c r="L25" s="15"/>
-      <c r="M25" s="15"/>
-      <c r="N25" s="15"/>
-      <c r="O25" s="15"/>
-      <c r="P25" s="15"/>
-      <c r="Q25" s="15"/>
-      <c r="R25" s="15"/>
-      <c r="S25" s="15"/>
-      <c r="T25" s="15"/>
-      <c r="U25" s="15"/>
-      <c r="V25" s="15"/>
-      <c r="W25" s="15"/>
-      <c r="X25" s="15"/>
-      <c r="Y25" s="15"/>
-      <c r="Z25" s="15"/>
-      <c r="AA25" s="15"/>
-      <c r="AB25" s="15"/>
-      <c r="AC25" s="15"/>
-      <c r="AD25" s="15"/>
-      <c r="AE25" s="15"/>
-      <c r="AF25" s="15"/>
-      <c r="AG25" s="15"/>
-      <c r="AH25" s="15"/>
-      <c r="AI25" s="15"/>
-      <c r="AJ25" s="15"/>
-      <c r="AK25" s="15"/>
-      <c r="AL25" s="15"/>
-      <c r="AM25" s="15"/>
-      <c r="AN25" s="15"/>
-      <c r="AO25" s="15"/>
-      <c r="AP25" s="15"/>
-      <c r="AQ25" s="15"/>
-      <c r="AR25" s="15"/>
-      <c r="AS25" s="15"/>
-      <c r="AT25" s="15"/>
-      <c r="AU25" s="15"/>
-      <c r="AV25" s="15"/>
-      <c r="AW25" s="15"/>
-      <c r="AX25" s="15"/>
-      <c r="AY25" s="15"/>
-      <c r="AZ25" s="15"/>
-      <c r="BA25" s="15"/>
-      <c r="BB25" s="15"/>
-      <c r="BC25" s="15"/>
-      <c r="BD25" s="15"/>
-      <c r="BE25" s="15"/>
-      <c r="BF25" s="15"/>
-      <c r="BG25" s="15"/>
-      <c r="BH25" s="15"/>
-      <c r="BI25" s="15"/>
-      <c r="BJ25" s="25"/>
-      <c r="BK25" s="25"/>
-      <c r="BL25" s="24"/>
-      <c r="BM25" s="24"/>
-      <c r="BN25" s="24"/>
-      <c r="BO25" s="24"/>
-      <c r="BP25" s="13"/>
-      <c r="BQ25" s="13"/>
-      <c r="BR25" s="13"/>
-      <c r="BS25" s="13"/>
-      <c r="BT25" s="13"/>
-      <c r="BU25" s="13"/>
-      <c r="BV25" s="13"/>
-      <c r="BW25" s="13"/>
-      <c r="BX25" s="13"/>
-      <c r="BY25" s="13"/>
-      <c r="BZ25" s="13"/>
-      <c r="CA25" s="13"/>
-      <c r="CB25" s="13"/>
-      <c r="CC25" s="13"/>
-      <c r="CD25" s="13"/>
-      <c r="CE25" s="13"/>
-      <c r="CF25" s="16"/>
-      <c r="CG25" s="16"/>
-      <c r="CH25" s="16"/>
-      <c r="CI25" s="17"/>
+      <c r="B25" s="45">
+        <v>3</v>
+      </c>
+      <c r="C25" s="45"/>
+      <c r="D25" s="45"/>
+      <c r="E25" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="F25" s="46"/>
+      <c r="G25" s="46"/>
+      <c r="H25" s="46"/>
+      <c r="I25" s="46"/>
+      <c r="J25" s="46"/>
+      <c r="K25" s="46"/>
+      <c r="L25" s="46"/>
+      <c r="M25" s="46"/>
+      <c r="N25" s="46"/>
+      <c r="O25" s="46"/>
+      <c r="P25" s="46"/>
+      <c r="Q25" s="46"/>
+      <c r="R25" s="46"/>
+      <c r="S25" s="46"/>
+      <c r="T25" s="46"/>
+      <c r="U25" s="46"/>
+      <c r="V25" s="46"/>
+      <c r="W25" s="46"/>
+      <c r="X25" s="46"/>
+      <c r="Y25" s="47" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z25" s="48"/>
+      <c r="AA25" s="48"/>
+      <c r="AB25" s="48"/>
+      <c r="AC25" s="48"/>
+      <c r="AD25" s="48"/>
+      <c r="AE25" s="48"/>
+      <c r="AF25" s="48"/>
+      <c r="AG25" s="48"/>
+      <c r="AH25" s="49"/>
+      <c r="AI25" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="AJ25" s="48"/>
+      <c r="AK25" s="48"/>
+      <c r="AL25" s="48"/>
+      <c r="AM25" s="48"/>
+      <c r="AN25" s="48"/>
+      <c r="AO25" s="48"/>
+      <c r="AP25" s="48"/>
+      <c r="AQ25" s="48"/>
+      <c r="AR25" s="49"/>
+      <c r="AS25" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="AT25" s="50"/>
+      <c r="AU25" s="50"/>
+      <c r="AV25" s="50"/>
+      <c r="AW25" s="50"/>
+      <c r="AX25" s="50"/>
+      <c r="AY25" s="50"/>
+      <c r="AZ25" s="50"/>
+      <c r="BA25" s="50"/>
+      <c r="BB25" s="50"/>
+      <c r="BC25" s="50"/>
+      <c r="BD25" s="50"/>
+      <c r="BE25" s="50"/>
+      <c r="BF25" s="50"/>
+      <c r="BG25" s="50"/>
+      <c r="BH25" s="50"/>
+      <c r="BI25" s="50"/>
+      <c r="BJ25" s="50"/>
+      <c r="BK25" s="50"/>
+      <c r="BL25" s="50"/>
+      <c r="BM25" s="50"/>
+      <c r="BN25" s="50"/>
+      <c r="BO25" s="50"/>
+      <c r="BP25" s="50"/>
+      <c r="BQ25" s="50"/>
+      <c r="BR25" s="50"/>
+      <c r="BS25" s="50"/>
+      <c r="BT25" s="50"/>
+      <c r="BU25" s="50"/>
+      <c r="BV25" s="50"/>
+      <c r="BW25" s="50"/>
+      <c r="BX25" s="50"/>
+      <c r="BY25" s="50"/>
+      <c r="BZ25" s="50"/>
+      <c r="CA25" s="50"/>
+      <c r="CB25" s="50"/>
+      <c r="CC25" s="50"/>
+      <c r="CD25" s="50"/>
+      <c r="CE25" s="50"/>
+      <c r="CF25" s="50"/>
+      <c r="CG25" s="50"/>
+      <c r="CH25" s="50"/>
+      <c r="CI25" s="50"/>
       <c r="CJ25" s="1"/>
       <c r="CK25" s="1"/>
       <c r="CL25" s="1"/>
@@ -23745,100 +23540,94 @@
       <c r="AMI25" s="1"/>
       <c r="AMJ25" s="1"/>
     </row>
-    <row r="26" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="1"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="H26" s="32"/>
-      <c r="I26" s="33"/>
-      <c r="J26" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="K26" s="35"/>
-      <c r="L26" s="35"/>
-      <c r="M26" s="35"/>
-      <c r="N26" s="35"/>
-      <c r="O26" s="35"/>
-      <c r="P26" s="35"/>
-      <c r="Q26" s="35"/>
-      <c r="R26" s="35"/>
-      <c r="S26" s="35"/>
-      <c r="T26" s="32"/>
-      <c r="U26" s="32"/>
-      <c r="V26" s="32"/>
-      <c r="W26" s="32"/>
-      <c r="X26" s="33"/>
-      <c r="Y26" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z26" s="37"/>
-      <c r="AA26" s="37"/>
-      <c r="AB26" s="37"/>
-      <c r="AC26" s="37"/>
-      <c r="AD26" s="37"/>
-      <c r="AE26" s="37"/>
-      <c r="AF26" s="37"/>
-      <c r="AG26" s="37"/>
-      <c r="AH26" s="37"/>
-      <c r="AI26" s="37"/>
-      <c r="AJ26" s="37"/>
-      <c r="AK26" s="37"/>
-      <c r="AL26" s="37"/>
-      <c r="AM26" s="37"/>
-      <c r="AN26" s="37"/>
-      <c r="AO26" s="37"/>
-      <c r="AP26" s="37"/>
-      <c r="AQ26" s="37"/>
-      <c r="AR26" s="37"/>
-      <c r="AS26" s="37"/>
-      <c r="AT26" s="37"/>
-      <c r="AU26" s="37"/>
-      <c r="AV26" s="37"/>
-      <c r="AW26" s="37"/>
-      <c r="AX26" s="37"/>
-      <c r="AY26" s="37"/>
-      <c r="AZ26" s="37"/>
-      <c r="BA26" s="37"/>
-      <c r="BB26" s="37"/>
-      <c r="BC26" s="37"/>
-      <c r="BD26" s="37"/>
-      <c r="BE26" s="37"/>
-      <c r="BF26" s="37"/>
-      <c r="BG26" s="37"/>
-      <c r="BH26" s="37"/>
-      <c r="BI26" s="37"/>
-      <c r="BJ26" s="37"/>
-      <c r="BK26" s="38"/>
-      <c r="BL26" s="24"/>
-      <c r="BM26" s="24"/>
-      <c r="BN26" s="24"/>
-      <c r="BO26" s="24"/>
-      <c r="BP26" s="13"/>
-      <c r="BQ26" s="13"/>
-      <c r="BR26" s="13"/>
-      <c r="BS26" s="13"/>
-      <c r="BT26" s="13"/>
-      <c r="BU26" s="13"/>
-      <c r="BV26" s="13"/>
-      <c r="BW26" s="13"/>
-      <c r="BX26" s="13"/>
-      <c r="BY26" s="13"/>
-      <c r="BZ26" s="13"/>
-      <c r="CA26" s="13"/>
-      <c r="CB26" s="13"/>
-      <c r="CC26" s="13"/>
-      <c r="CD26" s="13"/>
-      <c r="CE26" s="13"/>
-      <c r="CF26" s="16"/>
-      <c r="CG26" s="16"/>
-      <c r="CH26" s="16"/>
-      <c r="CI26" s="17"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="23"/>
+      <c r="J26" s="23"/>
+      <c r="K26" s="23"/>
+      <c r="L26" s="23"/>
+      <c r="M26" s="23"/>
+      <c r="N26" s="23"/>
+      <c r="O26" s="23"/>
+      <c r="P26" s="23"/>
+      <c r="Q26" s="23"/>
+      <c r="R26" s="23"/>
+      <c r="S26" s="23"/>
+      <c r="T26" s="23"/>
+      <c r="U26" s="23"/>
+      <c r="V26" s="23"/>
+      <c r="W26" s="23"/>
+      <c r="X26" s="23"/>
+      <c r="Y26" s="23"/>
+      <c r="Z26" s="23"/>
+      <c r="AA26" s="23"/>
+      <c r="AB26" s="23"/>
+      <c r="AC26" s="23"/>
+      <c r="AD26" s="23"/>
+      <c r="AE26" s="23"/>
+      <c r="AF26" s="23"/>
+      <c r="AG26" s="23"/>
+      <c r="AH26" s="23"/>
+      <c r="AI26" s="23"/>
+      <c r="AJ26" s="23"/>
+      <c r="AK26" s="23"/>
+      <c r="AL26" s="23"/>
+      <c r="AM26" s="23"/>
+      <c r="AN26" s="23"/>
+      <c r="AO26" s="23"/>
+      <c r="AP26" s="23"/>
+      <c r="AQ26" s="23"/>
+      <c r="AR26" s="23"/>
+      <c r="AS26" s="23"/>
+      <c r="AT26" s="23"/>
+      <c r="AU26" s="23"/>
+      <c r="AV26" s="23"/>
+      <c r="AW26" s="23"/>
+      <c r="AX26" s="23"/>
+      <c r="AY26" s="23"/>
+      <c r="AZ26" s="23"/>
+      <c r="BA26" s="23"/>
+      <c r="BB26" s="23"/>
+      <c r="BC26" s="23"/>
+      <c r="BD26" s="23"/>
+      <c r="BE26" s="23"/>
+      <c r="BF26" s="23"/>
+      <c r="BG26" s="23"/>
+      <c r="BH26" s="23"/>
+      <c r="BI26" s="23"/>
+      <c r="BJ26" s="23"/>
+      <c r="BK26" s="23"/>
+      <c r="BL26" s="23"/>
+      <c r="BM26" s="23"/>
+      <c r="BN26" s="23"/>
+      <c r="BO26" s="23"/>
+      <c r="BP26" s="10"/>
+      <c r="BQ26" s="10"/>
+      <c r="BR26" s="10"/>
+      <c r="BS26" s="10"/>
+      <c r="BT26" s="10"/>
+      <c r="BU26" s="10"/>
+      <c r="BV26" s="10"/>
+      <c r="BW26" s="10"/>
+      <c r="BX26" s="10"/>
+      <c r="BY26" s="10"/>
+      <c r="BZ26" s="10"/>
+      <c r="CA26" s="10"/>
+      <c r="CB26" s="10"/>
+      <c r="CC26" s="10"/>
+      <c r="CD26" s="10"/>
+      <c r="CE26" s="10"/>
+      <c r="CF26" s="10"/>
+      <c r="CG26" s="10"/>
+      <c r="CH26" s="10"/>
+      <c r="CI26" s="11"/>
       <c r="CJ26" s="1"/>
       <c r="CK26" s="1"/>
       <c r="CL26" s="1"/>
@@ -24777,99 +24566,97 @@
       <c r="AMI26" s="1"/>
       <c r="AMJ26" s="1"/>
     </row>
-    <row r="27" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="1"/>
       <c r="B27" s="12"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="15"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="78"/>
+      <c r="E27" s="14" t="s">
+        <v>14</v>
+      </c>
       <c r="F27" s="15"/>
-      <c r="G27" s="36">
-        <v>1</v>
+      <c r="G27" s="15"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="15" t="s">
+        <v>44</v>
       </c>
-      <c r="H27" s="37"/>
-      <c r="I27" s="38"/>
-      <c r="J27" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="K27" s="37"/>
-      <c r="L27" s="37"/>
-      <c r="M27" s="37"/>
-      <c r="N27" s="37"/>
-      <c r="O27" s="37"/>
-      <c r="P27" s="37"/>
-      <c r="Q27" s="37"/>
-      <c r="R27" s="37"/>
-      <c r="S27" s="37"/>
-      <c r="T27" s="37"/>
-      <c r="U27" s="37"/>
-      <c r="V27" s="37"/>
-      <c r="W27" s="37"/>
-      <c r="X27" s="38"/>
-      <c r="Y27" s="36" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z27" s="37"/>
-      <c r="AA27" s="37"/>
-      <c r="AB27" s="37"/>
-      <c r="AC27" s="37"/>
-      <c r="AD27" s="37"/>
-      <c r="AE27" s="37"/>
-      <c r="AF27" s="37"/>
-      <c r="AG27" s="37"/>
-      <c r="AH27" s="37"/>
-      <c r="AI27" s="37"/>
-      <c r="AJ27" s="37"/>
-      <c r="AK27" s="37"/>
-      <c r="AL27" s="37"/>
-      <c r="AM27" s="37"/>
-      <c r="AN27" s="37"/>
-      <c r="AO27" s="37"/>
-      <c r="AP27" s="37"/>
-      <c r="AQ27" s="37"/>
-      <c r="AR27" s="37"/>
-      <c r="AS27" s="37"/>
-      <c r="AT27" s="37"/>
-      <c r="AU27" s="37"/>
-      <c r="AV27" s="37"/>
-      <c r="AW27" s="37"/>
-      <c r="AX27" s="37"/>
-      <c r="AY27" s="37"/>
-      <c r="AZ27" s="37"/>
-      <c r="BA27" s="37"/>
-      <c r="BB27" s="37"/>
-      <c r="BC27" s="37"/>
-      <c r="BD27" s="37"/>
-      <c r="BE27" s="37"/>
-      <c r="BF27" s="37"/>
-      <c r="BG27" s="37"/>
-      <c r="BH27" s="37"/>
-      <c r="BI27" s="37"/>
-      <c r="BJ27" s="37"/>
-      <c r="BK27" s="38"/>
-      <c r="BL27" s="24"/>
-      <c r="BM27" s="24"/>
-      <c r="BN27" s="24"/>
-      <c r="BO27" s="24"/>
-      <c r="BP27" s="13"/>
-      <c r="BQ27" s="13"/>
-      <c r="BR27" s="13"/>
-      <c r="BS27" s="13"/>
-      <c r="BT27" s="13"/>
-      <c r="BU27" s="13"/>
-      <c r="BV27" s="13"/>
-      <c r="BW27" s="13"/>
-      <c r="BX27" s="13"/>
-      <c r="BY27" s="13"/>
-      <c r="BZ27" s="13"/>
-      <c r="CA27" s="13"/>
-      <c r="CB27" s="13"/>
-      <c r="CC27" s="13"/>
-      <c r="CD27" s="13"/>
-      <c r="CE27" s="13"/>
-      <c r="CF27" s="16"/>
-      <c r="CG27" s="16"/>
-      <c r="CH27" s="16"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="15"/>
+      <c r="L27" s="15"/>
+      <c r="M27" s="15"/>
+      <c r="N27" s="15"/>
+      <c r="O27" s="15"/>
+      <c r="P27" s="15"/>
+      <c r="Q27" s="15"/>
+      <c r="R27" s="15"/>
+      <c r="S27" s="15"/>
+      <c r="T27" s="15"/>
+      <c r="U27" s="15"/>
+      <c r="V27" s="15"/>
+      <c r="W27" s="15"/>
+      <c r="X27" s="15"/>
+      <c r="Y27" s="15"/>
+      <c r="Z27" s="15"/>
+      <c r="AA27" s="15"/>
+      <c r="AB27" s="15"/>
+      <c r="AC27" s="15"/>
+      <c r="AD27" s="15"/>
+      <c r="AE27" s="15"/>
+      <c r="AF27" s="78"/>
+      <c r="AG27" s="78"/>
+      <c r="AH27" s="78"/>
+      <c r="AI27" s="78"/>
+      <c r="AJ27" s="78"/>
+      <c r="AK27" s="78"/>
+      <c r="AL27" s="78"/>
+      <c r="AM27" s="78"/>
+      <c r="AN27" s="78"/>
+      <c r="AO27" s="78"/>
+      <c r="AP27" s="78"/>
+      <c r="AQ27" s="78"/>
+      <c r="AR27" s="78"/>
+      <c r="AS27" s="78"/>
+      <c r="AT27" s="78"/>
+      <c r="AU27" s="78"/>
+      <c r="AV27" s="78"/>
+      <c r="AW27" s="78"/>
+      <c r="AX27" s="78"/>
+      <c r="AY27" s="78"/>
+      <c r="AZ27" s="78"/>
+      <c r="BA27" s="78"/>
+      <c r="BB27" s="78"/>
+      <c r="BC27" s="78"/>
+      <c r="BD27" s="78"/>
+      <c r="BE27" s="78"/>
+      <c r="BF27" s="78"/>
+      <c r="BG27" s="78"/>
+      <c r="BH27" s="78"/>
+      <c r="BI27" s="78"/>
+      <c r="BJ27" s="78"/>
+      <c r="BK27" s="78"/>
+      <c r="BL27" s="78"/>
+      <c r="BM27" s="78"/>
+      <c r="BN27" s="78"/>
+      <c r="BO27" s="78"/>
+      <c r="BP27" s="15"/>
+      <c r="BQ27" s="15"/>
+      <c r="BR27" s="15"/>
+      <c r="BS27" s="15"/>
+      <c r="BT27" s="15"/>
+      <c r="BU27" s="15"/>
+      <c r="BV27" s="15"/>
+      <c r="BW27" s="15"/>
+      <c r="BX27" s="15"/>
+      <c r="BY27" s="15"/>
+      <c r="BZ27" s="15"/>
+      <c r="CA27" s="15"/>
+      <c r="CB27" s="15"/>
+      <c r="CC27" s="15"/>
+      <c r="CD27" s="15"/>
+      <c r="CE27" s="15"/>
+      <c r="CF27" s="79"/>
+      <c r="CG27" s="79"/>
+      <c r="CH27" s="79"/>
       <c r="CI27" s="17"/>
       <c r="CJ27" s="1"/>
       <c r="CK27" s="1"/>
@@ -25809,99 +25596,93 @@
       <c r="AMI27" s="1"/>
       <c r="AMJ27" s="1"/>
     </row>
-    <row r="28" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="1"/>
       <c r="B28" s="12"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="24"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="78"/>
       <c r="E28" s="15"/>
       <c r="F28" s="15"/>
-      <c r="G28" s="36">
-        <v>2</v>
-      </c>
-      <c r="H28" s="37"/>
-      <c r="I28" s="38"/>
-      <c r="J28" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="K28" s="37"/>
-      <c r="L28" s="37"/>
-      <c r="M28" s="37"/>
-      <c r="N28" s="37"/>
-      <c r="O28" s="37"/>
-      <c r="P28" s="37"/>
-      <c r="Q28" s="37"/>
-      <c r="R28" s="37"/>
-      <c r="S28" s="37"/>
-      <c r="T28" s="37"/>
-      <c r="U28" s="37"/>
-      <c r="V28" s="37"/>
-      <c r="W28" s="37"/>
-      <c r="X28" s="38"/>
-      <c r="Y28" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z28" s="37"/>
-      <c r="AA28" s="37"/>
-      <c r="AB28" s="37"/>
-      <c r="AC28" s="37"/>
-      <c r="AD28" s="37"/>
-      <c r="AE28" s="37"/>
-      <c r="AF28" s="37"/>
-      <c r="AG28" s="37"/>
-      <c r="AH28" s="37"/>
-      <c r="AI28" s="37"/>
-      <c r="AJ28" s="37"/>
-      <c r="AK28" s="37"/>
-      <c r="AL28" s="37"/>
-      <c r="AM28" s="37"/>
-      <c r="AN28" s="37"/>
-      <c r="AO28" s="37"/>
-      <c r="AP28" s="37"/>
-      <c r="AQ28" s="37"/>
-      <c r="AR28" s="37"/>
-      <c r="AS28" s="37"/>
-      <c r="AT28" s="37"/>
-      <c r="AU28" s="37"/>
-      <c r="AV28" s="37"/>
-      <c r="AW28" s="37"/>
-      <c r="AX28" s="37"/>
-      <c r="AY28" s="37"/>
-      <c r="AZ28" s="37"/>
-      <c r="BA28" s="37"/>
-      <c r="BB28" s="37"/>
-      <c r="BC28" s="37"/>
-      <c r="BD28" s="37"/>
-      <c r="BE28" s="37"/>
-      <c r="BF28" s="37"/>
-      <c r="BG28" s="37"/>
-      <c r="BH28" s="37"/>
-      <c r="BI28" s="37"/>
-      <c r="BJ28" s="37"/>
-      <c r="BK28" s="38"/>
-      <c r="BL28" s="24"/>
-      <c r="BM28" s="24"/>
-      <c r="BN28" s="24"/>
-      <c r="BO28" s="24"/>
-      <c r="BP28" s="13"/>
-      <c r="BQ28" s="13"/>
-      <c r="BR28" s="13"/>
-      <c r="BS28" s="13"/>
-      <c r="BT28" s="13"/>
-      <c r="BU28" s="13"/>
-      <c r="BV28" s="13"/>
-      <c r="BW28" s="13"/>
-      <c r="BX28" s="13"/>
-      <c r="BY28" s="13"/>
-      <c r="BZ28" s="13"/>
-      <c r="CA28" s="13"/>
-      <c r="CB28" s="13"/>
-      <c r="CC28" s="13"/>
-      <c r="CD28" s="13"/>
-      <c r="CE28" s="13"/>
-      <c r="CF28" s="16"/>
-      <c r="CG28" s="16"/>
-      <c r="CH28" s="16"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="15"/>
+      <c r="K28" s="15"/>
+      <c r="L28" s="15"/>
+      <c r="M28" s="15"/>
+      <c r="N28" s="15"/>
+      <c r="O28" s="15"/>
+      <c r="P28" s="15"/>
+      <c r="Q28" s="15"/>
+      <c r="R28" s="15"/>
+      <c r="S28" s="15"/>
+      <c r="T28" s="15"/>
+      <c r="U28" s="15"/>
+      <c r="V28" s="15"/>
+      <c r="W28" s="15"/>
+      <c r="X28" s="15"/>
+      <c r="Y28" s="15"/>
+      <c r="Z28" s="15"/>
+      <c r="AA28" s="15"/>
+      <c r="AB28" s="15"/>
+      <c r="AC28" s="15"/>
+      <c r="AD28" s="15"/>
+      <c r="AE28" s="15"/>
+      <c r="AF28" s="78"/>
+      <c r="AG28" s="78"/>
+      <c r="AH28" s="78"/>
+      <c r="AI28" s="78"/>
+      <c r="AJ28" s="78"/>
+      <c r="AK28" s="78"/>
+      <c r="AL28" s="78"/>
+      <c r="AM28" s="78"/>
+      <c r="AN28" s="78"/>
+      <c r="AO28" s="78"/>
+      <c r="AP28" s="78"/>
+      <c r="AQ28" s="78"/>
+      <c r="AR28" s="78"/>
+      <c r="AS28" s="78"/>
+      <c r="AT28" s="78"/>
+      <c r="AU28" s="78"/>
+      <c r="AV28" s="78"/>
+      <c r="AW28" s="78"/>
+      <c r="AX28" s="80"/>
+      <c r="AY28" s="80"/>
+      <c r="AZ28" s="80"/>
+      <c r="BA28" s="80"/>
+      <c r="BB28" s="80"/>
+      <c r="BC28" s="80"/>
+      <c r="BD28" s="80"/>
+      <c r="BE28" s="80"/>
+      <c r="BF28" s="80"/>
+      <c r="BG28" s="80"/>
+      <c r="BH28" s="80"/>
+      <c r="BI28" s="80"/>
+      <c r="BJ28" s="80"/>
+      <c r="BK28" s="80"/>
+      <c r="BL28" s="78"/>
+      <c r="BM28" s="78"/>
+      <c r="BN28" s="78"/>
+      <c r="BO28" s="78"/>
+      <c r="BP28" s="15"/>
+      <c r="BQ28" s="15"/>
+      <c r="BR28" s="15"/>
+      <c r="BS28" s="15"/>
+      <c r="BT28" s="15"/>
+      <c r="BU28" s="15"/>
+      <c r="BV28" s="15"/>
+      <c r="BW28" s="15"/>
+      <c r="BX28" s="15"/>
+      <c r="BY28" s="15"/>
+      <c r="BZ28" s="15"/>
+      <c r="CA28" s="15"/>
+      <c r="CB28" s="15"/>
+      <c r="CC28" s="15"/>
+      <c r="CD28" s="15"/>
+      <c r="CE28" s="15"/>
+      <c r="CF28" s="79"/>
+      <c r="CG28" s="79"/>
+      <c r="CH28" s="79"/>
       <c r="CI28" s="17"/>
       <c r="CJ28" s="1"/>
       <c r="CK28" s="1"/>
@@ -26841,99 +26622,99 @@
       <c r="AMI28" s="1"/>
       <c r="AMJ28" s="1"/>
     </row>
-    <row r="29" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="1"/>
       <c r="B29" s="12"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="24"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="78"/>
       <c r="E29" s="15"/>
       <c r="F29" s="15"/>
-      <c r="G29" s="36">
-        <v>3</v>
+      <c r="G29" s="81" t="s">
+        <v>37</v>
       </c>
-      <c r="H29" s="37"/>
-      <c r="I29" s="38"/>
-      <c r="J29" s="36" t="s">
-        <v>41</v>
+      <c r="H29" s="82"/>
+      <c r="I29" s="83"/>
+      <c r="J29" s="84" t="s">
+        <v>38</v>
       </c>
-      <c r="K29" s="37"/>
-      <c r="L29" s="37"/>
-      <c r="M29" s="37"/>
-      <c r="N29" s="37"/>
-      <c r="O29" s="37"/>
-      <c r="P29" s="37"/>
-      <c r="Q29" s="37"/>
-      <c r="R29" s="37"/>
-      <c r="S29" s="37"/>
-      <c r="T29" s="37"/>
-      <c r="U29" s="37"/>
-      <c r="V29" s="37"/>
-      <c r="W29" s="37"/>
-      <c r="X29" s="38"/>
-      <c r="Y29" s="36" t="s">
-        <v>42</v>
+      <c r="K29" s="85"/>
+      <c r="L29" s="85"/>
+      <c r="M29" s="85"/>
+      <c r="N29" s="85"/>
+      <c r="O29" s="85"/>
+      <c r="P29" s="85"/>
+      <c r="Q29" s="85"/>
+      <c r="R29" s="85"/>
+      <c r="S29" s="85"/>
+      <c r="T29" s="82"/>
+      <c r="U29" s="82"/>
+      <c r="V29" s="82"/>
+      <c r="W29" s="82"/>
+      <c r="X29" s="83"/>
+      <c r="Y29" s="81" t="s">
+        <v>39</v>
       </c>
-      <c r="Z29" s="37"/>
-      <c r="AA29" s="37"/>
-      <c r="AB29" s="37"/>
-      <c r="AC29" s="37"/>
-      <c r="AD29" s="37"/>
-      <c r="AE29" s="37"/>
-      <c r="AF29" s="37"/>
-      <c r="AG29" s="37"/>
-      <c r="AH29" s="37"/>
-      <c r="AI29" s="37"/>
-      <c r="AJ29" s="37"/>
-      <c r="AK29" s="37"/>
-      <c r="AL29" s="37"/>
-      <c r="AM29" s="37"/>
-      <c r="AN29" s="37"/>
-      <c r="AO29" s="37"/>
-      <c r="AP29" s="37"/>
-      <c r="AQ29" s="37"/>
-      <c r="AR29" s="37"/>
-      <c r="AS29" s="37"/>
-      <c r="AT29" s="37"/>
-      <c r="AU29" s="37"/>
-      <c r="AV29" s="37"/>
-      <c r="AW29" s="37"/>
-      <c r="AX29" s="37"/>
-      <c r="AY29" s="37"/>
-      <c r="AZ29" s="37"/>
-      <c r="BA29" s="37"/>
-      <c r="BB29" s="37"/>
-      <c r="BC29" s="37"/>
-      <c r="BD29" s="37"/>
-      <c r="BE29" s="37"/>
-      <c r="BF29" s="37"/>
-      <c r="BG29" s="37"/>
-      <c r="BH29" s="37"/>
-      <c r="BI29" s="37"/>
-      <c r="BJ29" s="37"/>
-      <c r="BK29" s="38"/>
-      <c r="BL29" s="24"/>
-      <c r="BM29" s="24"/>
-      <c r="BN29" s="24"/>
-      <c r="BO29" s="24"/>
-      <c r="BP29" s="13"/>
-      <c r="BQ29" s="13"/>
-      <c r="BR29" s="13"/>
-      <c r="BS29" s="13"/>
-      <c r="BT29" s="13"/>
-      <c r="BU29" s="13"/>
-      <c r="BV29" s="13"/>
-      <c r="BW29" s="13"/>
-      <c r="BX29" s="13"/>
-      <c r="BY29" s="13"/>
-      <c r="BZ29" s="13"/>
-      <c r="CA29" s="13"/>
-      <c r="CB29" s="13"/>
-      <c r="CC29" s="13"/>
-      <c r="CD29" s="13"/>
-      <c r="CE29" s="13"/>
-      <c r="CF29" s="16"/>
-      <c r="CG29" s="16"/>
-      <c r="CH29" s="16"/>
+      <c r="Z29" s="86"/>
+      <c r="AA29" s="86"/>
+      <c r="AB29" s="86"/>
+      <c r="AC29" s="86"/>
+      <c r="AD29" s="86"/>
+      <c r="AE29" s="86"/>
+      <c r="AF29" s="86"/>
+      <c r="AG29" s="86"/>
+      <c r="AH29" s="86"/>
+      <c r="AI29" s="86"/>
+      <c r="AJ29" s="86"/>
+      <c r="AK29" s="86"/>
+      <c r="AL29" s="86"/>
+      <c r="AM29" s="86"/>
+      <c r="AN29" s="86"/>
+      <c r="AO29" s="86"/>
+      <c r="AP29" s="86"/>
+      <c r="AQ29" s="86"/>
+      <c r="AR29" s="86"/>
+      <c r="AS29" s="86"/>
+      <c r="AT29" s="86"/>
+      <c r="AU29" s="86"/>
+      <c r="AV29" s="86"/>
+      <c r="AW29" s="86"/>
+      <c r="AX29" s="86"/>
+      <c r="AY29" s="86"/>
+      <c r="AZ29" s="86"/>
+      <c r="BA29" s="86"/>
+      <c r="BB29" s="86"/>
+      <c r="BC29" s="86"/>
+      <c r="BD29" s="86"/>
+      <c r="BE29" s="86"/>
+      <c r="BF29" s="86"/>
+      <c r="BG29" s="86"/>
+      <c r="BH29" s="86"/>
+      <c r="BI29" s="86"/>
+      <c r="BJ29" s="86"/>
+      <c r="BK29" s="87"/>
+      <c r="BL29" s="78"/>
+      <c r="BM29" s="78"/>
+      <c r="BN29" s="78"/>
+      <c r="BO29" s="78"/>
+      <c r="BP29" s="15"/>
+      <c r="BQ29" s="15"/>
+      <c r="BR29" s="15"/>
+      <c r="BS29" s="15"/>
+      <c r="BT29" s="15"/>
+      <c r="BU29" s="15"/>
+      <c r="BV29" s="15"/>
+      <c r="BW29" s="15"/>
+      <c r="BX29" s="15"/>
+      <c r="BY29" s="15"/>
+      <c r="BZ29" s="15"/>
+      <c r="CA29" s="15"/>
+      <c r="CB29" s="15"/>
+      <c r="CC29" s="15"/>
+      <c r="CD29" s="15"/>
+      <c r="CE29" s="15"/>
+      <c r="CF29" s="79"/>
+      <c r="CG29" s="79"/>
+      <c r="CH29" s="79"/>
       <c r="CI29" s="17"/>
       <c r="CJ29" s="1"/>
       <c r="CK29" s="1"/>
@@ -27873,93 +27654,99 @@
       <c r="AMI29" s="1"/>
       <c r="AMJ29" s="1"/>
     </row>
-    <row r="30" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="1"/>
       <c r="B30" s="12"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="24"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="78"/>
       <c r="E30" s="15"/>
       <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="15"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="15"/>
-      <c r="K30" s="15"/>
-      <c r="L30" s="15"/>
-      <c r="M30" s="15"/>
-      <c r="N30" s="15"/>
-      <c r="O30" s="15"/>
-      <c r="P30" s="15"/>
-      <c r="Q30" s="15"/>
-      <c r="R30" s="15"/>
-      <c r="S30" s="15"/>
-      <c r="T30" s="15"/>
-      <c r="U30" s="15"/>
-      <c r="V30" s="15"/>
-      <c r="W30" s="15"/>
-      <c r="X30" s="15"/>
-      <c r="Y30" s="15"/>
-      <c r="Z30" s="15"/>
-      <c r="AA30" s="15"/>
-      <c r="AB30" s="15"/>
-      <c r="AC30" s="15"/>
-      <c r="AD30" s="15"/>
-      <c r="AE30" s="15"/>
-      <c r="AF30" s="24"/>
-      <c r="AG30" s="24"/>
-      <c r="AH30" s="24"/>
-      <c r="AI30" s="24"/>
-      <c r="AJ30" s="24"/>
-      <c r="AK30" s="24"/>
-      <c r="AL30" s="24"/>
-      <c r="AM30" s="24"/>
-      <c r="AN30" s="24"/>
-      <c r="AO30" s="24"/>
-      <c r="AP30" s="24"/>
-      <c r="AQ30" s="24"/>
-      <c r="AR30" s="24"/>
-      <c r="AS30" s="24"/>
-      <c r="AT30" s="24"/>
-      <c r="AU30" s="24"/>
-      <c r="AV30" s="24"/>
-      <c r="AW30" s="24"/>
-      <c r="AX30" s="25"/>
-      <c r="AY30" s="25"/>
-      <c r="AZ30" s="25"/>
-      <c r="BA30" s="25"/>
-      <c r="BB30" s="25"/>
-      <c r="BC30" s="25"/>
-      <c r="BD30" s="25"/>
-      <c r="BE30" s="25"/>
-      <c r="BF30" s="25"/>
-      <c r="BG30" s="25"/>
-      <c r="BH30" s="25"/>
-      <c r="BI30" s="26"/>
-      <c r="BJ30" s="25"/>
-      <c r="BK30" s="25"/>
-      <c r="BL30" s="24"/>
-      <c r="BM30" s="24"/>
-      <c r="BN30" s="24"/>
-      <c r="BO30" s="24"/>
-      <c r="BP30" s="13"/>
-      <c r="BQ30" s="13"/>
-      <c r="BR30" s="13"/>
-      <c r="BS30" s="13"/>
-      <c r="BT30" s="13"/>
-      <c r="BU30" s="13"/>
-      <c r="BV30" s="13"/>
-      <c r="BW30" s="13"/>
-      <c r="BX30" s="13"/>
-      <c r="BY30" s="13"/>
-      <c r="BZ30" s="13"/>
-      <c r="CA30" s="13"/>
-      <c r="CB30" s="13"/>
-      <c r="CC30" s="13"/>
-      <c r="CD30" s="13"/>
-      <c r="CE30" s="13"/>
-      <c r="CF30" s="16"/>
-      <c r="CG30" s="16"/>
-      <c r="CH30" s="16"/>
+      <c r="G30" s="47">
+        <v>1</v>
+      </c>
+      <c r="H30" s="86"/>
+      <c r="I30" s="87"/>
+      <c r="J30" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="K30" s="86"/>
+      <c r="L30" s="86"/>
+      <c r="M30" s="86"/>
+      <c r="N30" s="86"/>
+      <c r="O30" s="86"/>
+      <c r="P30" s="86"/>
+      <c r="Q30" s="86"/>
+      <c r="R30" s="86"/>
+      <c r="S30" s="86"/>
+      <c r="T30" s="86"/>
+      <c r="U30" s="86"/>
+      <c r="V30" s="86"/>
+      <c r="W30" s="86"/>
+      <c r="X30" s="87"/>
+      <c r="Y30" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z30" s="86"/>
+      <c r="AA30" s="86"/>
+      <c r="AB30" s="86"/>
+      <c r="AC30" s="86"/>
+      <c r="AD30" s="86"/>
+      <c r="AE30" s="86"/>
+      <c r="AF30" s="86"/>
+      <c r="AG30" s="86"/>
+      <c r="AH30" s="86"/>
+      <c r="AI30" s="86"/>
+      <c r="AJ30" s="86"/>
+      <c r="AK30" s="86"/>
+      <c r="AL30" s="86"/>
+      <c r="AM30" s="86"/>
+      <c r="AN30" s="86"/>
+      <c r="AO30" s="86"/>
+      <c r="AP30" s="86"/>
+      <c r="AQ30" s="86"/>
+      <c r="AR30" s="86"/>
+      <c r="AS30" s="86"/>
+      <c r="AT30" s="86"/>
+      <c r="AU30" s="86"/>
+      <c r="AV30" s="86"/>
+      <c r="AW30" s="86"/>
+      <c r="AX30" s="86"/>
+      <c r="AY30" s="86"/>
+      <c r="AZ30" s="86"/>
+      <c r="BA30" s="86"/>
+      <c r="BB30" s="86"/>
+      <c r="BC30" s="86"/>
+      <c r="BD30" s="86"/>
+      <c r="BE30" s="86"/>
+      <c r="BF30" s="86"/>
+      <c r="BG30" s="86"/>
+      <c r="BH30" s="86"/>
+      <c r="BI30" s="86"/>
+      <c r="BJ30" s="86"/>
+      <c r="BK30" s="87"/>
+      <c r="BL30" s="78"/>
+      <c r="BM30" s="78"/>
+      <c r="BN30" s="78"/>
+      <c r="BO30" s="78"/>
+      <c r="BP30" s="15"/>
+      <c r="BQ30" s="15"/>
+      <c r="BR30" s="15"/>
+      <c r="BS30" s="15"/>
+      <c r="BT30" s="15"/>
+      <c r="BU30" s="15"/>
+      <c r="BV30" s="15"/>
+      <c r="BW30" s="15"/>
+      <c r="BX30" s="15"/>
+      <c r="BY30" s="15"/>
+      <c r="BZ30" s="15"/>
+      <c r="CA30" s="15"/>
+      <c r="CB30" s="15"/>
+      <c r="CC30" s="15"/>
+      <c r="CD30" s="15"/>
+      <c r="CE30" s="15"/>
+      <c r="CF30" s="79"/>
+      <c r="CG30" s="79"/>
+      <c r="CH30" s="79"/>
       <c r="CI30" s="17"/>
       <c r="CJ30" s="1"/>
       <c r="CK30" s="1"/>
@@ -28899,97 +28686,99 @@
       <c r="AMI30" s="1"/>
       <c r="AMJ30" s="1"/>
     </row>
-    <row r="31" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="1"/>
       <c r="B31" s="12"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="24"/>
-      <c r="E31" s="14" t="s">
-        <v>43</v>
+      <c r="C31" s="15"/>
+      <c r="D31" s="78"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="47">
+        <v>2</v>
       </c>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="15" t="s">
-        <v>44</v>
+      <c r="H31" s="86"/>
+      <c r="I31" s="87"/>
+      <c r="J31" s="47" t="s">
+        <v>41</v>
       </c>
-      <c r="J31" s="15"/>
-      <c r="K31" s="15"/>
-      <c r="L31" s="15"/>
-      <c r="M31" s="15"/>
-      <c r="N31" s="15"/>
-      <c r="O31" s="15"/>
-      <c r="P31" s="15"/>
-      <c r="Q31" s="15"/>
-      <c r="R31" s="15"/>
-      <c r="S31" s="15"/>
-      <c r="T31" s="15"/>
-      <c r="U31" s="15"/>
-      <c r="V31" s="15"/>
-      <c r="W31" s="15"/>
-      <c r="X31" s="15"/>
-      <c r="Y31" s="15"/>
-      <c r="Z31" s="15"/>
-      <c r="AA31" s="15"/>
-      <c r="AB31" s="15"/>
-      <c r="AC31" s="15"/>
-      <c r="AD31" s="15"/>
-      <c r="AE31" s="15"/>
-      <c r="AF31" s="7"/>
-      <c r="AG31" s="7"/>
-      <c r="AH31" s="7"/>
-      <c r="AI31" s="7"/>
-      <c r="AJ31" s="7"/>
-      <c r="AK31" s="7"/>
-      <c r="AL31" s="7"/>
-      <c r="AM31" s="8"/>
-      <c r="AN31" s="8"/>
-      <c r="AO31" s="8"/>
-      <c r="AP31" s="8"/>
-      <c r="AQ31" s="8"/>
-      <c r="AR31" s="8"/>
-      <c r="AS31" s="8"/>
-      <c r="AT31" s="8"/>
-      <c r="AU31" s="8"/>
-      <c r="AV31" s="8"/>
-      <c r="AW31" s="8"/>
-      <c r="AX31" s="25"/>
-      <c r="AY31" s="25"/>
-      <c r="AZ31" s="25"/>
-      <c r="BA31" s="25"/>
-      <c r="BB31" s="25"/>
-      <c r="BC31" s="25"/>
-      <c r="BD31" s="25"/>
-      <c r="BE31" s="25"/>
-      <c r="BF31" s="25"/>
-      <c r="BG31" s="25"/>
-      <c r="BH31" s="25"/>
-      <c r="BI31" s="25"/>
-      <c r="BJ31" s="25"/>
-      <c r="BK31" s="25"/>
-      <c r="BL31" s="24"/>
-      <c r="BM31" s="24"/>
-      <c r="BN31" s="24"/>
-      <c r="BO31" s="24"/>
-      <c r="BP31" s="13"/>
-      <c r="BQ31" s="13"/>
-      <c r="BR31" s="13"/>
-      <c r="BS31" s="13"/>
-      <c r="BT31" s="13"/>
-      <c r="BU31" s="13"/>
-      <c r="BV31" s="13"/>
-      <c r="BW31" s="13"/>
-      <c r="BX31" s="13"/>
-      <c r="BY31" s="13"/>
-      <c r="BZ31" s="13"/>
-      <c r="CA31" s="13"/>
-      <c r="CB31" s="13"/>
-      <c r="CC31" s="13"/>
-      <c r="CD31" s="13"/>
-      <c r="CE31" s="13"/>
-      <c r="CF31" s="16"/>
-      <c r="CG31" s="16"/>
-      <c r="CH31" s="16"/>
+      <c r="K31" s="86"/>
+      <c r="L31" s="86"/>
+      <c r="M31" s="86"/>
+      <c r="N31" s="86"/>
+      <c r="O31" s="86"/>
+      <c r="P31" s="86"/>
+      <c r="Q31" s="86"/>
+      <c r="R31" s="86"/>
+      <c r="S31" s="86"/>
+      <c r="T31" s="86"/>
+      <c r="U31" s="86"/>
+      <c r="V31" s="86"/>
+      <c r="W31" s="86"/>
+      <c r="X31" s="87"/>
+      <c r="Y31" s="47" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z31" s="86"/>
+      <c r="AA31" s="86"/>
+      <c r="AB31" s="86"/>
+      <c r="AC31" s="86"/>
+      <c r="AD31" s="86"/>
+      <c r="AE31" s="86"/>
+      <c r="AF31" s="86"/>
+      <c r="AG31" s="86"/>
+      <c r="AH31" s="86"/>
+      <c r="AI31" s="86"/>
+      <c r="AJ31" s="86"/>
+      <c r="AK31" s="86"/>
+      <c r="AL31" s="86"/>
+      <c r="AM31" s="86"/>
+      <c r="AN31" s="86"/>
+      <c r="AO31" s="86"/>
+      <c r="AP31" s="86"/>
+      <c r="AQ31" s="86"/>
+      <c r="AR31" s="86"/>
+      <c r="AS31" s="86"/>
+      <c r="AT31" s="86"/>
+      <c r="AU31" s="86"/>
+      <c r="AV31" s="86"/>
+      <c r="AW31" s="86"/>
+      <c r="AX31" s="86"/>
+      <c r="AY31" s="86"/>
+      <c r="AZ31" s="86"/>
+      <c r="BA31" s="86"/>
+      <c r="BB31" s="86"/>
+      <c r="BC31" s="86"/>
+      <c r="BD31" s="86"/>
+      <c r="BE31" s="86"/>
+      <c r="BF31" s="86"/>
+      <c r="BG31" s="86"/>
+      <c r="BH31" s="86"/>
+      <c r="BI31" s="86"/>
+      <c r="BJ31" s="86"/>
+      <c r="BK31" s="87"/>
+      <c r="BL31" s="78"/>
+      <c r="BM31" s="78"/>
+      <c r="BN31" s="78"/>
+      <c r="BO31" s="78"/>
+      <c r="BP31" s="15"/>
+      <c r="BQ31" s="15"/>
+      <c r="BR31" s="15"/>
+      <c r="BS31" s="15"/>
+      <c r="BT31" s="15"/>
+      <c r="BU31" s="15"/>
+      <c r="BV31" s="15"/>
+      <c r="BW31" s="15"/>
+      <c r="BX31" s="15"/>
+      <c r="BY31" s="15"/>
+      <c r="BZ31" s="15"/>
+      <c r="CA31" s="15"/>
+      <c r="CB31" s="15"/>
+      <c r="CC31" s="15"/>
+      <c r="CD31" s="15"/>
+      <c r="CE31" s="15"/>
+      <c r="CF31" s="79"/>
+      <c r="CG31" s="79"/>
+      <c r="CH31" s="79"/>
       <c r="CI31" s="17"/>
       <c r="CJ31" s="1"/>
       <c r="CK31" s="1"/>
@@ -29929,94 +29718,94 @@
       <c r="AMI31" s="1"/>
       <c r="AMJ31" s="1"/>
     </row>
-    <row r="32" spans="1:1024" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="1"/>
-      <c r="B32" s="18"/>
-      <c r="C32" s="19"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="19"/>
-      <c r="K32" s="19"/>
-      <c r="L32" s="19"/>
-      <c r="M32" s="19"/>
-      <c r="N32" s="19"/>
-      <c r="O32" s="19"/>
-      <c r="P32" s="19"/>
-      <c r="Q32" s="19"/>
-      <c r="R32" s="19"/>
-      <c r="S32" s="19"/>
-      <c r="T32" s="19"/>
-      <c r="U32" s="19"/>
-      <c r="V32" s="19"/>
-      <c r="W32" s="19"/>
-      <c r="X32" s="19"/>
-      <c r="Y32" s="19"/>
-      <c r="Z32" s="19"/>
-      <c r="AA32" s="19"/>
-      <c r="AB32" s="19"/>
-      <c r="AC32" s="19"/>
-      <c r="AD32" s="19"/>
-      <c r="AE32" s="19"/>
-      <c r="AF32" s="19"/>
-      <c r="AG32" s="19"/>
-      <c r="AH32" s="19"/>
-      <c r="AI32" s="19"/>
-      <c r="AJ32" s="19"/>
-      <c r="AK32" s="19"/>
-      <c r="AL32" s="19"/>
-      <c r="AM32" s="19"/>
-      <c r="AN32" s="19"/>
-      <c r="AO32" s="19"/>
-      <c r="AP32" s="19"/>
-      <c r="AQ32" s="19"/>
-      <c r="AR32" s="19"/>
-      <c r="AS32" s="19"/>
-      <c r="AT32" s="19"/>
-      <c r="AU32" s="19"/>
-      <c r="AV32" s="19"/>
-      <c r="AW32" s="19"/>
-      <c r="AX32" s="19"/>
-      <c r="AY32" s="19"/>
-      <c r="AZ32" s="19"/>
-      <c r="BA32" s="19"/>
-      <c r="BB32" s="19"/>
-      <c r="BC32" s="19"/>
-      <c r="BD32" s="19"/>
-      <c r="BE32" s="19"/>
-      <c r="BF32" s="19"/>
-      <c r="BG32" s="19"/>
-      <c r="BH32" s="19"/>
-      <c r="BI32" s="19"/>
-      <c r="BJ32" s="19"/>
-      <c r="BK32" s="19"/>
-      <c r="BL32" s="19"/>
-      <c r="BM32" s="19"/>
-      <c r="BN32" s="19"/>
-      <c r="BO32" s="19"/>
-      <c r="BP32" s="19"/>
-      <c r="BQ32" s="19"/>
-      <c r="BR32" s="21"/>
-      <c r="BS32" s="21"/>
-      <c r="BT32" s="21"/>
-      <c r="BU32" s="21"/>
-      <c r="BV32" s="21"/>
-      <c r="BW32" s="21"/>
-      <c r="BX32" s="21"/>
-      <c r="BY32" s="21"/>
-      <c r="BZ32" s="21"/>
-      <c r="CA32" s="21"/>
-      <c r="CB32" s="21"/>
-      <c r="CC32" s="21"/>
-      <c r="CD32" s="21"/>
-      <c r="CE32" s="21"/>
-      <c r="CF32" s="21"/>
-      <c r="CG32" s="21"/>
-      <c r="CH32" s="21"/>
-      <c r="CI32" s="22"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="78"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="15"/>
+      <c r="K32" s="15"/>
+      <c r="L32" s="15"/>
+      <c r="M32" s="15"/>
+      <c r="N32" s="15"/>
+      <c r="O32" s="15"/>
+      <c r="P32" s="15"/>
+      <c r="Q32" s="15"/>
+      <c r="R32" s="15"/>
+      <c r="S32" s="15"/>
+      <c r="T32" s="15"/>
+      <c r="U32" s="15"/>
+      <c r="V32" s="15"/>
+      <c r="W32" s="15"/>
+      <c r="X32" s="15"/>
+      <c r="Y32" s="15"/>
+      <c r="Z32" s="15"/>
+      <c r="AA32" s="15"/>
+      <c r="AB32" s="15"/>
+      <c r="AC32" s="15"/>
+      <c r="AD32" s="15"/>
+      <c r="AE32" s="15"/>
+      <c r="AF32" s="78"/>
+      <c r="AG32" s="78"/>
+      <c r="AH32" s="78"/>
+      <c r="AI32" s="78"/>
+      <c r="AJ32" s="78"/>
+      <c r="AK32" s="78"/>
+      <c r="AL32" s="78"/>
+      <c r="AM32" s="78"/>
+      <c r="AN32" s="78"/>
+      <c r="AO32" s="78"/>
+      <c r="AP32" s="78"/>
+      <c r="AQ32" s="78"/>
+      <c r="AR32" s="78"/>
+      <c r="AS32" s="78"/>
+      <c r="AT32" s="78"/>
+      <c r="AU32" s="78"/>
+      <c r="AV32" s="78"/>
+      <c r="AW32" s="78"/>
+      <c r="AX32" s="80"/>
+      <c r="AY32" s="80"/>
+      <c r="AZ32" s="80"/>
+      <c r="BA32" s="80"/>
+      <c r="BB32" s="80"/>
+      <c r="BC32" s="80"/>
+      <c r="BD32" s="80"/>
+      <c r="BE32" s="80"/>
+      <c r="BF32" s="80"/>
+      <c r="BG32" s="80"/>
+      <c r="BH32" s="80"/>
+      <c r="BI32" s="80"/>
+      <c r="BJ32" s="80"/>
+      <c r="BK32" s="80"/>
+      <c r="BL32" s="78"/>
+      <c r="BM32" s="78"/>
+      <c r="BN32" s="78"/>
+      <c r="BO32" s="78"/>
+      <c r="BP32" s="15"/>
+      <c r="BQ32" s="15"/>
+      <c r="BR32" s="15"/>
+      <c r="BS32" s="15"/>
+      <c r="BT32" s="15"/>
+      <c r="BU32" s="15"/>
+      <c r="BV32" s="15"/>
+      <c r="BW32" s="15"/>
+      <c r="BX32" s="15"/>
+      <c r="BY32" s="15"/>
+      <c r="BZ32" s="15"/>
+      <c r="CA32" s="15"/>
+      <c r="CB32" s="15"/>
+      <c r="CC32" s="15"/>
+      <c r="CD32" s="15"/>
+      <c r="CE32" s="15"/>
+      <c r="CF32" s="79"/>
+      <c r="CG32" s="79"/>
+      <c r="CH32" s="79"/>
+      <c r="CI32" s="17"/>
       <c r="CJ32" s="1"/>
       <c r="CK32" s="1"/>
       <c r="CL32" s="1"/>
@@ -30955,94 +30744,98 @@
       <c r="AMI32" s="1"/>
       <c r="AMJ32" s="1"/>
     </row>
-    <row r="33" spans="1:1025" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="78"/>
+      <c r="E33" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
       <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
-      <c r="P33" s="1"/>
-      <c r="Q33" s="1"/>
-      <c r="R33" s="1"/>
-      <c r="S33" s="1"/>
-      <c r="T33" s="1"/>
-      <c r="U33" s="1"/>
-      <c r="V33" s="1"/>
-      <c r="W33" s="1"/>
-      <c r="X33" s="1"/>
-      <c r="Y33" s="1"/>
-      <c r="Z33" s="1"/>
-      <c r="AA33" s="1"/>
-      <c r="AB33" s="1"/>
-      <c r="AC33" s="1"/>
-      <c r="AD33" s="1"/>
-      <c r="AE33" s="1"/>
-      <c r="AF33" s="1"/>
-      <c r="AG33" s="1"/>
-      <c r="AH33" s="1"/>
-      <c r="AI33" s="1"/>
-      <c r="AJ33" s="1"/>
-      <c r="AK33" s="1"/>
-      <c r="AL33" s="1"/>
-      <c r="AM33" s="1"/>
-      <c r="AN33" s="1"/>
-      <c r="AO33" s="1"/>
-      <c r="AP33" s="1"/>
-      <c r="AQ33" s="1"/>
-      <c r="AR33" s="1"/>
-      <c r="AS33" s="1"/>
-      <c r="AT33" s="1"/>
-      <c r="AU33" s="1"/>
-      <c r="AV33" s="1"/>
-      <c r="AW33" s="1"/>
-      <c r="AX33" s="1"/>
-      <c r="AY33" s="1"/>
-      <c r="AZ33" s="1"/>
-      <c r="BA33" s="1"/>
-      <c r="BB33" s="1"/>
-      <c r="BC33" s="1"/>
-      <c r="BD33" s="1"/>
-      <c r="BE33" s="1"/>
-      <c r="BF33" s="1"/>
-      <c r="BG33" s="1"/>
-      <c r="BH33" s="1"/>
-      <c r="BI33" s="1"/>
-      <c r="BJ33" s="1"/>
-      <c r="BK33" s="1"/>
-      <c r="BL33" s="1"/>
-      <c r="BM33" s="1"/>
-      <c r="BN33" s="1"/>
-      <c r="BO33" s="1"/>
-      <c r="BP33" s="1"/>
-      <c r="BQ33" s="1"/>
-      <c r="BR33" s="1"/>
-      <c r="BS33" s="1"/>
-      <c r="BT33" s="1"/>
-      <c r="BU33" s="1"/>
-      <c r="BV33" s="1"/>
-      <c r="BW33" s="1"/>
-      <c r="BX33" s="1"/>
-      <c r="BY33" s="1"/>
-      <c r="BZ33" s="1"/>
-      <c r="CA33" s="1"/>
-      <c r="CB33" s="1"/>
-      <c r="CC33" s="1"/>
-      <c r="CD33" s="1"/>
-      <c r="CE33" s="1"/>
-      <c r="CF33" s="1"/>
-      <c r="CG33" s="1"/>
-      <c r="CH33" s="1"/>
-      <c r="CI33" s="1"/>
+      <c r="I33" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="J33" s="15"/>
+      <c r="K33" s="15"/>
+      <c r="L33" s="15"/>
+      <c r="M33" s="15"/>
+      <c r="N33" s="15"/>
+      <c r="O33" s="15"/>
+      <c r="P33" s="15"/>
+      <c r="Q33" s="15"/>
+      <c r="R33" s="15"/>
+      <c r="S33" s="15"/>
+      <c r="T33" s="15"/>
+      <c r="U33" s="15"/>
+      <c r="V33" s="15"/>
+      <c r="W33" s="15"/>
+      <c r="X33" s="15"/>
+      <c r="Y33" s="15"/>
+      <c r="Z33" s="15"/>
+      <c r="AA33" s="15"/>
+      <c r="AB33" s="15"/>
+      <c r="AC33" s="15"/>
+      <c r="AD33" s="15"/>
+      <c r="AE33" s="15"/>
+      <c r="AF33" s="15"/>
+      <c r="AG33" s="15"/>
+      <c r="AH33" s="15"/>
+      <c r="AI33" s="15"/>
+      <c r="AJ33" s="15"/>
+      <c r="AK33" s="15"/>
+      <c r="AL33" s="15"/>
+      <c r="AM33" s="15"/>
+      <c r="AN33" s="15"/>
+      <c r="AO33" s="15"/>
+      <c r="AP33" s="15"/>
+      <c r="AQ33" s="15"/>
+      <c r="AR33" s="15"/>
+      <c r="AS33" s="15"/>
+      <c r="AT33" s="15"/>
+      <c r="AU33" s="15"/>
+      <c r="AV33" s="15"/>
+      <c r="AW33" s="15"/>
+      <c r="AX33" s="15"/>
+      <c r="AY33" s="15"/>
+      <c r="AZ33" s="15"/>
+      <c r="BA33" s="15"/>
+      <c r="BB33" s="15"/>
+      <c r="BC33" s="15"/>
+      <c r="BD33" s="15"/>
+      <c r="BE33" s="15"/>
+      <c r="BF33" s="15"/>
+      <c r="BG33" s="15"/>
+      <c r="BH33" s="15"/>
+      <c r="BI33" s="15"/>
+      <c r="BJ33" s="80"/>
+      <c r="BK33" s="80"/>
+      <c r="BL33" s="78"/>
+      <c r="BM33" s="78"/>
+      <c r="BN33" s="78"/>
+      <c r="BO33" s="78"/>
+      <c r="BP33" s="15"/>
+      <c r="BQ33" s="15"/>
+      <c r="BR33" s="15"/>
+      <c r="BS33" s="15"/>
+      <c r="BT33" s="15"/>
+      <c r="BU33" s="15"/>
+      <c r="BV33" s="15"/>
+      <c r="BW33" s="15"/>
+      <c r="BX33" s="15"/>
+      <c r="BY33" s="15"/>
+      <c r="BZ33" s="15"/>
+      <c r="CA33" s="15"/>
+      <c r="CB33" s="15"/>
+      <c r="CC33" s="15"/>
+      <c r="CD33" s="15"/>
+      <c r="CE33" s="15"/>
+      <c r="CF33" s="79"/>
+      <c r="CG33" s="79"/>
+      <c r="CH33" s="79"/>
+      <c r="CI33" s="17"/>
       <c r="CJ33" s="1"/>
       <c r="CK33" s="1"/>
       <c r="CL33" s="1"/>
@@ -31981,202 +31774,188 @@
       <c r="AMI33" s="1"/>
       <c r="AMJ33" s="1"/>
     </row>
-    <row r="34" spans="1:1025" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B34" s="39" t="s">
-        <v>6</v>
+    <row r="34" spans="1:1025" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="12"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="78"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="15"/>
+      <c r="K34" s="15"/>
+      <c r="L34" s="15"/>
+      <c r="M34" s="15"/>
+      <c r="N34" s="15"/>
+      <c r="O34" s="15"/>
+      <c r="P34" s="15"/>
+      <c r="Q34" s="15"/>
+      <c r="R34" s="15"/>
+      <c r="S34" s="15"/>
+      <c r="T34" s="15"/>
+      <c r="U34" s="15"/>
+      <c r="V34" s="15"/>
+      <c r="W34" s="15"/>
+      <c r="X34" s="15"/>
+      <c r="Y34" s="15"/>
+      <c r="Z34" s="15"/>
+      <c r="AA34" s="15"/>
+      <c r="AB34" s="15"/>
+      <c r="AC34" s="15"/>
+      <c r="AD34" s="15"/>
+      <c r="AE34" s="15"/>
+      <c r="AF34" s="15"/>
+      <c r="AG34" s="15"/>
+      <c r="AH34" s="15"/>
+      <c r="AI34" s="15"/>
+      <c r="AJ34" s="15"/>
+      <c r="AK34" s="15"/>
+      <c r="AL34" s="15"/>
+      <c r="AM34" s="15"/>
+      <c r="AN34" s="15"/>
+      <c r="AO34" s="15"/>
+      <c r="AP34" s="15"/>
+      <c r="AQ34" s="15"/>
+      <c r="AR34" s="15"/>
+      <c r="AS34" s="15"/>
+      <c r="AT34" s="15"/>
+      <c r="AU34" s="15"/>
+      <c r="AV34" s="15"/>
+      <c r="AW34" s="15"/>
+      <c r="AX34" s="15"/>
+      <c r="AY34" s="15"/>
+      <c r="AZ34" s="15"/>
+      <c r="BA34" s="15"/>
+      <c r="BB34" s="15"/>
+      <c r="BC34" s="15"/>
+      <c r="BD34" s="15"/>
+      <c r="BE34" s="15"/>
+      <c r="BF34" s="15"/>
+      <c r="BG34" s="15"/>
+      <c r="BH34" s="15"/>
+      <c r="BI34" s="15"/>
+      <c r="BJ34" s="80"/>
+      <c r="BK34" s="80"/>
+      <c r="BL34" s="78"/>
+      <c r="BM34" s="78"/>
+      <c r="BN34" s="78"/>
+      <c r="BO34" s="78"/>
+      <c r="BP34" s="15"/>
+      <c r="BQ34" s="15"/>
+      <c r="BR34" s="15"/>
+      <c r="BS34" s="15"/>
+      <c r="BT34" s="15"/>
+      <c r="BU34" s="15"/>
+      <c r="BV34" s="15"/>
+      <c r="BW34" s="15"/>
+      <c r="BX34" s="15"/>
+      <c r="BY34" s="15"/>
+      <c r="BZ34" s="15"/>
+      <c r="CA34" s="15"/>
+      <c r="CB34" s="15"/>
+      <c r="CC34" s="15"/>
+      <c r="CD34" s="15"/>
+      <c r="CE34" s="15"/>
+      <c r="CF34" s="79"/>
+      <c r="CG34" s="79"/>
+      <c r="CH34" s="79"/>
+      <c r="CI34" s="17"/>
+    </row>
+    <row r="35" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A35" s="2"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="78"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="81" t="s">
+        <v>37</v>
       </c>
-      <c r="C34" s="39"/>
-      <c r="D34" s="39"/>
-      <c r="E34" s="40" t="s">
-        <v>7</v>
+      <c r="H35" s="82"/>
+      <c r="I35" s="83"/>
+      <c r="J35" s="84" t="s">
+        <v>38</v>
       </c>
-      <c r="F34" s="40"/>
-      <c r="G34" s="40"/>
-      <c r="H34" s="40"/>
-      <c r="I34" s="40"/>
-      <c r="J34" s="40"/>
-      <c r="K34" s="40"/>
-      <c r="L34" s="40"/>
-      <c r="M34" s="40"/>
-      <c r="N34" s="40"/>
-      <c r="O34" s="40"/>
-      <c r="P34" s="40"/>
-      <c r="Q34" s="40"/>
-      <c r="R34" s="40"/>
-      <c r="S34" s="40"/>
-      <c r="T34" s="40"/>
-      <c r="U34" s="40"/>
-      <c r="V34" s="40"/>
-      <c r="W34" s="40"/>
-      <c r="X34" s="40"/>
-      <c r="Y34" s="41" t="s">
-        <v>8</v>
+      <c r="K35" s="85"/>
+      <c r="L35" s="85"/>
+      <c r="M35" s="85"/>
+      <c r="N35" s="85"/>
+      <c r="O35" s="85"/>
+      <c r="P35" s="85"/>
+      <c r="Q35" s="85"/>
+      <c r="R35" s="85"/>
+      <c r="S35" s="85"/>
+      <c r="T35" s="82"/>
+      <c r="U35" s="82"/>
+      <c r="V35" s="82"/>
+      <c r="W35" s="82"/>
+      <c r="X35" s="83"/>
+      <c r="Y35" s="81" t="s">
+        <v>39</v>
       </c>
-      <c r="Z34" s="42"/>
-      <c r="AA34" s="42"/>
-      <c r="AB34" s="42"/>
-      <c r="AC34" s="42"/>
-      <c r="AD34" s="42"/>
-      <c r="AE34" s="42"/>
-      <c r="AF34" s="42"/>
-      <c r="AG34" s="42"/>
-      <c r="AH34" s="43"/>
-      <c r="AI34" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="AJ34" s="42"/>
-      <c r="AK34" s="42"/>
-      <c r="AL34" s="42"/>
-      <c r="AM34" s="42"/>
-      <c r="AN34" s="42"/>
-      <c r="AO34" s="42"/>
-      <c r="AP34" s="42"/>
-      <c r="AQ34" s="42"/>
-      <c r="AR34" s="43"/>
-      <c r="AS34" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="AT34" s="44"/>
-      <c r="AU34" s="44"/>
-      <c r="AV34" s="44"/>
-      <c r="AW34" s="44"/>
-      <c r="AX34" s="44"/>
-      <c r="AY34" s="44"/>
-      <c r="AZ34" s="44"/>
-      <c r="BA34" s="44"/>
-      <c r="BB34" s="44"/>
-      <c r="BC34" s="44"/>
-      <c r="BD34" s="44"/>
-      <c r="BE34" s="44"/>
-      <c r="BF34" s="44"/>
-      <c r="BG34" s="44"/>
-      <c r="BH34" s="44"/>
-      <c r="BI34" s="44"/>
-      <c r="BJ34" s="44"/>
-      <c r="BK34" s="44"/>
-      <c r="BL34" s="44"/>
-      <c r="BM34" s="44"/>
-      <c r="BN34" s="44"/>
-      <c r="BO34" s="44"/>
-      <c r="BP34" s="44"/>
-      <c r="BQ34" s="44"/>
-      <c r="BR34" s="44"/>
-      <c r="BS34" s="44"/>
-      <c r="BT34" s="44"/>
-      <c r="BU34" s="44"/>
-      <c r="BV34" s="44"/>
-      <c r="BW34" s="44"/>
-      <c r="BX34" s="44"/>
-      <c r="BY34" s="44"/>
-      <c r="BZ34" s="44"/>
-      <c r="CA34" s="44"/>
-      <c r="CB34" s="44"/>
-      <c r="CC34" s="44"/>
-      <c r="CD34" s="44"/>
-      <c r="CE34" s="44"/>
-      <c r="CF34" s="44"/>
-      <c r="CG34" s="44"/>
-      <c r="CH34" s="44"/>
-      <c r="CI34" s="44"/>
-    </row>
-    <row r="35" spans="1:1025" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="2"/>
-      <c r="B35" s="45">
-        <v>3</v>
-      </c>
-      <c r="C35" s="45"/>
-      <c r="D35" s="45"/>
-      <c r="E35" s="46" t="s">
-        <v>62</v>
-      </c>
-      <c r="F35" s="46"/>
-      <c r="G35" s="46"/>
-      <c r="H35" s="46"/>
-      <c r="I35" s="46"/>
-      <c r="J35" s="46"/>
-      <c r="K35" s="46"/>
-      <c r="L35" s="46"/>
-      <c r="M35" s="46"/>
-      <c r="N35" s="46"/>
-      <c r="O35" s="46"/>
-      <c r="P35" s="46"/>
-      <c r="Q35" s="46"/>
-      <c r="R35" s="46"/>
-      <c r="S35" s="46"/>
-      <c r="T35" s="46"/>
-      <c r="U35" s="46"/>
-      <c r="V35" s="46"/>
-      <c r="W35" s="46"/>
-      <c r="X35" s="46"/>
-      <c r="Y35" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z35" s="47"/>
-      <c r="AA35" s="47"/>
-      <c r="AB35" s="47"/>
-      <c r="AC35" s="47"/>
-      <c r="AD35" s="47"/>
-      <c r="AE35" s="47"/>
-      <c r="AF35" s="47"/>
-      <c r="AG35" s="47"/>
-      <c r="AH35" s="48"/>
-      <c r="AI35" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="AJ35" s="47"/>
-      <c r="AK35" s="47"/>
-      <c r="AL35" s="47"/>
-      <c r="AM35" s="47"/>
-      <c r="AN35" s="47"/>
-      <c r="AO35" s="47"/>
-      <c r="AP35" s="47"/>
-      <c r="AQ35" s="47"/>
-      <c r="AR35" s="48"/>
-      <c r="AS35" s="49" t="s">
-        <v>46</v>
-      </c>
-      <c r="AT35" s="49"/>
-      <c r="AU35" s="49"/>
-      <c r="AV35" s="49"/>
-      <c r="AW35" s="49"/>
-      <c r="AX35" s="49"/>
-      <c r="AY35" s="49"/>
-      <c r="AZ35" s="49"/>
-      <c r="BA35" s="49"/>
-      <c r="BB35" s="49"/>
-      <c r="BC35" s="49"/>
-      <c r="BD35" s="49"/>
-      <c r="BE35" s="49"/>
-      <c r="BF35" s="49"/>
-      <c r="BG35" s="49"/>
-      <c r="BH35" s="49"/>
-      <c r="BI35" s="49"/>
-      <c r="BJ35" s="49"/>
-      <c r="BK35" s="49"/>
-      <c r="BL35" s="49"/>
-      <c r="BM35" s="49"/>
-      <c r="BN35" s="49"/>
-      <c r="BO35" s="49"/>
-      <c r="BP35" s="49"/>
-      <c r="BQ35" s="49"/>
-      <c r="BR35" s="49"/>
-      <c r="BS35" s="49"/>
-      <c r="BT35" s="49"/>
-      <c r="BU35" s="49"/>
-      <c r="BV35" s="49"/>
-      <c r="BW35" s="49"/>
-      <c r="BX35" s="49"/>
-      <c r="BY35" s="49"/>
-      <c r="BZ35" s="49"/>
-      <c r="CA35" s="49"/>
-      <c r="CB35" s="49"/>
-      <c r="CC35" s="49"/>
-      <c r="CD35" s="49"/>
-      <c r="CE35" s="49"/>
-      <c r="CF35" s="49"/>
-      <c r="CG35" s="49"/>
-      <c r="CH35" s="49"/>
-      <c r="CI35" s="49"/>
+      <c r="Z35" s="86"/>
+      <c r="AA35" s="86"/>
+      <c r="AB35" s="86"/>
+      <c r="AC35" s="86"/>
+      <c r="AD35" s="86"/>
+      <c r="AE35" s="86"/>
+      <c r="AF35" s="86"/>
+      <c r="AG35" s="86"/>
+      <c r="AH35" s="86"/>
+      <c r="AI35" s="86"/>
+      <c r="AJ35" s="86"/>
+      <c r="AK35" s="86"/>
+      <c r="AL35" s="86"/>
+      <c r="AM35" s="86"/>
+      <c r="AN35" s="86"/>
+      <c r="AO35" s="86"/>
+      <c r="AP35" s="86"/>
+      <c r="AQ35" s="86"/>
+      <c r="AR35" s="86"/>
+      <c r="AS35" s="86"/>
+      <c r="AT35" s="86"/>
+      <c r="AU35" s="86"/>
+      <c r="AV35" s="86"/>
+      <c r="AW35" s="86"/>
+      <c r="AX35" s="86"/>
+      <c r="AY35" s="86"/>
+      <c r="AZ35" s="86"/>
+      <c r="BA35" s="86"/>
+      <c r="BB35" s="86"/>
+      <c r="BC35" s="86"/>
+      <c r="BD35" s="86"/>
+      <c r="BE35" s="86"/>
+      <c r="BF35" s="86"/>
+      <c r="BG35" s="86"/>
+      <c r="BH35" s="86"/>
+      <c r="BI35" s="86"/>
+      <c r="BJ35" s="86"/>
+      <c r="BK35" s="87"/>
+      <c r="BL35" s="78"/>
+      <c r="BM35" s="78"/>
+      <c r="BN35" s="78"/>
+      <c r="BO35" s="78"/>
+      <c r="BP35" s="15"/>
+      <c r="BQ35" s="15"/>
+      <c r="BR35" s="15"/>
+      <c r="BS35" s="15"/>
+      <c r="BT35" s="15"/>
+      <c r="BU35" s="15"/>
+      <c r="BV35" s="15"/>
+      <c r="BW35" s="15"/>
+      <c r="BX35" s="15"/>
+      <c r="BY35" s="15"/>
+      <c r="BZ35" s="15"/>
+      <c r="CA35" s="15"/>
+      <c r="CB35" s="15"/>
+      <c r="CC35" s="15"/>
+      <c r="CD35" s="15"/>
+      <c r="CE35" s="15"/>
+      <c r="CF35" s="79"/>
+      <c r="CG35" s="79"/>
+      <c r="CH35" s="79"/>
+      <c r="CI35" s="17"/>
       <c r="CJ35" s="1"/>
       <c r="CK35" s="1"/>
       <c r="CL35" s="1"/>
@@ -33115,94 +32894,100 @@
       <c r="AMI35" s="1"/>
       <c r="AMJ35" s="1"/>
     </row>
-    <row r="36" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" s="1"/>
-      <c r="B36" s="9"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="23"/>
-      <c r="E36" s="23"/>
-      <c r="F36" s="23"/>
-      <c r="G36" s="23"/>
-      <c r="H36" s="23"/>
-      <c r="I36" s="23"/>
-      <c r="J36" s="23"/>
-      <c r="K36" s="23"/>
-      <c r="L36" s="23"/>
-      <c r="M36" s="23"/>
-      <c r="N36" s="23"/>
-      <c r="O36" s="23"/>
-      <c r="P36" s="23"/>
-      <c r="Q36" s="23"/>
-      <c r="R36" s="23"/>
-      <c r="S36" s="23"/>
-      <c r="T36" s="23"/>
-      <c r="U36" s="23"/>
-      <c r="V36" s="23"/>
-      <c r="W36" s="23"/>
-      <c r="X36" s="23"/>
-      <c r="Y36" s="23"/>
-      <c r="Z36" s="23"/>
-      <c r="AA36" s="23"/>
-      <c r="AB36" s="23"/>
-      <c r="AC36" s="23"/>
-      <c r="AD36" s="23"/>
-      <c r="AE36" s="23"/>
-      <c r="AF36" s="23"/>
-      <c r="AG36" s="23"/>
-      <c r="AH36" s="23"/>
-      <c r="AI36" s="23"/>
-      <c r="AJ36" s="23"/>
-      <c r="AK36" s="23"/>
-      <c r="AL36" s="23"/>
-      <c r="AM36" s="23"/>
-      <c r="AN36" s="23"/>
-      <c r="AO36" s="23"/>
-      <c r="AP36" s="23"/>
-      <c r="AQ36" s="23"/>
-      <c r="AR36" s="23"/>
-      <c r="AS36" s="23"/>
-      <c r="AT36" s="23"/>
-      <c r="AU36" s="23"/>
-      <c r="AV36" s="23"/>
-      <c r="AW36" s="23"/>
-      <c r="AX36" s="23"/>
-      <c r="AY36" s="23"/>
-      <c r="AZ36" s="23"/>
-      <c r="BA36" s="23"/>
-      <c r="BB36" s="23"/>
-      <c r="BC36" s="23"/>
-      <c r="BD36" s="23"/>
-      <c r="BE36" s="23"/>
-      <c r="BF36" s="23"/>
-      <c r="BG36" s="23"/>
-      <c r="BH36" s="23"/>
-      <c r="BI36" s="23"/>
-      <c r="BJ36" s="23"/>
-      <c r="BK36" s="23"/>
-      <c r="BL36" s="23"/>
-      <c r="BM36" s="23"/>
-      <c r="BN36" s="23"/>
-      <c r="BO36" s="23"/>
-      <c r="BP36" s="10"/>
-      <c r="BQ36" s="10"/>
-      <c r="BR36" s="10"/>
-      <c r="BS36" s="10"/>
-      <c r="BT36" s="10"/>
-      <c r="BU36" s="10"/>
-      <c r="BV36" s="10"/>
-      <c r="BW36" s="10"/>
-      <c r="BX36" s="10"/>
-      <c r="BY36" s="10"/>
-      <c r="BZ36" s="10"/>
-      <c r="CA36" s="10"/>
-      <c r="CB36" s="10"/>
-      <c r="CC36" s="10"/>
-      <c r="CD36" s="10"/>
-      <c r="CE36" s="10"/>
-      <c r="CF36" s="10"/>
-      <c r="CG36" s="10"/>
-      <c r="CH36" s="10"/>
-      <c r="CI36" s="11"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="78"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="47">
+        <v>1</v>
+      </c>
+      <c r="H36" s="86"/>
+      <c r="I36" s="87"/>
+      <c r="J36" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="K36" s="86"/>
+      <c r="L36" s="86"/>
+      <c r="M36" s="86"/>
+      <c r="N36" s="86"/>
+      <c r="O36" s="86"/>
+      <c r="P36" s="86"/>
+      <c r="Q36" s="86"/>
+      <c r="R36" s="86"/>
+      <c r="S36" s="86"/>
+      <c r="T36" s="86"/>
+      <c r="U36" s="86"/>
+      <c r="V36" s="86"/>
+      <c r="W36" s="86"/>
+      <c r="X36" s="87"/>
+      <c r="Y36" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z36" s="86"/>
+      <c r="AA36" s="86"/>
+      <c r="AB36" s="86"/>
+      <c r="AC36" s="86"/>
+      <c r="AD36" s="86"/>
+      <c r="AE36" s="86"/>
+      <c r="AF36" s="86"/>
+      <c r="AG36" s="86"/>
+      <c r="AH36" s="86"/>
+      <c r="AI36" s="86"/>
+      <c r="AJ36" s="86"/>
+      <c r="AK36" s="86"/>
+      <c r="AL36" s="86"/>
+      <c r="AM36" s="86"/>
+      <c r="AN36" s="86"/>
+      <c r="AO36" s="86"/>
+      <c r="AP36" s="86"/>
+      <c r="AQ36" s="86"/>
+      <c r="AR36" s="86"/>
+      <c r="AS36" s="86"/>
+      <c r="AT36" s="86"/>
+      <c r="AU36" s="86"/>
+      <c r="AV36" s="86"/>
+      <c r="AW36" s="86"/>
+      <c r="AX36" s="86"/>
+      <c r="AY36" s="86"/>
+      <c r="AZ36" s="86"/>
+      <c r="BA36" s="86"/>
+      <c r="BB36" s="86"/>
+      <c r="BC36" s="86"/>
+      <c r="BD36" s="86"/>
+      <c r="BE36" s="86"/>
+      <c r="BF36" s="86"/>
+      <c r="BG36" s="86"/>
+      <c r="BH36" s="86"/>
+      <c r="BI36" s="86"/>
+      <c r="BJ36" s="86"/>
+      <c r="BK36" s="87"/>
+      <c r="BL36" s="78"/>
+      <c r="BM36" s="78"/>
+      <c r="BN36" s="78"/>
+      <c r="BO36" s="78"/>
+      <c r="BP36" s="15"/>
+      <c r="BQ36" s="15"/>
+      <c r="BR36" s="15"/>
+      <c r="BS36" s="15"/>
+      <c r="BT36" s="15"/>
+      <c r="BU36" s="15"/>
+      <c r="BV36" s="15"/>
+      <c r="BW36" s="15"/>
+      <c r="BX36" s="15"/>
+      <c r="BY36" s="15"/>
+      <c r="BZ36" s="15"/>
+      <c r="CA36" s="15"/>
+      <c r="CB36" s="15"/>
+      <c r="CC36" s="15"/>
+      <c r="CD36" s="15"/>
+      <c r="CE36" s="15"/>
+      <c r="CF36" s="79"/>
+      <c r="CG36" s="79"/>
+      <c r="CH36" s="79"/>
+      <c r="CI36" s="17"/>
       <c r="CJ36" s="1"/>
       <c r="CK36" s="1"/>
       <c r="CL36" s="1"/>
@@ -34141,97 +33926,99 @@
       <c r="AMI36" s="1"/>
       <c r="AMJ36" s="1"/>
     </row>
-    <row r="37" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="1"/>
       <c r="B37" s="12"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="24"/>
-      <c r="E37" s="14" t="s">
-        <v>15</v>
+      <c r="C37" s="15"/>
+      <c r="D37" s="78"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="47">
+        <v>2</v>
       </c>
-      <c r="F37" s="15"/>
-      <c r="G37" s="15"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="15" t="s">
-        <v>47</v>
+      <c r="H37" s="86"/>
+      <c r="I37" s="87"/>
+      <c r="J37" s="47" t="s">
+        <v>41</v>
       </c>
-      <c r="J37" s="15"/>
-      <c r="K37" s="15"/>
-      <c r="L37" s="15"/>
-      <c r="M37" s="15"/>
-      <c r="N37" s="15"/>
-      <c r="O37" s="15"/>
-      <c r="P37" s="15"/>
-      <c r="Q37" s="15"/>
-      <c r="R37" s="15"/>
-      <c r="S37" s="15"/>
-      <c r="T37" s="15"/>
-      <c r="U37" s="15"/>
-      <c r="V37" s="15"/>
-      <c r="W37" s="15"/>
-      <c r="X37" s="15"/>
-      <c r="Y37" s="15"/>
-      <c r="Z37" s="15"/>
-      <c r="AA37" s="15"/>
-      <c r="AB37" s="15"/>
-      <c r="AC37" s="15"/>
-      <c r="AD37" s="15"/>
-      <c r="AE37" s="15"/>
-      <c r="AF37" s="24"/>
-      <c r="AG37" s="24"/>
-      <c r="AH37" s="24"/>
-      <c r="AI37" s="24"/>
-      <c r="AJ37" s="24"/>
-      <c r="AK37" s="24"/>
-      <c r="AL37" s="24"/>
-      <c r="AM37" s="24"/>
-      <c r="AN37" s="24"/>
-      <c r="AO37" s="24"/>
-      <c r="AP37" s="24"/>
-      <c r="AQ37" s="24"/>
-      <c r="AR37" s="24"/>
-      <c r="AS37" s="24"/>
-      <c r="AT37" s="24"/>
-      <c r="AU37" s="24"/>
-      <c r="AV37" s="24"/>
-      <c r="AW37" s="24"/>
-      <c r="AX37" s="24"/>
-      <c r="AY37" s="24"/>
-      <c r="AZ37" s="24"/>
-      <c r="BA37" s="24"/>
-      <c r="BB37" s="24"/>
-      <c r="BC37" s="24"/>
-      <c r="BD37" s="24"/>
-      <c r="BE37" s="24"/>
-      <c r="BF37" s="24"/>
-      <c r="BG37" s="24"/>
-      <c r="BH37" s="24"/>
-      <c r="BI37" s="24"/>
-      <c r="BJ37" s="24"/>
-      <c r="BK37" s="24"/>
-      <c r="BL37" s="24"/>
-      <c r="BM37" s="24"/>
-      <c r="BN37" s="24"/>
-      <c r="BO37" s="24"/>
-      <c r="BP37" s="13"/>
-      <c r="BQ37" s="13"/>
-      <c r="BR37" s="13"/>
-      <c r="BS37" s="13"/>
-      <c r="BT37" s="13"/>
-      <c r="BU37" s="13"/>
-      <c r="BV37" s="13"/>
-      <c r="BW37" s="13"/>
-      <c r="BX37" s="13"/>
-      <c r="BY37" s="13"/>
-      <c r="BZ37" s="13"/>
-      <c r="CA37" s="13"/>
-      <c r="CB37" s="13"/>
-      <c r="CC37" s="13"/>
-      <c r="CD37" s="13"/>
-      <c r="CE37" s="13"/>
-      <c r="CF37" s="16"/>
-      <c r="CG37" s="16"/>
-      <c r="CH37" s="16"/>
+      <c r="K37" s="86"/>
+      <c r="L37" s="86"/>
+      <c r="M37" s="86"/>
+      <c r="N37" s="86"/>
+      <c r="O37" s="86"/>
+      <c r="P37" s="86"/>
+      <c r="Q37" s="86"/>
+      <c r="R37" s="86"/>
+      <c r="S37" s="86"/>
+      <c r="T37" s="86"/>
+      <c r="U37" s="86"/>
+      <c r="V37" s="86"/>
+      <c r="W37" s="86"/>
+      <c r="X37" s="87"/>
+      <c r="Y37" s="47" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z37" s="86"/>
+      <c r="AA37" s="86"/>
+      <c r="AB37" s="86"/>
+      <c r="AC37" s="86"/>
+      <c r="AD37" s="86"/>
+      <c r="AE37" s="86"/>
+      <c r="AF37" s="86"/>
+      <c r="AG37" s="86"/>
+      <c r="AH37" s="86"/>
+      <c r="AI37" s="86"/>
+      <c r="AJ37" s="86"/>
+      <c r="AK37" s="86"/>
+      <c r="AL37" s="86"/>
+      <c r="AM37" s="86"/>
+      <c r="AN37" s="86"/>
+      <c r="AO37" s="86"/>
+      <c r="AP37" s="86"/>
+      <c r="AQ37" s="86"/>
+      <c r="AR37" s="86"/>
+      <c r="AS37" s="86"/>
+      <c r="AT37" s="86"/>
+      <c r="AU37" s="86"/>
+      <c r="AV37" s="86"/>
+      <c r="AW37" s="86"/>
+      <c r="AX37" s="86"/>
+      <c r="AY37" s="86"/>
+      <c r="AZ37" s="86"/>
+      <c r="BA37" s="86"/>
+      <c r="BB37" s="86"/>
+      <c r="BC37" s="86"/>
+      <c r="BD37" s="86"/>
+      <c r="BE37" s="86"/>
+      <c r="BF37" s="86"/>
+      <c r="BG37" s="86"/>
+      <c r="BH37" s="86"/>
+      <c r="BI37" s="86"/>
+      <c r="BJ37" s="86"/>
+      <c r="BK37" s="87"/>
+      <c r="BL37" s="78"/>
+      <c r="BM37" s="78"/>
+      <c r="BN37" s="78"/>
+      <c r="BO37" s="78"/>
+      <c r="BP37" s="15"/>
+      <c r="BQ37" s="15"/>
+      <c r="BR37" s="15"/>
+      <c r="BS37" s="15"/>
+      <c r="BT37" s="15"/>
+      <c r="BU37" s="15"/>
+      <c r="BV37" s="15"/>
+      <c r="BW37" s="15"/>
+      <c r="BX37" s="15"/>
+      <c r="BY37" s="15"/>
+      <c r="BZ37" s="15"/>
+      <c r="CA37" s="15"/>
+      <c r="CB37" s="15"/>
+      <c r="CC37" s="15"/>
+      <c r="CD37" s="15"/>
+      <c r="CE37" s="15"/>
+      <c r="CF37" s="79"/>
+      <c r="CG37" s="79"/>
+      <c r="CH37" s="79"/>
       <c r="CI37" s="17"/>
       <c r="CJ37" s="1"/>
       <c r="CK37" s="1"/>
@@ -35171,95 +34958,99 @@
       <c r="AMI37" s="1"/>
       <c r="AMJ37" s="1"/>
     </row>
-    <row r="38" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="1"/>
       <c r="B38" s="12"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="24"/>
-      <c r="E38" s="14"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="78"/>
+      <c r="E38" s="15"/>
       <c r="F38" s="15"/>
-      <c r="G38" s="15"/>
-      <c r="H38" s="15"/>
-      <c r="I38" s="15" t="s">
-        <v>53</v>
+      <c r="G38" s="47">
+        <v>3</v>
       </c>
-      <c r="J38" s="15"/>
-      <c r="K38" s="15"/>
-      <c r="L38" s="15"/>
-      <c r="M38" s="15"/>
-      <c r="N38" s="15"/>
-      <c r="O38" s="15"/>
-      <c r="P38" s="15"/>
-      <c r="Q38" s="15"/>
-      <c r="R38" s="15"/>
-      <c r="S38" s="15"/>
-      <c r="T38" s="15"/>
-      <c r="U38" s="15"/>
-      <c r="V38" s="15"/>
-      <c r="W38" s="15"/>
-      <c r="X38" s="15"/>
-      <c r="Y38" s="15"/>
-      <c r="Z38" s="15"/>
-      <c r="AA38" s="15"/>
-      <c r="AB38" s="15"/>
-      <c r="AC38" s="15"/>
-      <c r="AD38" s="15"/>
-      <c r="AE38" s="15"/>
-      <c r="AF38" s="15"/>
-      <c r="AG38" s="15"/>
-      <c r="AH38" s="15"/>
-      <c r="AI38" s="15"/>
-      <c r="AJ38" s="15"/>
-      <c r="AK38" s="15"/>
-      <c r="AL38" s="15"/>
-      <c r="AM38" s="15"/>
-      <c r="AN38" s="15"/>
-      <c r="AO38" s="15"/>
-      <c r="AP38" s="15"/>
-      <c r="AQ38" s="15"/>
-      <c r="AR38" s="15"/>
-      <c r="AS38" s="15"/>
-      <c r="AT38" s="15"/>
-      <c r="AU38" s="15"/>
-      <c r="AV38" s="15"/>
-      <c r="AW38" s="15"/>
-      <c r="AX38" s="15"/>
-      <c r="AY38" s="15"/>
-      <c r="AZ38" s="15"/>
-      <c r="BA38" s="15"/>
-      <c r="BB38" s="15"/>
-      <c r="BC38" s="15"/>
-      <c r="BD38" s="15"/>
-      <c r="BE38" s="15"/>
-      <c r="BF38" s="15"/>
-      <c r="BG38" s="15"/>
-      <c r="BH38" s="15"/>
-      <c r="BI38" s="15"/>
-      <c r="BJ38" s="25"/>
-      <c r="BK38" s="25"/>
-      <c r="BL38" s="24"/>
-      <c r="BM38" s="24"/>
-      <c r="BN38" s="24"/>
-      <c r="BO38" s="24"/>
-      <c r="BP38" s="13"/>
-      <c r="BQ38" s="13"/>
-      <c r="BR38" s="13"/>
-      <c r="BS38" s="13"/>
-      <c r="BT38" s="13"/>
-      <c r="BU38" s="13"/>
-      <c r="BV38" s="13"/>
-      <c r="BW38" s="13"/>
-      <c r="BX38" s="13"/>
-      <c r="BY38" s="13"/>
-      <c r="BZ38" s="13"/>
-      <c r="CA38" s="13"/>
-      <c r="CB38" s="13"/>
-      <c r="CC38" s="13"/>
-      <c r="CD38" s="13"/>
-      <c r="CE38" s="13"/>
-      <c r="CF38" s="16"/>
-      <c r="CG38" s="16"/>
-      <c r="CH38" s="16"/>
+      <c r="H38" s="86"/>
+      <c r="I38" s="87"/>
+      <c r="J38" s="47" t="s">
+        <v>42</v>
+      </c>
+      <c r="K38" s="86"/>
+      <c r="L38" s="86"/>
+      <c r="M38" s="86"/>
+      <c r="N38" s="86"/>
+      <c r="O38" s="86"/>
+      <c r="P38" s="86"/>
+      <c r="Q38" s="86"/>
+      <c r="R38" s="86"/>
+      <c r="S38" s="86"/>
+      <c r="T38" s="86"/>
+      <c r="U38" s="86"/>
+      <c r="V38" s="86"/>
+      <c r="W38" s="86"/>
+      <c r="X38" s="87"/>
+      <c r="Y38" s="47" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z38" s="86"/>
+      <c r="AA38" s="86"/>
+      <c r="AB38" s="86"/>
+      <c r="AC38" s="86"/>
+      <c r="AD38" s="86"/>
+      <c r="AE38" s="86"/>
+      <c r="AF38" s="86"/>
+      <c r="AG38" s="86"/>
+      <c r="AH38" s="86"/>
+      <c r="AI38" s="86"/>
+      <c r="AJ38" s="86"/>
+      <c r="AK38" s="86"/>
+      <c r="AL38" s="86"/>
+      <c r="AM38" s="86"/>
+      <c r="AN38" s="86"/>
+      <c r="AO38" s="86"/>
+      <c r="AP38" s="86"/>
+      <c r="AQ38" s="86"/>
+      <c r="AR38" s="86"/>
+      <c r="AS38" s="86"/>
+      <c r="AT38" s="86"/>
+      <c r="AU38" s="86"/>
+      <c r="AV38" s="86"/>
+      <c r="AW38" s="86"/>
+      <c r="AX38" s="86"/>
+      <c r="AY38" s="86"/>
+      <c r="AZ38" s="86"/>
+      <c r="BA38" s="86"/>
+      <c r="BB38" s="86"/>
+      <c r="BC38" s="86"/>
+      <c r="BD38" s="86"/>
+      <c r="BE38" s="86"/>
+      <c r="BF38" s="86"/>
+      <c r="BG38" s="86"/>
+      <c r="BH38" s="86"/>
+      <c r="BI38" s="86"/>
+      <c r="BJ38" s="86"/>
+      <c r="BK38" s="87"/>
+      <c r="BL38" s="78"/>
+      <c r="BM38" s="78"/>
+      <c r="BN38" s="78"/>
+      <c r="BO38" s="78"/>
+      <c r="BP38" s="15"/>
+      <c r="BQ38" s="15"/>
+      <c r="BR38" s="15"/>
+      <c r="BS38" s="15"/>
+      <c r="BT38" s="15"/>
+      <c r="BU38" s="15"/>
+      <c r="BV38" s="15"/>
+      <c r="BW38" s="15"/>
+      <c r="BX38" s="15"/>
+      <c r="BY38" s="15"/>
+      <c r="BZ38" s="15"/>
+      <c r="CA38" s="15"/>
+      <c r="CB38" s="15"/>
+      <c r="CC38" s="15"/>
+      <c r="CD38" s="15"/>
+      <c r="CE38" s="15"/>
+      <c r="CF38" s="79"/>
+      <c r="CG38" s="79"/>
+      <c r="CH38" s="79"/>
       <c r="CI38" s="17"/>
       <c r="CJ38" s="1"/>
       <c r="CK38" s="1"/>
@@ -36199,11 +35990,11 @@
       <c r="AMI38" s="1"/>
       <c r="AMJ38" s="1"/>
     </row>
-    <row r="39" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A39" s="1"/>
       <c r="B39" s="12"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="24"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="78"/>
       <c r="E39" s="15"/>
       <c r="F39" s="15"/>
       <c r="G39" s="15"/>
@@ -36231,61 +36022,61 @@
       <c r="AC39" s="15"/>
       <c r="AD39" s="15"/>
       <c r="AE39" s="15"/>
-      <c r="AF39" s="24"/>
-      <c r="AG39" s="24"/>
-      <c r="AH39" s="24"/>
-      <c r="AI39" s="24"/>
-      <c r="AJ39" s="24"/>
-      <c r="AK39" s="24"/>
-      <c r="AL39" s="24"/>
-      <c r="AM39" s="24"/>
-      <c r="AN39" s="24"/>
-      <c r="AO39" s="24"/>
-      <c r="AP39" s="24"/>
-      <c r="AQ39" s="24"/>
-      <c r="AR39" s="24"/>
-      <c r="AS39" s="24"/>
-      <c r="AT39" s="24"/>
-      <c r="AU39" s="24"/>
-      <c r="AV39" s="24"/>
-      <c r="AW39" s="24"/>
-      <c r="AX39" s="25"/>
-      <c r="AY39" s="25"/>
-      <c r="AZ39" s="25"/>
-      <c r="BA39" s="25"/>
-      <c r="BB39" s="25"/>
-      <c r="BC39" s="25"/>
-      <c r="BD39" s="25"/>
-      <c r="BE39" s="25"/>
-      <c r="BF39" s="25"/>
-      <c r="BG39" s="25"/>
-      <c r="BH39" s="25"/>
-      <c r="BI39" s="25"/>
-      <c r="BJ39" s="25"/>
-      <c r="BK39" s="25"/>
-      <c r="BL39" s="24"/>
-      <c r="BM39" s="24"/>
-      <c r="BN39" s="24"/>
-      <c r="BO39" s="24"/>
-      <c r="BP39" s="13"/>
-      <c r="BQ39" s="13"/>
-      <c r="BR39" s="13"/>
-      <c r="BS39" s="13"/>
-      <c r="BT39" s="13"/>
-      <c r="BU39" s="13"/>
-      <c r="BV39" s="13"/>
-      <c r="BW39" s="13"/>
-      <c r="BX39" s="13"/>
-      <c r="BY39" s="13"/>
-      <c r="BZ39" s="13"/>
-      <c r="CA39" s="13"/>
-      <c r="CB39" s="13"/>
-      <c r="CC39" s="13"/>
-      <c r="CD39" s="13"/>
-      <c r="CE39" s="13"/>
-      <c r="CF39" s="16"/>
-      <c r="CG39" s="16"/>
-      <c r="CH39" s="16"/>
+      <c r="AF39" s="78"/>
+      <c r="AG39" s="78"/>
+      <c r="AH39" s="78"/>
+      <c r="AI39" s="78"/>
+      <c r="AJ39" s="78"/>
+      <c r="AK39" s="78"/>
+      <c r="AL39" s="78"/>
+      <c r="AM39" s="78"/>
+      <c r="AN39" s="78"/>
+      <c r="AO39" s="78"/>
+      <c r="AP39" s="78"/>
+      <c r="AQ39" s="78"/>
+      <c r="AR39" s="78"/>
+      <c r="AS39" s="78"/>
+      <c r="AT39" s="78"/>
+      <c r="AU39" s="78"/>
+      <c r="AV39" s="78"/>
+      <c r="AW39" s="78"/>
+      <c r="AX39" s="80"/>
+      <c r="AY39" s="80"/>
+      <c r="AZ39" s="80"/>
+      <c r="BA39" s="80"/>
+      <c r="BB39" s="80"/>
+      <c r="BC39" s="80"/>
+      <c r="BD39" s="80"/>
+      <c r="BE39" s="80"/>
+      <c r="BF39" s="80"/>
+      <c r="BG39" s="80"/>
+      <c r="BH39" s="80"/>
+      <c r="BI39" s="88"/>
+      <c r="BJ39" s="80"/>
+      <c r="BK39" s="80"/>
+      <c r="BL39" s="78"/>
+      <c r="BM39" s="78"/>
+      <c r="BN39" s="78"/>
+      <c r="BO39" s="78"/>
+      <c r="BP39" s="15"/>
+      <c r="BQ39" s="15"/>
+      <c r="BR39" s="15"/>
+      <c r="BS39" s="15"/>
+      <c r="BT39" s="15"/>
+      <c r="BU39" s="15"/>
+      <c r="BV39" s="15"/>
+      <c r="BW39" s="15"/>
+      <c r="BX39" s="15"/>
+      <c r="BY39" s="15"/>
+      <c r="BZ39" s="15"/>
+      <c r="CA39" s="15"/>
+      <c r="CB39" s="15"/>
+      <c r="CC39" s="15"/>
+      <c r="CD39" s="15"/>
+      <c r="CE39" s="15"/>
+      <c r="CF39" s="79"/>
+      <c r="CG39" s="79"/>
+      <c r="CH39" s="79"/>
       <c r="CI39" s="17"/>
       <c r="CJ39" s="1"/>
       <c r="CK39" s="1"/>
@@ -37225,101 +37016,97 @@
       <c r="AMI39" s="1"/>
       <c r="AMJ39" s="1"/>
     </row>
-    <row r="40" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A40" s="1"/>
       <c r="B40" s="12"/>
-      <c r="C40" s="13"/>
-      <c r="D40" s="24"/>
-      <c r="E40" s="15"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="78"/>
+      <c r="E40" s="14" t="s">
+        <v>43</v>
+      </c>
       <c r="F40" s="15"/>
-      <c r="G40" s="79" t="s">
-        <v>17</v>
+      <c r="G40" s="15"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="15" t="s">
+        <v>46</v>
       </c>
-      <c r="H40" s="79"/>
-      <c r="I40" s="79"/>
-      <c r="J40" s="79"/>
-      <c r="K40" s="79"/>
-      <c r="L40" s="79"/>
-      <c r="M40" s="79"/>
-      <c r="N40" s="79"/>
-      <c r="O40" s="79"/>
-      <c r="P40" s="79"/>
-      <c r="Q40" s="79" t="s">
-        <v>18</v>
-      </c>
-      <c r="R40" s="79"/>
-      <c r="S40" s="79"/>
-      <c r="T40" s="79"/>
-      <c r="U40" s="79"/>
-      <c r="V40" s="79"/>
-      <c r="W40" s="79"/>
-      <c r="X40" s="79"/>
-      <c r="Y40" s="79"/>
-      <c r="Z40" s="79"/>
-      <c r="AA40" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB40" s="35"/>
-      <c r="AC40" s="35"/>
-      <c r="AD40" s="35"/>
-      <c r="AE40" s="35"/>
-      <c r="AF40" s="35"/>
-      <c r="AG40" s="35"/>
-      <c r="AH40" s="35"/>
-      <c r="AI40" s="35"/>
-      <c r="AJ40" s="35"/>
-      <c r="AK40" s="80"/>
-      <c r="AL40" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="AM40" s="35"/>
-      <c r="AN40" s="35"/>
-      <c r="AO40" s="35"/>
-      <c r="AP40" s="35"/>
-      <c r="AQ40" s="35"/>
-      <c r="AR40" s="35"/>
-      <c r="AS40" s="35"/>
-      <c r="AT40" s="35"/>
-      <c r="AU40" s="35"/>
-      <c r="AV40" s="35"/>
-      <c r="AW40" s="32"/>
-      <c r="AX40" s="32"/>
-      <c r="AY40" s="32"/>
-      <c r="AZ40" s="32"/>
-      <c r="BA40" s="32"/>
-      <c r="BB40" s="32"/>
-      <c r="BC40" s="32"/>
-      <c r="BD40" s="32"/>
-      <c r="BE40" s="32"/>
-      <c r="BF40" s="32"/>
-      <c r="BG40" s="32"/>
-      <c r="BH40" s="32"/>
-      <c r="BI40" s="32"/>
-      <c r="BJ40" s="32"/>
-      <c r="BK40" s="33"/>
-      <c r="BL40" s="24"/>
-      <c r="BM40" s="24"/>
-      <c r="BN40" s="24"/>
-      <c r="BO40" s="24"/>
-      <c r="BP40" s="13"/>
-      <c r="BQ40" s="13"/>
-      <c r="BR40" s="13"/>
-      <c r="BS40" s="13"/>
-      <c r="BT40" s="13"/>
-      <c r="BU40" s="13"/>
-      <c r="BV40" s="13"/>
-      <c r="BW40" s="13"/>
-      <c r="BX40" s="13"/>
-      <c r="BY40" s="13"/>
-      <c r="BZ40" s="13"/>
-      <c r="CA40" s="13"/>
-      <c r="CB40" s="13"/>
-      <c r="CC40" s="13"/>
-      <c r="CD40" s="13"/>
-      <c r="CE40" s="13"/>
-      <c r="CF40" s="16"/>
-      <c r="CG40" s="16"/>
-      <c r="CH40" s="16"/>
+      <c r="J40" s="15"/>
+      <c r="K40" s="15"/>
+      <c r="L40" s="15"/>
+      <c r="M40" s="15"/>
+      <c r="N40" s="15"/>
+      <c r="O40" s="15"/>
+      <c r="P40" s="15"/>
+      <c r="Q40" s="15"/>
+      <c r="R40" s="15"/>
+      <c r="S40" s="15"/>
+      <c r="T40" s="15"/>
+      <c r="U40" s="15"/>
+      <c r="V40" s="15"/>
+      <c r="W40" s="15"/>
+      <c r="X40" s="15"/>
+      <c r="Y40" s="15"/>
+      <c r="Z40" s="15"/>
+      <c r="AA40" s="15"/>
+      <c r="AB40" s="15"/>
+      <c r="AC40" s="15"/>
+      <c r="AD40" s="15"/>
+      <c r="AE40" s="15"/>
+      <c r="AF40" s="89"/>
+      <c r="AG40" s="89"/>
+      <c r="AH40" s="89"/>
+      <c r="AI40" s="89"/>
+      <c r="AJ40" s="89"/>
+      <c r="AK40" s="89"/>
+      <c r="AL40" s="89"/>
+      <c r="AM40" s="89"/>
+      <c r="AN40" s="89"/>
+      <c r="AO40" s="89"/>
+      <c r="AP40" s="89"/>
+      <c r="AQ40" s="89"/>
+      <c r="AR40" s="89"/>
+      <c r="AS40" s="89"/>
+      <c r="AT40" s="89"/>
+      <c r="AU40" s="89"/>
+      <c r="AV40" s="89"/>
+      <c r="AW40" s="89"/>
+      <c r="AX40" s="80"/>
+      <c r="AY40" s="80"/>
+      <c r="AZ40" s="80"/>
+      <c r="BA40" s="80"/>
+      <c r="BB40" s="80"/>
+      <c r="BC40" s="80"/>
+      <c r="BD40" s="80"/>
+      <c r="BE40" s="80"/>
+      <c r="BF40" s="80"/>
+      <c r="BG40" s="80"/>
+      <c r="BH40" s="80"/>
+      <c r="BI40" s="80"/>
+      <c r="BJ40" s="80"/>
+      <c r="BK40" s="80"/>
+      <c r="BL40" s="78"/>
+      <c r="BM40" s="78"/>
+      <c r="BN40" s="78"/>
+      <c r="BO40" s="78"/>
+      <c r="BP40" s="15"/>
+      <c r="BQ40" s="15"/>
+      <c r="BR40" s="15"/>
+      <c r="BS40" s="15"/>
+      <c r="BT40" s="15"/>
+      <c r="BU40" s="15"/>
+      <c r="BV40" s="15"/>
+      <c r="BW40" s="15"/>
+      <c r="BX40" s="15"/>
+      <c r="BY40" s="15"/>
+      <c r="BZ40" s="15"/>
+      <c r="CA40" s="15"/>
+      <c r="CB40" s="15"/>
+      <c r="CC40" s="15"/>
+      <c r="CD40" s="15"/>
+      <c r="CE40" s="15"/>
+      <c r="CF40" s="79"/>
+      <c r="CG40" s="79"/>
+      <c r="CH40" s="79"/>
       <c r="CI40" s="17"/>
       <c r="CJ40" s="1"/>
       <c r="CK40" s="1"/>
@@ -38259,77 +38046,69 @@
       <c r="AMI40" s="1"/>
       <c r="AMJ40" s="1"/>
     </row>
-    <row r="41" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A41" s="1"/>
-      <c r="B41" s="12"/>
+      <c r="B41" s="16"/>
       <c r="C41" s="13"/>
       <c r="D41" s="24"/>
-      <c r="E41" s="15"/>
-      <c r="F41" s="15"/>
-      <c r="G41" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="H41" s="46"/>
-      <c r="I41" s="46"/>
-      <c r="J41" s="46"/>
-      <c r="K41" s="46"/>
-      <c r="L41" s="46"/>
-      <c r="M41" s="46"/>
-      <c r="N41" s="46"/>
-      <c r="O41" s="46"/>
-      <c r="P41" s="46"/>
-      <c r="Q41" s="46" t="s">
-        <v>20</v>
-      </c>
-      <c r="R41" s="46"/>
-      <c r="S41" s="46"/>
-      <c r="T41" s="46"/>
-      <c r="U41" s="46"/>
-      <c r="V41" s="46"/>
-      <c r="W41" s="46"/>
-      <c r="X41" s="46"/>
-      <c r="Y41" s="46"/>
-      <c r="Z41" s="46"/>
-      <c r="AA41" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="AB41" s="47"/>
-      <c r="AC41" s="47"/>
-      <c r="AD41" s="47"/>
-      <c r="AE41" s="47"/>
-      <c r="AF41" s="47"/>
-      <c r="AG41" s="47"/>
-      <c r="AH41" s="47"/>
-      <c r="AI41" s="47"/>
-      <c r="AJ41" s="47"/>
-      <c r="AK41" s="48"/>
-      <c r="AL41" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="AM41" s="47"/>
-      <c r="AN41" s="47"/>
-      <c r="AO41" s="47"/>
-      <c r="AP41" s="47"/>
-      <c r="AQ41" s="47"/>
-      <c r="AR41" s="47"/>
-      <c r="AS41" s="47"/>
-      <c r="AT41" s="47"/>
-      <c r="AU41" s="47"/>
-      <c r="AV41" s="47"/>
-      <c r="AW41" s="37"/>
-      <c r="AX41" s="37"/>
-      <c r="AY41" s="37"/>
-      <c r="AZ41" s="37"/>
-      <c r="BA41" s="37"/>
-      <c r="BB41" s="37"/>
-      <c r="BC41" s="37"/>
-      <c r="BD41" s="37"/>
-      <c r="BE41" s="37"/>
-      <c r="BF41" s="37"/>
-      <c r="BG41" s="37"/>
-      <c r="BH41" s="37"/>
-      <c r="BI41" s="37"/>
-      <c r="BJ41" s="37"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="37"/>
+      <c r="H41" s="37"/>
+      <c r="I41" s="37"/>
+      <c r="J41" s="37"/>
+      <c r="K41" s="37"/>
+      <c r="L41" s="37"/>
+      <c r="M41" s="37"/>
+      <c r="N41" s="37"/>
+      <c r="O41" s="37"/>
+      <c r="P41" s="37"/>
+      <c r="Q41" s="37"/>
+      <c r="R41" s="37"/>
+      <c r="S41" s="37"/>
+      <c r="T41" s="37"/>
+      <c r="U41" s="37"/>
+      <c r="V41" s="37"/>
+      <c r="W41" s="37"/>
+      <c r="X41" s="37"/>
+      <c r="Y41" s="37"/>
+      <c r="Z41" s="37"/>
+      <c r="AA41" s="37"/>
+      <c r="AB41" s="37"/>
+      <c r="AC41" s="37"/>
+      <c r="AD41" s="37"/>
+      <c r="AE41" s="37"/>
+      <c r="AF41" s="37"/>
+      <c r="AG41" s="37"/>
+      <c r="AH41" s="37"/>
+      <c r="AI41" s="37"/>
+      <c r="AJ41" s="37"/>
+      <c r="AK41" s="37"/>
+      <c r="AL41" s="37"/>
+      <c r="AM41" s="37"/>
+      <c r="AN41" s="37"/>
+      <c r="AO41" s="37"/>
+      <c r="AP41" s="37"/>
+      <c r="AQ41" s="37"/>
+      <c r="AR41" s="37"/>
+      <c r="AS41" s="37"/>
+      <c r="AT41" s="37"/>
+      <c r="AU41" s="37"/>
+      <c r="AV41" s="37"/>
+      <c r="AW41" s="38"/>
+      <c r="AX41" s="38"/>
+      <c r="AY41" s="38"/>
+      <c r="AZ41" s="38"/>
+      <c r="BA41" s="38"/>
+      <c r="BB41" s="38"/>
+      <c r="BC41" s="38"/>
+      <c r="BD41" s="38"/>
+      <c r="BE41" s="38"/>
+      <c r="BF41" s="38"/>
+      <c r="BG41" s="38"/>
+      <c r="BH41" s="38"/>
+      <c r="BI41" s="38"/>
+      <c r="BJ41" s="38"/>
       <c r="BK41" s="38"/>
       <c r="BL41" s="24"/>
       <c r="BM41" s="24"/>
@@ -38354,7 +38133,7 @@
       <c r="CF41" s="16"/>
       <c r="CG41" s="16"/>
       <c r="CH41" s="16"/>
-      <c r="CI41" s="17"/>
+      <c r="CI41" s="16"/>
       <c r="CJ41" s="1"/>
       <c r="CK41" s="1"/>
       <c r="CL41" s="1"/>
@@ -39293,77 +39072,69 @@
       <c r="AMI41" s="1"/>
       <c r="AMJ41" s="1"/>
     </row>
-    <row r="42" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A42" s="1"/>
-      <c r="B42" s="12"/>
+      <c r="B42" s="16"/>
       <c r="C42" s="13"/>
       <c r="D42" s="24"/>
-      <c r="E42" s="15"/>
-      <c r="F42" s="15"/>
-      <c r="G42" s="46" t="s">
-        <v>32</v>
-      </c>
-      <c r="H42" s="46"/>
-      <c r="I42" s="46"/>
-      <c r="J42" s="46"/>
-      <c r="K42" s="46"/>
-      <c r="L42" s="46"/>
-      <c r="M42" s="46"/>
-      <c r="N42" s="46"/>
-      <c r="O42" s="46"/>
-      <c r="P42" s="46"/>
-      <c r="Q42" s="46" t="s">
-        <v>20</v>
-      </c>
-      <c r="R42" s="46"/>
-      <c r="S42" s="46"/>
-      <c r="T42" s="46"/>
-      <c r="U42" s="46"/>
-      <c r="V42" s="46"/>
-      <c r="W42" s="46"/>
-      <c r="X42" s="46"/>
-      <c r="Y42" s="46"/>
-      <c r="Z42" s="46"/>
-      <c r="AA42" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="AB42" s="47"/>
-      <c r="AC42" s="47"/>
-      <c r="AD42" s="47"/>
-      <c r="AE42" s="47"/>
-      <c r="AF42" s="47"/>
-      <c r="AG42" s="47"/>
-      <c r="AH42" s="47"/>
-      <c r="AI42" s="47"/>
-      <c r="AJ42" s="47"/>
-      <c r="AK42" s="48"/>
-      <c r="AL42" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="AM42" s="47"/>
-      <c r="AN42" s="47"/>
-      <c r="AO42" s="47"/>
-      <c r="AP42" s="47"/>
-      <c r="AQ42" s="47"/>
-      <c r="AR42" s="47"/>
-      <c r="AS42" s="47"/>
-      <c r="AT42" s="47"/>
-      <c r="AU42" s="47"/>
-      <c r="AV42" s="47"/>
-      <c r="AW42" s="37"/>
-      <c r="AX42" s="37"/>
-      <c r="AY42" s="37"/>
-      <c r="AZ42" s="37"/>
-      <c r="BA42" s="37"/>
-      <c r="BB42" s="37"/>
-      <c r="BC42" s="37"/>
-      <c r="BD42" s="37"/>
-      <c r="BE42" s="37"/>
-      <c r="BF42" s="37"/>
-      <c r="BG42" s="37"/>
-      <c r="BH42" s="37"/>
-      <c r="BI42" s="37"/>
-      <c r="BJ42" s="37"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="13"/>
+      <c r="G42" s="37"/>
+      <c r="H42" s="37"/>
+      <c r="I42" s="37"/>
+      <c r="J42" s="37"/>
+      <c r="K42" s="37"/>
+      <c r="L42" s="37"/>
+      <c r="M42" s="37"/>
+      <c r="N42" s="37"/>
+      <c r="O42" s="37"/>
+      <c r="P42" s="37"/>
+      <c r="Q42" s="37"/>
+      <c r="R42" s="37"/>
+      <c r="S42" s="37"/>
+      <c r="T42" s="37"/>
+      <c r="U42" s="37"/>
+      <c r="V42" s="37"/>
+      <c r="W42" s="37"/>
+      <c r="X42" s="37"/>
+      <c r="Y42" s="37"/>
+      <c r="Z42" s="37"/>
+      <c r="AA42" s="37"/>
+      <c r="AB42" s="37"/>
+      <c r="AC42" s="37"/>
+      <c r="AD42" s="37"/>
+      <c r="AE42" s="37"/>
+      <c r="AF42" s="37"/>
+      <c r="AG42" s="37"/>
+      <c r="AH42" s="37"/>
+      <c r="AI42" s="37"/>
+      <c r="AJ42" s="37"/>
+      <c r="AK42" s="37"/>
+      <c r="AL42" s="37"/>
+      <c r="AM42" s="37"/>
+      <c r="AN42" s="37"/>
+      <c r="AO42" s="37"/>
+      <c r="AP42" s="37"/>
+      <c r="AQ42" s="37"/>
+      <c r="AR42" s="37"/>
+      <c r="AS42" s="37"/>
+      <c r="AT42" s="37"/>
+      <c r="AU42" s="37"/>
+      <c r="AV42" s="37"/>
+      <c r="AW42" s="38"/>
+      <c r="AX42" s="38"/>
+      <c r="AY42" s="38"/>
+      <c r="AZ42" s="38"/>
+      <c r="BA42" s="38"/>
+      <c r="BB42" s="38"/>
+      <c r="BC42" s="38"/>
+      <c r="BD42" s="38"/>
+      <c r="BE42" s="38"/>
+      <c r="BF42" s="38"/>
+      <c r="BG42" s="38"/>
+      <c r="BH42" s="38"/>
+      <c r="BI42" s="38"/>
+      <c r="BJ42" s="38"/>
       <c r="BK42" s="38"/>
       <c r="BL42" s="24"/>
       <c r="BM42" s="24"/>
@@ -39388,7 +39159,7 @@
       <c r="CF42" s="16"/>
       <c r="CG42" s="16"/>
       <c r="CH42" s="16"/>
-      <c r="CI42" s="17"/>
+      <c r="CI42" s="16"/>
       <c r="CJ42" s="1"/>
       <c r="CK42" s="1"/>
       <c r="CL42" s="1"/>
@@ -40327,38 +40098,38 @@
       <c r="AMI42" s="1"/>
       <c r="AMJ42" s="1"/>
     </row>
-    <row r="43" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A43" s="1"/>
-      <c r="B43" s="12"/>
+      <c r="B43" s="16"/>
       <c r="C43" s="13"/>
       <c r="D43" s="24"/>
-      <c r="E43" s="15"/>
-      <c r="F43" s="15"/>
-      <c r="G43" s="15"/>
-      <c r="H43" s="15"/>
-      <c r="I43" s="15"/>
-      <c r="J43" s="15"/>
-      <c r="K43" s="15"/>
-      <c r="L43" s="15"/>
-      <c r="M43" s="15"/>
-      <c r="N43" s="15"/>
-      <c r="O43" s="15"/>
-      <c r="P43" s="15"/>
-      <c r="Q43" s="15"/>
-      <c r="R43" s="15"/>
-      <c r="S43" s="15"/>
-      <c r="T43" s="15"/>
-      <c r="U43" s="15"/>
-      <c r="V43" s="15"/>
-      <c r="W43" s="15"/>
-      <c r="X43" s="15"/>
-      <c r="Y43" s="15"/>
-      <c r="Z43" s="15"/>
-      <c r="AA43" s="15"/>
-      <c r="AB43" s="15"/>
-      <c r="AC43" s="15"/>
-      <c r="AD43" s="15"/>
-      <c r="AE43" s="15"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="13"/>
+      <c r="G43" s="13"/>
+      <c r="H43" s="13"/>
+      <c r="I43" s="13"/>
+      <c r="J43" s="13"/>
+      <c r="K43" s="13"/>
+      <c r="L43" s="13"/>
+      <c r="M43" s="13"/>
+      <c r="N43" s="13"/>
+      <c r="O43" s="13"/>
+      <c r="P43" s="13"/>
+      <c r="Q43" s="13"/>
+      <c r="R43" s="13"/>
+      <c r="S43" s="13"/>
+      <c r="T43" s="13"/>
+      <c r="U43" s="13"/>
+      <c r="V43" s="13"/>
+      <c r="W43" s="13"/>
+      <c r="X43" s="13"/>
+      <c r="Y43" s="13"/>
+      <c r="Z43" s="13"/>
+      <c r="AA43" s="13"/>
+      <c r="AB43" s="13"/>
+      <c r="AC43" s="13"/>
+      <c r="AD43" s="13"/>
+      <c r="AE43" s="13"/>
       <c r="AF43" s="24"/>
       <c r="AG43" s="24"/>
       <c r="AH43" s="24"/>
@@ -40414,7 +40185,7 @@
       <c r="CF43" s="16"/>
       <c r="CG43" s="16"/>
       <c r="CH43" s="16"/>
-      <c r="CI43" s="17"/>
+      <c r="CI43" s="16"/>
       <c r="CJ43" s="1"/>
       <c r="CK43" s="1"/>
       <c r="CL43" s="1"/>
@@ -41353,56 +41124,52 @@
       <c r="AMI43" s="1"/>
       <c r="AMJ43" s="1"/>
     </row>
-    <row r="44" spans="1:1025" s="29" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:1025" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A44"/>
-      <c r="B44" s="12"/>
+      <c r="B44" s="16"/>
       <c r="C44" s="13"/>
       <c r="D44" s="13"/>
-      <c r="E44" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="F44" s="15"/>
-      <c r="G44" s="15"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="J44" s="15"/>
-      <c r="K44" s="15"/>
-      <c r="L44" s="15"/>
-      <c r="M44" s="15"/>
-      <c r="N44" s="15"/>
-      <c r="O44" s="15"/>
-      <c r="P44" s="15"/>
-      <c r="Q44" s="15"/>
-      <c r="R44" s="15"/>
-      <c r="S44" s="15"/>
-      <c r="T44" s="15"/>
-      <c r="U44" s="15"/>
-      <c r="V44" s="15"/>
-      <c r="W44" s="15"/>
-      <c r="X44" s="15"/>
-      <c r="Y44" s="15"/>
-      <c r="Z44" s="15"/>
-      <c r="AA44" s="15"/>
-      <c r="AB44" s="15"/>
-      <c r="AC44" s="15"/>
-      <c r="AD44" s="15"/>
-      <c r="AE44" s="15"/>
-      <c r="AF44" s="15"/>
-      <c r="AG44" s="15"/>
-      <c r="AH44" s="15"/>
-      <c r="AI44" s="15"/>
-      <c r="AJ44" s="15"/>
-      <c r="AK44" s="15"/>
-      <c r="AL44" s="15"/>
-      <c r="AM44" s="15"/>
-      <c r="AN44" s="15"/>
-      <c r="AO44" s="15"/>
-      <c r="AP44" s="15"/>
-      <c r="AQ44" s="15"/>
-      <c r="AR44" s="15"/>
-      <c r="AS44" s="15"/>
+      <c r="E44" s="33"/>
+      <c r="F44" s="13"/>
+      <c r="G44" s="13"/>
+      <c r="H44" s="34"/>
+      <c r="I44" s="13"/>
+      <c r="J44" s="13"/>
+      <c r="K44" s="13"/>
+      <c r="L44" s="13"/>
+      <c r="M44" s="13"/>
+      <c r="N44" s="13"/>
+      <c r="O44" s="13"/>
+      <c r="P44" s="13"/>
+      <c r="Q44" s="13"/>
+      <c r="R44" s="13"/>
+      <c r="S44" s="13"/>
+      <c r="T44" s="13"/>
+      <c r="U44" s="13"/>
+      <c r="V44" s="13"/>
+      <c r="W44" s="13"/>
+      <c r="X44" s="13"/>
+      <c r="Y44" s="13"/>
+      <c r="Z44" s="13"/>
+      <c r="AA44" s="13"/>
+      <c r="AB44" s="13"/>
+      <c r="AC44" s="13"/>
+      <c r="AD44" s="13"/>
+      <c r="AE44" s="13"/>
+      <c r="AF44" s="13"/>
+      <c r="AG44" s="13"/>
+      <c r="AH44" s="13"/>
+      <c r="AI44" s="13"/>
+      <c r="AJ44" s="13"/>
+      <c r="AK44" s="13"/>
+      <c r="AL44" s="13"/>
+      <c r="AM44" s="13"/>
+      <c r="AN44" s="13"/>
+      <c r="AO44" s="13"/>
+      <c r="AP44" s="13"/>
+      <c r="AQ44" s="13"/>
+      <c r="AR44" s="13"/>
+      <c r="AS44" s="13"/>
       <c r="AT44" s="13"/>
       <c r="AU44" s="13"/>
       <c r="AV44" s="13"/>
@@ -41444,7 +41211,7 @@
       <c r="CF44" s="16"/>
       <c r="CG44" s="16"/>
       <c r="CH44" s="16"/>
-      <c r="CI44" s="17"/>
+      <c r="CI44" s="16"/>
       <c r="CJ44"/>
       <c r="CK44"/>
       <c r="CL44"/>
@@ -42383,70 +42150,68 @@
       <c r="AMI44"/>
       <c r="AMJ44"/>
     </row>
-    <row r="45" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A45" s="1"/>
-      <c r="B45" s="12"/>
+      <c r="B45" s="16"/>
       <c r="C45" s="13"/>
       <c r="D45" s="24"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="15"/>
-      <c r="G45" s="15"/>
-      <c r="H45" s="15"/>
-      <c r="I45" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="J45" s="15"/>
-      <c r="K45" s="15"/>
-      <c r="L45" s="15"/>
-      <c r="M45" s="15"/>
-      <c r="N45" s="15"/>
-      <c r="O45" s="15"/>
-      <c r="P45" s="15"/>
-      <c r="Q45" s="15"/>
-      <c r="R45" s="15"/>
-      <c r="S45" s="15"/>
-      <c r="T45" s="15"/>
-      <c r="U45" s="15"/>
-      <c r="V45" s="15"/>
-      <c r="W45" s="15"/>
-      <c r="X45" s="15"/>
-      <c r="Y45" s="15"/>
-      <c r="Z45" s="15"/>
-      <c r="AA45" s="15"/>
-      <c r="AB45" s="15"/>
-      <c r="AC45" s="15"/>
-      <c r="AD45" s="15"/>
-      <c r="AE45" s="15"/>
-      <c r="AF45" s="15"/>
-      <c r="AG45" s="15"/>
-      <c r="AH45" s="15"/>
-      <c r="AI45" s="15"/>
-      <c r="AJ45" s="15"/>
-      <c r="AK45" s="15"/>
-      <c r="AL45" s="15"/>
-      <c r="AM45" s="15"/>
-      <c r="AN45" s="15"/>
-      <c r="AO45" s="15"/>
-      <c r="AP45" s="15"/>
-      <c r="AQ45" s="15"/>
-      <c r="AR45" s="15"/>
-      <c r="AS45" s="15"/>
-      <c r="AT45" s="15"/>
-      <c r="AU45" s="15"/>
-      <c r="AV45" s="15"/>
-      <c r="AW45" s="15"/>
-      <c r="AX45" s="15"/>
-      <c r="AY45" s="15"/>
-      <c r="AZ45" s="15"/>
-      <c r="BA45" s="15"/>
-      <c r="BB45" s="15"/>
-      <c r="BC45" s="15"/>
-      <c r="BD45" s="15"/>
-      <c r="BE45" s="15"/>
-      <c r="BF45" s="15"/>
-      <c r="BG45" s="15"/>
-      <c r="BH45" s="15"/>
-      <c r="BI45" s="15"/>
+      <c r="E45" s="33"/>
+      <c r="F45" s="13"/>
+      <c r="G45" s="13"/>
+      <c r="H45" s="13"/>
+      <c r="I45" s="13"/>
+      <c r="J45" s="13"/>
+      <c r="K45" s="13"/>
+      <c r="L45" s="13"/>
+      <c r="M45" s="13"/>
+      <c r="N45" s="13"/>
+      <c r="O45" s="13"/>
+      <c r="P45" s="13"/>
+      <c r="Q45" s="13"/>
+      <c r="R45" s="13"/>
+      <c r="S45" s="13"/>
+      <c r="T45" s="13"/>
+      <c r="U45" s="13"/>
+      <c r="V45" s="13"/>
+      <c r="W45" s="13"/>
+      <c r="X45" s="13"/>
+      <c r="Y45" s="13"/>
+      <c r="Z45" s="13"/>
+      <c r="AA45" s="13"/>
+      <c r="AB45" s="13"/>
+      <c r="AC45" s="13"/>
+      <c r="AD45" s="13"/>
+      <c r="AE45" s="13"/>
+      <c r="AF45" s="13"/>
+      <c r="AG45" s="13"/>
+      <c r="AH45" s="13"/>
+      <c r="AI45" s="13"/>
+      <c r="AJ45" s="13"/>
+      <c r="AK45" s="13"/>
+      <c r="AL45" s="13"/>
+      <c r="AM45" s="13"/>
+      <c r="AN45" s="13"/>
+      <c r="AO45" s="13"/>
+      <c r="AP45" s="13"/>
+      <c r="AQ45" s="13"/>
+      <c r="AR45" s="13"/>
+      <c r="AS45" s="13"/>
+      <c r="AT45" s="13"/>
+      <c r="AU45" s="13"/>
+      <c r="AV45" s="13"/>
+      <c r="AW45" s="13"/>
+      <c r="AX45" s="13"/>
+      <c r="AY45" s="13"/>
+      <c r="AZ45" s="13"/>
+      <c r="BA45" s="13"/>
+      <c r="BB45" s="13"/>
+      <c r="BC45" s="13"/>
+      <c r="BD45" s="13"/>
+      <c r="BE45" s="13"/>
+      <c r="BF45" s="13"/>
+      <c r="BG45" s="13"/>
+      <c r="BH45" s="13"/>
+      <c r="BI45" s="13"/>
       <c r="BJ45" s="25"/>
       <c r="BK45" s="25"/>
       <c r="BL45" s="24"/>
@@ -42472,7 +42237,7 @@
       <c r="CF45" s="16"/>
       <c r="CG45" s="16"/>
       <c r="CH45" s="16"/>
-      <c r="CI45" s="17"/>
+      <c r="CI45" s="16"/>
       <c r="CJ45" s="1"/>
       <c r="CK45" s="1"/>
       <c r="CL45" s="1"/>
@@ -43411,52 +43176,52 @@
       <c r="AMI45" s="1"/>
       <c r="AMJ45" s="1"/>
     </row>
-    <row r="46" spans="1:1025" s="29" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:1025" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46"/>
-      <c r="B46" s="12"/>
+      <c r="B46" s="16"/>
       <c r="C46" s="13"/>
       <c r="D46" s="13"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="15"/>
-      <c r="G46" s="15"/>
-      <c r="H46" s="15"/>
-      <c r="I46" s="15"/>
-      <c r="J46" s="15"/>
-      <c r="K46" s="15"/>
-      <c r="L46" s="15"/>
-      <c r="M46" s="15"/>
-      <c r="N46" s="15"/>
-      <c r="O46" s="15"/>
-      <c r="P46" s="15"/>
-      <c r="Q46" s="15"/>
-      <c r="R46" s="15"/>
-      <c r="S46" s="15"/>
-      <c r="T46" s="15"/>
-      <c r="U46" s="15"/>
-      <c r="V46" s="15"/>
-      <c r="W46" s="15"/>
-      <c r="X46" s="15"/>
-      <c r="Y46" s="15"/>
-      <c r="Z46" s="15"/>
-      <c r="AA46" s="15"/>
-      <c r="AB46" s="15"/>
-      <c r="AC46" s="15"/>
-      <c r="AD46" s="15"/>
-      <c r="AE46" s="15"/>
-      <c r="AF46" s="15"/>
-      <c r="AG46" s="15"/>
-      <c r="AH46" s="15"/>
-      <c r="AI46" s="15"/>
-      <c r="AJ46" s="15"/>
-      <c r="AK46" s="15"/>
-      <c r="AL46" s="15"/>
-      <c r="AM46" s="15"/>
-      <c r="AN46" s="15"/>
-      <c r="AO46" s="15"/>
-      <c r="AP46" s="15"/>
-      <c r="AQ46" s="15"/>
-      <c r="AR46" s="15"/>
-      <c r="AS46" s="15"/>
+      <c r="E46" s="33"/>
+      <c r="F46" s="13"/>
+      <c r="G46" s="13"/>
+      <c r="H46" s="13"/>
+      <c r="I46" s="13"/>
+      <c r="J46" s="13"/>
+      <c r="K46" s="13"/>
+      <c r="L46" s="13"/>
+      <c r="M46" s="13"/>
+      <c r="N46" s="13"/>
+      <c r="O46" s="13"/>
+      <c r="P46" s="13"/>
+      <c r="Q46" s="13"/>
+      <c r="R46" s="13"/>
+      <c r="S46" s="13"/>
+      <c r="T46" s="13"/>
+      <c r="U46" s="13"/>
+      <c r="V46" s="13"/>
+      <c r="W46" s="13"/>
+      <c r="X46" s="13"/>
+      <c r="Y46" s="13"/>
+      <c r="Z46" s="13"/>
+      <c r="AA46" s="13"/>
+      <c r="AB46" s="13"/>
+      <c r="AC46" s="13"/>
+      <c r="AD46" s="13"/>
+      <c r="AE46" s="13"/>
+      <c r="AF46" s="13"/>
+      <c r="AG46" s="13"/>
+      <c r="AH46" s="13"/>
+      <c r="AI46" s="13"/>
+      <c r="AJ46" s="13"/>
+      <c r="AK46" s="13"/>
+      <c r="AL46" s="13"/>
+      <c r="AM46" s="13"/>
+      <c r="AN46" s="13"/>
+      <c r="AO46" s="13"/>
+      <c r="AP46" s="13"/>
+      <c r="AQ46" s="13"/>
+      <c r="AR46" s="13"/>
+      <c r="AS46" s="13"/>
       <c r="AT46" s="13"/>
       <c r="AU46" s="13"/>
       <c r="AV46" s="13"/>
@@ -43498,7 +43263,7 @@
       <c r="CF46" s="16"/>
       <c r="CG46" s="16"/>
       <c r="CH46" s="16"/>
-      <c r="CI46" s="17"/>
+      <c r="CI46" s="16"/>
       <c r="CJ46"/>
       <c r="CK46"/>
       <c r="CL46"/>
@@ -44437,72 +44202,70 @@
       <c r="AMI46"/>
       <c r="AMJ46"/>
     </row>
-    <row r="47" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A47" s="1"/>
-      <c r="B47" s="12"/>
+      <c r="B47" s="16"/>
       <c r="C47" s="13"/>
       <c r="D47" s="24"/>
-      <c r="E47" s="15"/>
-      <c r="F47" s="15"/>
-      <c r="G47" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="H47" s="37"/>
-      <c r="I47" s="37"/>
-      <c r="J47" s="37"/>
-      <c r="K47" s="37"/>
-      <c r="L47" s="37"/>
-      <c r="M47" s="37"/>
-      <c r="N47" s="37"/>
-      <c r="O47" s="37"/>
-      <c r="P47" s="37"/>
-      <c r="Q47" s="37"/>
-      <c r="R47" s="37"/>
-      <c r="S47" s="37"/>
-      <c r="T47" s="37"/>
-      <c r="U47" s="37"/>
-      <c r="V47" s="37"/>
-      <c r="W47" s="37"/>
-      <c r="X47" s="37"/>
-      <c r="Y47" s="37"/>
-      <c r="Z47" s="37"/>
-      <c r="AA47" s="37"/>
-      <c r="AB47" s="37"/>
-      <c r="AC47" s="37"/>
-      <c r="AD47" s="37"/>
-      <c r="AE47" s="37"/>
-      <c r="AF47" s="37"/>
-      <c r="AG47" s="37"/>
-      <c r="AH47" s="37"/>
-      <c r="AI47" s="37"/>
-      <c r="AJ47" s="37"/>
-      <c r="AK47" s="37"/>
-      <c r="AL47" s="37"/>
-      <c r="AM47" s="37"/>
-      <c r="AN47" s="37"/>
-      <c r="AO47" s="37"/>
-      <c r="AP47" s="37"/>
-      <c r="AQ47" s="37"/>
-      <c r="AR47" s="37"/>
-      <c r="AS47" s="37"/>
-      <c r="AT47" s="37"/>
-      <c r="AU47" s="37"/>
-      <c r="AV47" s="37"/>
-      <c r="AW47" s="37"/>
-      <c r="AX47" s="37"/>
-      <c r="AY47" s="37"/>
-      <c r="AZ47" s="37"/>
-      <c r="BA47" s="37"/>
-      <c r="BB47" s="37"/>
-      <c r="BC47" s="37"/>
-      <c r="BD47" s="37"/>
-      <c r="BE47" s="37"/>
-      <c r="BF47" s="37"/>
-      <c r="BG47" s="37"/>
-      <c r="BH47" s="37"/>
-      <c r="BI47" s="37"/>
-      <c r="BJ47" s="37"/>
-      <c r="BK47" s="38"/>
+      <c r="E47" s="13"/>
+      <c r="F47" s="13"/>
+      <c r="G47" s="75"/>
+      <c r="H47" s="54"/>
+      <c r="I47" s="54"/>
+      <c r="J47" s="54"/>
+      <c r="K47" s="54"/>
+      <c r="L47" s="54"/>
+      <c r="M47" s="54"/>
+      <c r="N47" s="54"/>
+      <c r="O47" s="54"/>
+      <c r="P47" s="54"/>
+      <c r="Q47" s="54"/>
+      <c r="R47" s="54"/>
+      <c r="S47" s="54"/>
+      <c r="T47" s="54"/>
+      <c r="U47" s="54"/>
+      <c r="V47" s="54"/>
+      <c r="W47" s="54"/>
+      <c r="X47" s="54"/>
+      <c r="Y47" s="54"/>
+      <c r="Z47" s="54"/>
+      <c r="AA47" s="54"/>
+      <c r="AB47" s="54"/>
+      <c r="AC47" s="54"/>
+      <c r="AD47" s="54"/>
+      <c r="AE47" s="54"/>
+      <c r="AF47" s="54"/>
+      <c r="AG47" s="54"/>
+      <c r="AH47" s="54"/>
+      <c r="AI47" s="54"/>
+      <c r="AJ47" s="54"/>
+      <c r="AK47" s="54"/>
+      <c r="AL47" s="54"/>
+      <c r="AM47" s="54"/>
+      <c r="AN47" s="54"/>
+      <c r="AO47" s="54"/>
+      <c r="AP47" s="54"/>
+      <c r="AQ47" s="54"/>
+      <c r="AR47" s="54"/>
+      <c r="AS47" s="54"/>
+      <c r="AT47" s="54"/>
+      <c r="AU47" s="54"/>
+      <c r="AV47" s="54"/>
+      <c r="AW47" s="54"/>
+      <c r="AX47" s="54"/>
+      <c r="AY47" s="54"/>
+      <c r="AZ47" s="54"/>
+      <c r="BA47" s="54"/>
+      <c r="BB47" s="54"/>
+      <c r="BC47" s="54"/>
+      <c r="BD47" s="54"/>
+      <c r="BE47" s="54"/>
+      <c r="BF47" s="54"/>
+      <c r="BG47" s="54"/>
+      <c r="BH47" s="54"/>
+      <c r="BI47" s="54"/>
+      <c r="BJ47" s="54"/>
+      <c r="BK47" s="54"/>
       <c r="BL47" s="24"/>
       <c r="BM47" s="24"/>
       <c r="BN47" s="24"/>
@@ -44526,7 +44289,7 @@
       <c r="CF47" s="16"/>
       <c r="CG47" s="16"/>
       <c r="CH47" s="16"/>
-      <c r="CI47" s="17"/>
+      <c r="CI47" s="16"/>
       <c r="CJ47" s="1"/>
       <c r="CK47" s="1"/>
       <c r="CL47" s="1"/>
@@ -45465,71 +45228,69 @@
       <c r="AMI47" s="1"/>
       <c r="AMJ47" s="1"/>
     </row>
-    <row r="48" spans="1:1025" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B48" s="12"/>
-      <c r="C48" s="15"/>
-      <c r="D48" s="15"/>
-      <c r="E48" s="15"/>
-      <c r="F48" s="15"/>
-      <c r="G48" s="69" t="s">
-        <v>66</v>
-      </c>
-      <c r="H48" s="70"/>
-      <c r="I48" s="70"/>
-      <c r="J48" s="70"/>
-      <c r="K48" s="70"/>
-      <c r="L48" s="70"/>
-      <c r="M48" s="70"/>
-      <c r="N48" s="70"/>
-      <c r="O48" s="70"/>
-      <c r="P48" s="70"/>
-      <c r="Q48" s="70"/>
-      <c r="R48" s="70"/>
-      <c r="S48" s="70"/>
-      <c r="T48" s="70"/>
-      <c r="U48" s="70"/>
-      <c r="V48" s="70"/>
-      <c r="W48" s="70"/>
-      <c r="X48" s="70"/>
-      <c r="Y48" s="70"/>
-      <c r="Z48" s="70"/>
-      <c r="AA48" s="70"/>
-      <c r="AB48" s="70"/>
-      <c r="AC48" s="70"/>
-      <c r="AD48" s="70"/>
-      <c r="AE48" s="70"/>
-      <c r="AF48" s="70"/>
-      <c r="AG48" s="70"/>
-      <c r="AH48" s="70"/>
-      <c r="AI48" s="70"/>
-      <c r="AJ48" s="70"/>
-      <c r="AK48" s="70"/>
-      <c r="AL48" s="70"/>
-      <c r="AM48" s="70"/>
-      <c r="AN48" s="70"/>
-      <c r="AO48" s="70"/>
-      <c r="AP48" s="70"/>
-      <c r="AQ48" s="70"/>
-      <c r="AR48" s="70"/>
-      <c r="AS48" s="70"/>
-      <c r="AT48" s="70"/>
-      <c r="AU48" s="70"/>
-      <c r="AV48" s="70"/>
-      <c r="AW48" s="70"/>
-      <c r="AX48" s="70"/>
-      <c r="AY48" s="70"/>
-      <c r="AZ48" s="70"/>
-      <c r="BA48" s="70"/>
-      <c r="BB48" s="70"/>
-      <c r="BC48" s="70"/>
-      <c r="BD48" s="70"/>
-      <c r="BE48" s="70"/>
-      <c r="BF48" s="70"/>
-      <c r="BG48" s="70"/>
-      <c r="BH48" s="70"/>
-      <c r="BI48" s="70"/>
-      <c r="BJ48" s="70"/>
-      <c r="BK48" s="71"/>
+    <row r="48" spans="1:1025" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B48" s="16"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="13"/>
+      <c r="E48" s="13"/>
+      <c r="F48" s="13"/>
+      <c r="G48" s="73"/>
+      <c r="H48" s="74"/>
+      <c r="I48" s="74"/>
+      <c r="J48" s="74"/>
+      <c r="K48" s="74"/>
+      <c r="L48" s="74"/>
+      <c r="M48" s="74"/>
+      <c r="N48" s="74"/>
+      <c r="O48" s="74"/>
+      <c r="P48" s="74"/>
+      <c r="Q48" s="74"/>
+      <c r="R48" s="74"/>
+      <c r="S48" s="74"/>
+      <c r="T48" s="74"/>
+      <c r="U48" s="74"/>
+      <c r="V48" s="74"/>
+      <c r="W48" s="74"/>
+      <c r="X48" s="74"/>
+      <c r="Y48" s="74"/>
+      <c r="Z48" s="74"/>
+      <c r="AA48" s="74"/>
+      <c r="AB48" s="74"/>
+      <c r="AC48" s="74"/>
+      <c r="AD48" s="74"/>
+      <c r="AE48" s="74"/>
+      <c r="AF48" s="74"/>
+      <c r="AG48" s="74"/>
+      <c r="AH48" s="74"/>
+      <c r="AI48" s="74"/>
+      <c r="AJ48" s="74"/>
+      <c r="AK48" s="74"/>
+      <c r="AL48" s="74"/>
+      <c r="AM48" s="74"/>
+      <c r="AN48" s="74"/>
+      <c r="AO48" s="74"/>
+      <c r="AP48" s="74"/>
+      <c r="AQ48" s="74"/>
+      <c r="AR48" s="74"/>
+      <c r="AS48" s="74"/>
+      <c r="AT48" s="74"/>
+      <c r="AU48" s="74"/>
+      <c r="AV48" s="74"/>
+      <c r="AW48" s="74"/>
+      <c r="AX48" s="74"/>
+      <c r="AY48" s="74"/>
+      <c r="AZ48" s="74"/>
+      <c r="BA48" s="74"/>
+      <c r="BB48" s="74"/>
+      <c r="BC48" s="74"/>
+      <c r="BD48" s="74"/>
+      <c r="BE48" s="74"/>
+      <c r="BF48" s="74"/>
+      <c r="BG48" s="74"/>
+      <c r="BH48" s="74"/>
+      <c r="BI48" s="74"/>
+      <c r="BJ48" s="74"/>
+      <c r="BK48" s="74"/>
       <c r="BL48" s="24"/>
       <c r="BM48" s="24"/>
       <c r="BN48" s="24"/>
@@ -45550,74 +45311,74 @@
       <c r="CC48" s="13"/>
       <c r="CD48" s="13"/>
       <c r="CE48" s="13"/>
-      <c r="CF48" s="30"/>
-      <c r="CG48" s="30"/>
-      <c r="CH48" s="30"/>
-      <c r="CI48" s="17"/>
-      <c r="AMK48" s="29"/>
+      <c r="CF48" s="16"/>
+      <c r="CG48" s="16"/>
+      <c r="CH48" s="16"/>
+      <c r="CI48" s="16"/>
+      <c r="AMK48" s="28"/>
     </row>
-    <row r="49" spans="1:1025" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B49" s="12"/>
-      <c r="C49" s="15"/>
-      <c r="D49" s="15"/>
-      <c r="E49" s="15"/>
-      <c r="F49" s="15"/>
-      <c r="G49" s="72"/>
-      <c r="H49" s="73"/>
-      <c r="I49" s="73"/>
-      <c r="J49" s="73"/>
-      <c r="K49" s="73"/>
-      <c r="L49" s="73"/>
-      <c r="M49" s="73"/>
-      <c r="N49" s="73"/>
-      <c r="O49" s="73"/>
-      <c r="P49" s="73"/>
-      <c r="Q49" s="73"/>
-      <c r="R49" s="73"/>
-      <c r="S49" s="73"/>
-      <c r="T49" s="73"/>
-      <c r="U49" s="73"/>
-      <c r="V49" s="73"/>
-      <c r="W49" s="73"/>
-      <c r="X49" s="73"/>
-      <c r="Y49" s="73"/>
-      <c r="Z49" s="73"/>
-      <c r="AA49" s="73"/>
-      <c r="AB49" s="73"/>
-      <c r="AC49" s="73"/>
-      <c r="AD49" s="73"/>
-      <c r="AE49" s="73"/>
-      <c r="AF49" s="73"/>
-      <c r="AG49" s="73"/>
-      <c r="AH49" s="73"/>
-      <c r="AI49" s="73"/>
-      <c r="AJ49" s="73"/>
-      <c r="AK49" s="73"/>
-      <c r="AL49" s="73"/>
-      <c r="AM49" s="73"/>
-      <c r="AN49" s="73"/>
-      <c r="AO49" s="73"/>
-      <c r="AP49" s="73"/>
-      <c r="AQ49" s="73"/>
-      <c r="AR49" s="73"/>
-      <c r="AS49" s="73"/>
-      <c r="AT49" s="73"/>
-      <c r="AU49" s="73"/>
-      <c r="AV49" s="73"/>
-      <c r="AW49" s="73"/>
-      <c r="AX49" s="73"/>
-      <c r="AY49" s="73"/>
-      <c r="AZ49" s="73"/>
-      <c r="BA49" s="73"/>
-      <c r="BB49" s="73"/>
-      <c r="BC49" s="73"/>
-      <c r="BD49" s="73"/>
-      <c r="BE49" s="73"/>
-      <c r="BF49" s="73"/>
-      <c r="BG49" s="73"/>
-      <c r="BH49" s="73"/>
-      <c r="BI49" s="73"/>
-      <c r="BJ49" s="73"/>
+    <row r="49" spans="1:1025" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B49" s="16"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="74"/>
+      <c r="H49" s="74"/>
+      <c r="I49" s="74"/>
+      <c r="J49" s="74"/>
+      <c r="K49" s="74"/>
+      <c r="L49" s="74"/>
+      <c r="M49" s="74"/>
+      <c r="N49" s="74"/>
+      <c r="O49" s="74"/>
+      <c r="P49" s="74"/>
+      <c r="Q49" s="74"/>
+      <c r="R49" s="74"/>
+      <c r="S49" s="74"/>
+      <c r="T49" s="74"/>
+      <c r="U49" s="74"/>
+      <c r="V49" s="74"/>
+      <c r="W49" s="74"/>
+      <c r="X49" s="74"/>
+      <c r="Y49" s="74"/>
+      <c r="Z49" s="74"/>
+      <c r="AA49" s="74"/>
+      <c r="AB49" s="74"/>
+      <c r="AC49" s="74"/>
+      <c r="AD49" s="74"/>
+      <c r="AE49" s="74"/>
+      <c r="AF49" s="74"/>
+      <c r="AG49" s="74"/>
+      <c r="AH49" s="74"/>
+      <c r="AI49" s="74"/>
+      <c r="AJ49" s="74"/>
+      <c r="AK49" s="74"/>
+      <c r="AL49" s="74"/>
+      <c r="AM49" s="74"/>
+      <c r="AN49" s="74"/>
+      <c r="AO49" s="74"/>
+      <c r="AP49" s="74"/>
+      <c r="AQ49" s="74"/>
+      <c r="AR49" s="74"/>
+      <c r="AS49" s="74"/>
+      <c r="AT49" s="74"/>
+      <c r="AU49" s="74"/>
+      <c r="AV49" s="74"/>
+      <c r="AW49" s="74"/>
+      <c r="AX49" s="74"/>
+      <c r="AY49" s="74"/>
+      <c r="AZ49" s="74"/>
+      <c r="BA49" s="74"/>
+      <c r="BB49" s="74"/>
+      <c r="BC49" s="74"/>
+      <c r="BD49" s="74"/>
+      <c r="BE49" s="74"/>
+      <c r="BF49" s="74"/>
+      <c r="BG49" s="74"/>
+      <c r="BH49" s="74"/>
+      <c r="BI49" s="74"/>
+      <c r="BJ49" s="74"/>
       <c r="BK49" s="74"/>
       <c r="BL49" s="24"/>
       <c r="BM49" s="24"/>
@@ -45639,75 +45400,75 @@
       <c r="CC49" s="13"/>
       <c r="CD49" s="13"/>
       <c r="CE49" s="13"/>
-      <c r="CF49" s="30"/>
-      <c r="CG49" s="30"/>
-      <c r="CH49" s="30"/>
-      <c r="CI49" s="17"/>
-      <c r="AMK49" s="29"/>
+      <c r="CF49" s="16"/>
+      <c r="CG49" s="16"/>
+      <c r="CH49" s="16"/>
+      <c r="CI49" s="16"/>
+      <c r="AMK49" s="28"/>
     </row>
-    <row r="50" spans="1:1025" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B50" s="12"/>
-      <c r="C50" s="15"/>
-      <c r="D50" s="15"/>
-      <c r="E50" s="15"/>
-      <c r="F50" s="15"/>
-      <c r="G50" s="75"/>
-      <c r="H50" s="76"/>
-      <c r="I50" s="76"/>
-      <c r="J50" s="76"/>
-      <c r="K50" s="76"/>
-      <c r="L50" s="76"/>
-      <c r="M50" s="76"/>
-      <c r="N50" s="76"/>
-      <c r="O50" s="76"/>
-      <c r="P50" s="76"/>
-      <c r="Q50" s="76"/>
-      <c r="R50" s="76"/>
-      <c r="S50" s="76"/>
-      <c r="T50" s="76"/>
-      <c r="U50" s="76"/>
-      <c r="V50" s="76"/>
-      <c r="W50" s="76"/>
-      <c r="X50" s="76"/>
-      <c r="Y50" s="76"/>
-      <c r="Z50" s="76"/>
-      <c r="AA50" s="76"/>
-      <c r="AB50" s="76"/>
-      <c r="AC50" s="76"/>
-      <c r="AD50" s="76"/>
-      <c r="AE50" s="76"/>
-      <c r="AF50" s="76"/>
-      <c r="AG50" s="76"/>
-      <c r="AH50" s="76"/>
-      <c r="AI50" s="76"/>
-      <c r="AJ50" s="76"/>
-      <c r="AK50" s="76"/>
-      <c r="AL50" s="76"/>
-      <c r="AM50" s="76"/>
-      <c r="AN50" s="76"/>
-      <c r="AO50" s="76"/>
-      <c r="AP50" s="76"/>
-      <c r="AQ50" s="76"/>
-      <c r="AR50" s="76"/>
-      <c r="AS50" s="76"/>
-      <c r="AT50" s="76"/>
-      <c r="AU50" s="76"/>
-      <c r="AV50" s="76"/>
-      <c r="AW50" s="76"/>
-      <c r="AX50" s="76"/>
-      <c r="AY50" s="76"/>
-      <c r="AZ50" s="76"/>
-      <c r="BA50" s="76"/>
-      <c r="BB50" s="76"/>
-      <c r="BC50" s="76"/>
-      <c r="BD50" s="76"/>
-      <c r="BE50" s="76"/>
-      <c r="BF50" s="76"/>
-      <c r="BG50" s="76"/>
-      <c r="BH50" s="76"/>
-      <c r="BI50" s="76"/>
-      <c r="BJ50" s="76"/>
-      <c r="BK50" s="77"/>
+    <row r="50" spans="1:1025" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B50" s="16"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="74"/>
+      <c r="H50" s="74"/>
+      <c r="I50" s="74"/>
+      <c r="J50" s="74"/>
+      <c r="K50" s="74"/>
+      <c r="L50" s="74"/>
+      <c r="M50" s="74"/>
+      <c r="N50" s="74"/>
+      <c r="O50" s="74"/>
+      <c r="P50" s="74"/>
+      <c r="Q50" s="74"/>
+      <c r="R50" s="74"/>
+      <c r="S50" s="74"/>
+      <c r="T50" s="74"/>
+      <c r="U50" s="74"/>
+      <c r="V50" s="74"/>
+      <c r="W50" s="74"/>
+      <c r="X50" s="74"/>
+      <c r="Y50" s="74"/>
+      <c r="Z50" s="74"/>
+      <c r="AA50" s="74"/>
+      <c r="AB50" s="74"/>
+      <c r="AC50" s="74"/>
+      <c r="AD50" s="74"/>
+      <c r="AE50" s="74"/>
+      <c r="AF50" s="74"/>
+      <c r="AG50" s="74"/>
+      <c r="AH50" s="74"/>
+      <c r="AI50" s="74"/>
+      <c r="AJ50" s="74"/>
+      <c r="AK50" s="74"/>
+      <c r="AL50" s="74"/>
+      <c r="AM50" s="74"/>
+      <c r="AN50" s="74"/>
+      <c r="AO50" s="74"/>
+      <c r="AP50" s="74"/>
+      <c r="AQ50" s="74"/>
+      <c r="AR50" s="74"/>
+      <c r="AS50" s="74"/>
+      <c r="AT50" s="74"/>
+      <c r="AU50" s="74"/>
+      <c r="AV50" s="74"/>
+      <c r="AW50" s="74"/>
+      <c r="AX50" s="74"/>
+      <c r="AY50" s="74"/>
+      <c r="AZ50" s="74"/>
+      <c r="BA50" s="74"/>
+      <c r="BB50" s="74"/>
+      <c r="BC50" s="74"/>
+      <c r="BD50" s="74"/>
+      <c r="BE50" s="74"/>
+      <c r="BF50" s="74"/>
+      <c r="BG50" s="74"/>
+      <c r="BH50" s="74"/>
+      <c r="BI50" s="74"/>
+      <c r="BJ50" s="74"/>
+      <c r="BK50" s="74"/>
       <c r="BL50" s="24"/>
       <c r="BM50" s="24"/>
       <c r="BN50" s="24"/>
@@ -45728,58 +45489,58 @@
       <c r="CC50" s="13"/>
       <c r="CD50" s="13"/>
       <c r="CE50" s="13"/>
-      <c r="CF50" s="30"/>
-      <c r="CG50" s="30"/>
-      <c r="CH50" s="30"/>
-      <c r="CI50" s="17"/>
-      <c r="AMK50" s="29"/>
+      <c r="CF50" s="16"/>
+      <c r="CG50" s="16"/>
+      <c r="CH50" s="16"/>
+      <c r="CI50" s="16"/>
+      <c r="AMK50" s="28"/>
     </row>
-    <row r="51" spans="1:1025" s="29" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:1025" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51"/>
-      <c r="B51" s="12"/>
+      <c r="B51" s="16"/>
       <c r="C51" s="13"/>
       <c r="D51" s="13"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="15"/>
-      <c r="G51" s="15"/>
-      <c r="H51" s="15"/>
-      <c r="I51" s="15"/>
-      <c r="J51" s="15"/>
-      <c r="K51" s="15"/>
-      <c r="L51" s="15"/>
-      <c r="M51" s="15"/>
-      <c r="N51" s="15"/>
-      <c r="O51" s="15"/>
-      <c r="P51" s="15"/>
-      <c r="Q51" s="15"/>
-      <c r="R51" s="15"/>
-      <c r="S51" s="15"/>
-      <c r="T51" s="15"/>
-      <c r="U51" s="15"/>
-      <c r="V51" s="15"/>
-      <c r="W51" s="15"/>
-      <c r="X51" s="15"/>
-      <c r="Y51" s="15"/>
-      <c r="Z51" s="15"/>
-      <c r="AA51" s="15"/>
-      <c r="AB51" s="15"/>
-      <c r="AC51" s="15"/>
-      <c r="AD51" s="15"/>
-      <c r="AE51" s="15"/>
-      <c r="AF51" s="15"/>
-      <c r="AG51" s="15"/>
-      <c r="AH51" s="15"/>
-      <c r="AI51" s="15"/>
-      <c r="AJ51" s="15"/>
-      <c r="AK51" s="15"/>
-      <c r="AL51" s="15"/>
-      <c r="AM51" s="15"/>
-      <c r="AN51" s="15"/>
-      <c r="AO51" s="15"/>
-      <c r="AP51" s="15"/>
-      <c r="AQ51" s="15"/>
-      <c r="AR51" s="15"/>
-      <c r="AS51" s="15"/>
+      <c r="E51" s="33"/>
+      <c r="F51" s="13"/>
+      <c r="G51" s="13"/>
+      <c r="H51" s="13"/>
+      <c r="I51" s="13"/>
+      <c r="J51" s="13"/>
+      <c r="K51" s="13"/>
+      <c r="L51" s="13"/>
+      <c r="M51" s="13"/>
+      <c r="N51" s="13"/>
+      <c r="O51" s="13"/>
+      <c r="P51" s="13"/>
+      <c r="Q51" s="13"/>
+      <c r="R51" s="13"/>
+      <c r="S51" s="13"/>
+      <c r="T51" s="13"/>
+      <c r="U51" s="13"/>
+      <c r="V51" s="13"/>
+      <c r="W51" s="13"/>
+      <c r="X51" s="13"/>
+      <c r="Y51" s="13"/>
+      <c r="Z51" s="13"/>
+      <c r="AA51" s="13"/>
+      <c r="AB51" s="13"/>
+      <c r="AC51" s="13"/>
+      <c r="AD51" s="13"/>
+      <c r="AE51" s="13"/>
+      <c r="AF51" s="13"/>
+      <c r="AG51" s="13"/>
+      <c r="AH51" s="13"/>
+      <c r="AI51" s="13"/>
+      <c r="AJ51" s="13"/>
+      <c r="AK51" s="13"/>
+      <c r="AL51" s="13"/>
+      <c r="AM51" s="13"/>
+      <c r="AN51" s="13"/>
+      <c r="AO51" s="13"/>
+      <c r="AP51" s="13"/>
+      <c r="AQ51" s="13"/>
+      <c r="AR51" s="13"/>
+      <c r="AS51" s="13"/>
       <c r="AT51" s="13"/>
       <c r="AU51" s="13"/>
       <c r="AV51" s="13"/>
@@ -45821,7 +45582,7 @@
       <c r="CF51" s="16"/>
       <c r="CG51" s="16"/>
       <c r="CH51" s="16"/>
-      <c r="CI51" s="17"/>
+      <c r="CI51" s="16"/>
       <c r="CJ51"/>
       <c r="CK51"/>
       <c r="CL51"/>
@@ -46760,72 +46521,68 @@
       <c r="AMI51"/>
       <c r="AMJ51"/>
     </row>
-    <row r="52" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A52" s="1"/>
-      <c r="B52" s="12"/>
+      <c r="B52" s="16"/>
       <c r="C52" s="13"/>
       <c r="D52" s="24"/>
-      <c r="E52" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="F52" s="15"/>
-      <c r="G52" s="15"/>
-      <c r="H52" s="1"/>
-      <c r="I52" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="J52" s="15"/>
-      <c r="K52" s="15"/>
-      <c r="L52" s="15"/>
-      <c r="M52" s="15"/>
-      <c r="N52" s="15"/>
-      <c r="O52" s="15"/>
-      <c r="P52" s="15"/>
-      <c r="Q52" s="15"/>
-      <c r="R52" s="15"/>
-      <c r="S52" s="15"/>
-      <c r="T52" s="15"/>
-      <c r="U52" s="15"/>
-      <c r="V52" s="15"/>
-      <c r="W52" s="15"/>
-      <c r="X52" s="15"/>
-      <c r="Y52" s="15"/>
-      <c r="Z52" s="15"/>
-      <c r="AA52" s="15"/>
-      <c r="AB52" s="15"/>
-      <c r="AC52" s="15"/>
-      <c r="AD52" s="15"/>
-      <c r="AE52" s="15"/>
-      <c r="AF52" s="15"/>
-      <c r="AG52" s="15"/>
-      <c r="AH52" s="15"/>
-      <c r="AI52" s="15"/>
-      <c r="AJ52" s="15"/>
-      <c r="AK52" s="15"/>
-      <c r="AL52" s="15"/>
-      <c r="AM52" s="15"/>
-      <c r="AN52" s="15"/>
-      <c r="AO52" s="15"/>
-      <c r="AP52" s="15"/>
-      <c r="AQ52" s="15"/>
-      <c r="AR52" s="15"/>
-      <c r="AS52" s="15"/>
-      <c r="AT52" s="15"/>
-      <c r="AU52" s="15"/>
-      <c r="AV52" s="15"/>
-      <c r="AW52" s="15"/>
-      <c r="AX52" s="15"/>
-      <c r="AY52" s="15"/>
-      <c r="AZ52" s="15"/>
-      <c r="BA52" s="15"/>
-      <c r="BB52" s="15"/>
-      <c r="BC52" s="15"/>
-      <c r="BD52" s="15"/>
-      <c r="BE52" s="15"/>
-      <c r="BF52" s="15"/>
-      <c r="BG52" s="15"/>
-      <c r="BH52" s="15"/>
-      <c r="BI52" s="15"/>
+      <c r="E52" s="33"/>
+      <c r="F52" s="13"/>
+      <c r="G52" s="13"/>
+      <c r="H52" s="34"/>
+      <c r="I52" s="13"/>
+      <c r="J52" s="13"/>
+      <c r="K52" s="13"/>
+      <c r="L52" s="13"/>
+      <c r="M52" s="13"/>
+      <c r="N52" s="13"/>
+      <c r="O52" s="13"/>
+      <c r="P52" s="13"/>
+      <c r="Q52" s="13"/>
+      <c r="R52" s="13"/>
+      <c r="S52" s="13"/>
+      <c r="T52" s="13"/>
+      <c r="U52" s="13"/>
+      <c r="V52" s="13"/>
+      <c r="W52" s="13"/>
+      <c r="X52" s="13"/>
+      <c r="Y52" s="13"/>
+      <c r="Z52" s="13"/>
+      <c r="AA52" s="13"/>
+      <c r="AB52" s="13"/>
+      <c r="AC52" s="13"/>
+      <c r="AD52" s="13"/>
+      <c r="AE52" s="13"/>
+      <c r="AF52" s="13"/>
+      <c r="AG52" s="13"/>
+      <c r="AH52" s="13"/>
+      <c r="AI52" s="13"/>
+      <c r="AJ52" s="13"/>
+      <c r="AK52" s="13"/>
+      <c r="AL52" s="13"/>
+      <c r="AM52" s="13"/>
+      <c r="AN52" s="13"/>
+      <c r="AO52" s="13"/>
+      <c r="AP52" s="13"/>
+      <c r="AQ52" s="13"/>
+      <c r="AR52" s="13"/>
+      <c r="AS52" s="13"/>
+      <c r="AT52" s="13"/>
+      <c r="AU52" s="13"/>
+      <c r="AV52" s="13"/>
+      <c r="AW52" s="13"/>
+      <c r="AX52" s="13"/>
+      <c r="AY52" s="13"/>
+      <c r="AZ52" s="13"/>
+      <c r="BA52" s="13"/>
+      <c r="BB52" s="13"/>
+      <c r="BC52" s="13"/>
+      <c r="BD52" s="13"/>
+      <c r="BE52" s="13"/>
+      <c r="BF52" s="13"/>
+      <c r="BG52" s="13"/>
+      <c r="BH52" s="13"/>
+      <c r="BI52" s="13"/>
       <c r="BJ52" s="25"/>
       <c r="BK52" s="25"/>
       <c r="BL52" s="24"/>
@@ -46851,7 +46608,7 @@
       <c r="CF52" s="16"/>
       <c r="CG52" s="16"/>
       <c r="CH52" s="16"/>
-      <c r="CI52" s="17"/>
+      <c r="CI52" s="16"/>
       <c r="CJ52" s="1"/>
       <c r="CK52" s="1"/>
       <c r="CL52" s="1"/>
@@ -47790,38 +47547,38 @@
       <c r="AMI52" s="1"/>
       <c r="AMJ52" s="1"/>
     </row>
-    <row r="53" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A53" s="1"/>
-      <c r="B53" s="12"/>
+      <c r="B53" s="16"/>
       <c r="C53" s="13"/>
       <c r="D53" s="24"/>
-      <c r="E53" s="15"/>
-      <c r="F53" s="15"/>
-      <c r="G53" s="15"/>
-      <c r="H53" s="15"/>
-      <c r="I53" s="15"/>
-      <c r="J53" s="15"/>
-      <c r="K53" s="15"/>
-      <c r="L53" s="15"/>
-      <c r="M53" s="15"/>
-      <c r="N53" s="15"/>
-      <c r="O53" s="15"/>
-      <c r="P53" s="15"/>
-      <c r="Q53" s="15"/>
-      <c r="R53" s="15"/>
-      <c r="S53" s="15"/>
-      <c r="T53" s="15"/>
-      <c r="U53" s="15"/>
-      <c r="V53" s="15"/>
-      <c r="W53" s="15"/>
-      <c r="X53" s="15"/>
-      <c r="Y53" s="15"/>
-      <c r="Z53" s="15"/>
-      <c r="AA53" s="15"/>
-      <c r="AB53" s="15"/>
-      <c r="AC53" s="15"/>
-      <c r="AD53" s="15"/>
-      <c r="AE53" s="15"/>
+      <c r="E53" s="13"/>
+      <c r="F53" s="13"/>
+      <c r="G53" s="13"/>
+      <c r="H53" s="13"/>
+      <c r="I53" s="13"/>
+      <c r="J53" s="13"/>
+      <c r="K53" s="13"/>
+      <c r="L53" s="13"/>
+      <c r="M53" s="13"/>
+      <c r="N53" s="13"/>
+      <c r="O53" s="13"/>
+      <c r="P53" s="13"/>
+      <c r="Q53" s="13"/>
+      <c r="R53" s="13"/>
+      <c r="S53" s="13"/>
+      <c r="T53" s="13"/>
+      <c r="U53" s="13"/>
+      <c r="V53" s="13"/>
+      <c r="W53" s="13"/>
+      <c r="X53" s="13"/>
+      <c r="Y53" s="13"/>
+      <c r="Z53" s="13"/>
+      <c r="AA53" s="13"/>
+      <c r="AB53" s="13"/>
+      <c r="AC53" s="13"/>
+      <c r="AD53" s="13"/>
+      <c r="AE53" s="13"/>
       <c r="AF53" s="7"/>
       <c r="AG53" s="7"/>
       <c r="AH53" s="7"/>
@@ -47877,7 +47634,7 @@
       <c r="CF53" s="16"/>
       <c r="CG53" s="16"/>
       <c r="CH53" s="16"/>
-      <c r="CI53" s="17"/>
+      <c r="CI53" s="16"/>
       <c r="CJ53" s="1"/>
       <c r="CK53" s="1"/>
       <c r="CL53" s="1"/>
@@ -48816,56 +48573,52 @@
       <c r="AMI53" s="1"/>
       <c r="AMJ53" s="1"/>
     </row>
-    <row r="54" spans="1:1025" s="29" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:1025" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A54"/>
-      <c r="B54" s="12"/>
+      <c r="B54" s="16"/>
       <c r="C54" s="13"/>
       <c r="D54" s="13"/>
-      <c r="E54" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="F54" s="15"/>
-      <c r="G54" s="15"/>
-      <c r="H54" s="1"/>
-      <c r="I54" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="J54" s="15"/>
-      <c r="K54" s="15"/>
-      <c r="L54" s="15"/>
-      <c r="M54" s="15"/>
-      <c r="N54" s="15"/>
-      <c r="O54" s="15"/>
-      <c r="P54" s="15"/>
-      <c r="Q54" s="15"/>
-      <c r="R54" s="15"/>
-      <c r="S54" s="15"/>
-      <c r="T54" s="15"/>
-      <c r="U54" s="15"/>
-      <c r="V54" s="15"/>
-      <c r="W54" s="15"/>
-      <c r="X54" s="15"/>
-      <c r="Y54" s="15"/>
-      <c r="Z54" s="15"/>
-      <c r="AA54" s="15"/>
-      <c r="AB54" s="15"/>
-      <c r="AC54" s="15"/>
-      <c r="AD54" s="15"/>
-      <c r="AE54" s="15"/>
-      <c r="AF54" s="15"/>
-      <c r="AG54" s="15"/>
-      <c r="AH54" s="15"/>
-      <c r="AI54" s="15"/>
-      <c r="AJ54" s="15"/>
-      <c r="AK54" s="15"/>
-      <c r="AL54" s="15"/>
-      <c r="AM54" s="15"/>
-      <c r="AN54" s="15"/>
-      <c r="AO54" s="15"/>
-      <c r="AP54" s="15"/>
-      <c r="AQ54" s="15"/>
-      <c r="AR54" s="15"/>
-      <c r="AS54" s="15"/>
+      <c r="E54" s="33"/>
+      <c r="F54" s="13"/>
+      <c r="G54" s="13"/>
+      <c r="H54" s="34"/>
+      <c r="I54" s="13"/>
+      <c r="J54" s="13"/>
+      <c r="K54" s="13"/>
+      <c r="L54" s="13"/>
+      <c r="M54" s="13"/>
+      <c r="N54" s="13"/>
+      <c r="O54" s="13"/>
+      <c r="P54" s="13"/>
+      <c r="Q54" s="13"/>
+      <c r="R54" s="13"/>
+      <c r="S54" s="13"/>
+      <c r="T54" s="13"/>
+      <c r="U54" s="13"/>
+      <c r="V54" s="13"/>
+      <c r="W54" s="13"/>
+      <c r="X54" s="13"/>
+      <c r="Y54" s="13"/>
+      <c r="Z54" s="13"/>
+      <c r="AA54" s="13"/>
+      <c r="AB54" s="13"/>
+      <c r="AC54" s="13"/>
+      <c r="AD54" s="13"/>
+      <c r="AE54" s="13"/>
+      <c r="AF54" s="13"/>
+      <c r="AG54" s="13"/>
+      <c r="AH54" s="13"/>
+      <c r="AI54" s="13"/>
+      <c r="AJ54" s="13"/>
+      <c r="AK54" s="13"/>
+      <c r="AL54" s="13"/>
+      <c r="AM54" s="13"/>
+      <c r="AN54" s="13"/>
+      <c r="AO54" s="13"/>
+      <c r="AP54" s="13"/>
+      <c r="AQ54" s="13"/>
+      <c r="AR54" s="13"/>
+      <c r="AS54" s="13"/>
       <c r="AT54" s="13"/>
       <c r="AU54" s="13"/>
       <c r="AV54" s="13"/>
@@ -48907,7 +48660,7 @@
       <c r="CF54" s="16"/>
       <c r="CG54" s="16"/>
       <c r="CH54" s="16"/>
-      <c r="CI54" s="17"/>
+      <c r="CI54" s="16"/>
       <c r="CJ54"/>
       <c r="CK54"/>
       <c r="CL54"/>
@@ -49846,70 +49599,68 @@
       <c r="AMI54"/>
       <c r="AMJ54"/>
     </row>
-    <row r="55" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A55" s="1"/>
-      <c r="B55" s="12"/>
+      <c r="B55" s="16"/>
       <c r="C55" s="13"/>
       <c r="D55" s="24"/>
-      <c r="E55" s="14"/>
-      <c r="F55" s="15"/>
-      <c r="G55" s="15"/>
-      <c r="H55" s="15"/>
-      <c r="I55" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="J55" s="15"/>
-      <c r="K55" s="15"/>
-      <c r="L55" s="15"/>
-      <c r="M55" s="15"/>
-      <c r="N55" s="15"/>
-      <c r="O55" s="15"/>
-      <c r="P55" s="15"/>
-      <c r="Q55" s="15"/>
-      <c r="R55" s="15"/>
-      <c r="S55" s="15"/>
-      <c r="T55" s="15"/>
-      <c r="U55" s="15"/>
-      <c r="V55" s="15"/>
-      <c r="W55" s="15"/>
-      <c r="X55" s="15"/>
-      <c r="Y55" s="15"/>
-      <c r="Z55" s="15"/>
-      <c r="AA55" s="15"/>
-      <c r="AB55" s="15"/>
-      <c r="AC55" s="15"/>
-      <c r="AD55" s="15"/>
-      <c r="AE55" s="15"/>
-      <c r="AF55" s="15"/>
-      <c r="AG55" s="15"/>
-      <c r="AH55" s="15"/>
-      <c r="AI55" s="15"/>
-      <c r="AJ55" s="15"/>
-      <c r="AK55" s="15"/>
-      <c r="AL55" s="15"/>
-      <c r="AM55" s="15"/>
-      <c r="AN55" s="15"/>
-      <c r="AO55" s="15"/>
-      <c r="AP55" s="15"/>
-      <c r="AQ55" s="15"/>
-      <c r="AR55" s="15"/>
-      <c r="AS55" s="15"/>
-      <c r="AT55" s="15"/>
-      <c r="AU55" s="15"/>
-      <c r="AV55" s="15"/>
-      <c r="AW55" s="15"/>
-      <c r="AX55" s="15"/>
-      <c r="AY55" s="15"/>
-      <c r="AZ55" s="15"/>
-      <c r="BA55" s="15"/>
-      <c r="BB55" s="15"/>
-      <c r="BC55" s="15"/>
-      <c r="BD55" s="15"/>
-      <c r="BE55" s="15"/>
-      <c r="BF55" s="15"/>
-      <c r="BG55" s="15"/>
-      <c r="BH55" s="15"/>
-      <c r="BI55" s="15"/>
+      <c r="E55" s="33"/>
+      <c r="F55" s="13"/>
+      <c r="G55" s="13"/>
+      <c r="H55" s="13"/>
+      <c r="I55" s="13"/>
+      <c r="J55" s="13"/>
+      <c r="K55" s="13"/>
+      <c r="L55" s="13"/>
+      <c r="M55" s="13"/>
+      <c r="N55" s="13"/>
+      <c r="O55" s="13"/>
+      <c r="P55" s="13"/>
+      <c r="Q55" s="13"/>
+      <c r="R55" s="13"/>
+      <c r="S55" s="13"/>
+      <c r="T55" s="13"/>
+      <c r="U55" s="13"/>
+      <c r="V55" s="13"/>
+      <c r="W55" s="13"/>
+      <c r="X55" s="13"/>
+      <c r="Y55" s="13"/>
+      <c r="Z55" s="13"/>
+      <c r="AA55" s="13"/>
+      <c r="AB55" s="13"/>
+      <c r="AC55" s="13"/>
+      <c r="AD55" s="13"/>
+      <c r="AE55" s="13"/>
+      <c r="AF55" s="13"/>
+      <c r="AG55" s="13"/>
+      <c r="AH55" s="13"/>
+      <c r="AI55" s="13"/>
+      <c r="AJ55" s="13"/>
+      <c r="AK55" s="13"/>
+      <c r="AL55" s="13"/>
+      <c r="AM55" s="13"/>
+      <c r="AN55" s="13"/>
+      <c r="AO55" s="13"/>
+      <c r="AP55" s="13"/>
+      <c r="AQ55" s="13"/>
+      <c r="AR55" s="13"/>
+      <c r="AS55" s="13"/>
+      <c r="AT55" s="13"/>
+      <c r="AU55" s="13"/>
+      <c r="AV55" s="13"/>
+      <c r="AW55" s="13"/>
+      <c r="AX55" s="13"/>
+      <c r="AY55" s="13"/>
+      <c r="AZ55" s="13"/>
+      <c r="BA55" s="13"/>
+      <c r="BB55" s="13"/>
+      <c r="BC55" s="13"/>
+      <c r="BD55" s="13"/>
+      <c r="BE55" s="13"/>
+      <c r="BF55" s="13"/>
+      <c r="BG55" s="13"/>
+      <c r="BH55" s="13"/>
+      <c r="BI55" s="13"/>
       <c r="BJ55" s="25"/>
       <c r="BK55" s="25"/>
       <c r="BL55" s="24"/>
@@ -49935,7 +49686,7 @@
       <c r="CF55" s="16"/>
       <c r="CG55" s="16"/>
       <c r="CH55" s="16"/>
-      <c r="CI55" s="17"/>
+      <c r="CI55" s="16"/>
       <c r="CJ55" s="1"/>
       <c r="CK55" s="1"/>
       <c r="CL55" s="1"/>
@@ -50874,38 +50625,38 @@
       <c r="AMI55" s="1"/>
       <c r="AMJ55" s="1"/>
     </row>
-    <row r="56" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A56" s="1"/>
-      <c r="B56" s="12"/>
+      <c r="B56" s="16"/>
       <c r="C56" s="13"/>
       <c r="D56" s="24"/>
-      <c r="E56" s="15"/>
-      <c r="F56" s="15"/>
-      <c r="G56" s="15"/>
-      <c r="H56" s="15"/>
-      <c r="I56" s="15"/>
-      <c r="J56" s="15"/>
-      <c r="K56" s="15"/>
-      <c r="L56" s="15"/>
-      <c r="M56" s="15"/>
-      <c r="N56" s="15"/>
-      <c r="O56" s="15"/>
-      <c r="P56" s="15"/>
-      <c r="Q56" s="15"/>
-      <c r="R56" s="15"/>
-      <c r="S56" s="15"/>
-      <c r="T56" s="15"/>
-      <c r="U56" s="15"/>
-      <c r="V56" s="15"/>
-      <c r="W56" s="15"/>
-      <c r="X56" s="15"/>
-      <c r="Y56" s="15"/>
-      <c r="Z56" s="15"/>
-      <c r="AA56" s="15"/>
-      <c r="AB56" s="15"/>
-      <c r="AC56" s="15"/>
-      <c r="AD56" s="15"/>
-      <c r="AE56" s="15"/>
+      <c r="E56" s="13"/>
+      <c r="F56" s="13"/>
+      <c r="G56" s="13"/>
+      <c r="H56" s="13"/>
+      <c r="I56" s="13"/>
+      <c r="J56" s="13"/>
+      <c r="K56" s="13"/>
+      <c r="L56" s="13"/>
+      <c r="M56" s="13"/>
+      <c r="N56" s="13"/>
+      <c r="O56" s="13"/>
+      <c r="P56" s="13"/>
+      <c r="Q56" s="13"/>
+      <c r="R56" s="13"/>
+      <c r="S56" s="13"/>
+      <c r="T56" s="13"/>
+      <c r="U56" s="13"/>
+      <c r="V56" s="13"/>
+      <c r="W56" s="13"/>
+      <c r="X56" s="13"/>
+      <c r="Y56" s="13"/>
+      <c r="Z56" s="13"/>
+      <c r="AA56" s="13"/>
+      <c r="AB56" s="13"/>
+      <c r="AC56" s="13"/>
+      <c r="AD56" s="13"/>
+      <c r="AE56" s="13"/>
       <c r="AF56" s="24"/>
       <c r="AG56" s="24"/>
       <c r="AH56" s="24"/>
@@ -50961,7 +50712,7 @@
       <c r="CF56" s="16"/>
       <c r="CG56" s="16"/>
       <c r="CH56" s="16"/>
-      <c r="CI56" s="17"/>
+      <c r="CI56" s="16"/>
       <c r="CJ56" s="1"/>
       <c r="CK56" s="1"/>
       <c r="CL56" s="1"/>
@@ -51900,71 +51651,69 @@
       <c r="AMI56" s="1"/>
       <c r="AMJ56" s="1"/>
     </row>
-    <row r="57" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A57" s="1"/>
-      <c r="B57" s="12"/>
+      <c r="B57" s="16"/>
       <c r="C57" s="13"/>
       <c r="D57" s="24"/>
-      <c r="E57" s="15"/>
-      <c r="F57" s="15"/>
-      <c r="G57" s="31" t="s">
-        <v>77</v>
-      </c>
-      <c r="H57" s="37"/>
-      <c r="I57" s="37"/>
-      <c r="J57" s="37"/>
-      <c r="K57" s="37"/>
-      <c r="L57" s="37"/>
-      <c r="M57" s="37"/>
-      <c r="N57" s="37"/>
-      <c r="O57" s="37"/>
-      <c r="P57" s="37"/>
-      <c r="Q57" s="37"/>
-      <c r="R57" s="37"/>
-      <c r="S57" s="37"/>
-      <c r="T57" s="37"/>
-      <c r="U57" s="37"/>
-      <c r="V57" s="37"/>
-      <c r="W57" s="37"/>
-      <c r="X57" s="37"/>
-      <c r="Y57" s="37"/>
-      <c r="Z57" s="37"/>
-      <c r="AA57" s="37"/>
-      <c r="AB57" s="37"/>
-      <c r="AC57" s="37"/>
-      <c r="AD57" s="37"/>
-      <c r="AE57" s="37"/>
-      <c r="AF57" s="37"/>
-      <c r="AG57" s="37"/>
-      <c r="AH57" s="37"/>
-      <c r="AI57" s="37"/>
-      <c r="AJ57" s="37"/>
-      <c r="AK57" s="37"/>
-      <c r="AL57" s="37"/>
-      <c r="AM57" s="37"/>
-      <c r="AN57" s="37"/>
-      <c r="AO57" s="37"/>
-      <c r="AP57" s="37"/>
-      <c r="AQ57" s="37"/>
-      <c r="AR57" s="37"/>
-      <c r="AS57" s="37"/>
-      <c r="AT57" s="37"/>
-      <c r="AU57" s="37"/>
-      <c r="AV57" s="37"/>
-      <c r="AW57" s="37"/>
-      <c r="AX57" s="37"/>
-      <c r="AY57" s="37"/>
-      <c r="AZ57" s="37"/>
-      <c r="BA57" s="37"/>
-      <c r="BB57" s="37"/>
-      <c r="BC57" s="37"/>
-      <c r="BD57" s="37"/>
-      <c r="BE57" s="37"/>
-      <c r="BF57" s="37"/>
-      <c r="BG57" s="37"/>
-      <c r="BH57" s="37"/>
-      <c r="BI57" s="37"/>
-      <c r="BJ57" s="37"/>
+      <c r="E57" s="13"/>
+      <c r="F57" s="13"/>
+      <c r="G57" s="72"/>
+      <c r="H57" s="38"/>
+      <c r="I57" s="38"/>
+      <c r="J57" s="38"/>
+      <c r="K57" s="38"/>
+      <c r="L57" s="38"/>
+      <c r="M57" s="38"/>
+      <c r="N57" s="38"/>
+      <c r="O57" s="38"/>
+      <c r="P57" s="38"/>
+      <c r="Q57" s="38"/>
+      <c r="R57" s="38"/>
+      <c r="S57" s="38"/>
+      <c r="T57" s="38"/>
+      <c r="U57" s="38"/>
+      <c r="V57" s="38"/>
+      <c r="W57" s="38"/>
+      <c r="X57" s="38"/>
+      <c r="Y57" s="38"/>
+      <c r="Z57" s="38"/>
+      <c r="AA57" s="38"/>
+      <c r="AB57" s="38"/>
+      <c r="AC57" s="38"/>
+      <c r="AD57" s="38"/>
+      <c r="AE57" s="38"/>
+      <c r="AF57" s="38"/>
+      <c r="AG57" s="38"/>
+      <c r="AH57" s="38"/>
+      <c r="AI57" s="38"/>
+      <c r="AJ57" s="38"/>
+      <c r="AK57" s="38"/>
+      <c r="AL57" s="38"/>
+      <c r="AM57" s="38"/>
+      <c r="AN57" s="38"/>
+      <c r="AO57" s="38"/>
+      <c r="AP57" s="38"/>
+      <c r="AQ57" s="38"/>
+      <c r="AR57" s="38"/>
+      <c r="AS57" s="38"/>
+      <c r="AT57" s="38"/>
+      <c r="AU57" s="38"/>
+      <c r="AV57" s="38"/>
+      <c r="AW57" s="38"/>
+      <c r="AX57" s="38"/>
+      <c r="AY57" s="38"/>
+      <c r="AZ57" s="38"/>
+      <c r="BA57" s="38"/>
+      <c r="BB57" s="38"/>
+      <c r="BC57" s="38"/>
+      <c r="BD57" s="38"/>
+      <c r="BE57" s="38"/>
+      <c r="BF57" s="38"/>
+      <c r="BG57" s="38"/>
+      <c r="BH57" s="38"/>
+      <c r="BI57" s="38"/>
+      <c r="BJ57" s="38"/>
       <c r="BK57" s="38"/>
       <c r="BL57" s="24"/>
       <c r="BM57" s="24"/>
@@ -51989,7 +51738,7 @@
       <c r="CF57" s="16"/>
       <c r="CG57" s="16"/>
       <c r="CH57" s="16"/>
-      <c r="CI57" s="17"/>
+      <c r="CI57" s="16"/>
       <c r="CJ57" s="1"/>
       <c r="CK57" s="1"/>
       <c r="CL57" s="1"/>
@@ -52928,71 +52677,69 @@
       <c r="AMI57" s="1"/>
       <c r="AMJ57" s="1"/>
     </row>
-    <row r="58" spans="1:1025" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B58" s="12"/>
-      <c r="C58" s="15"/>
-      <c r="D58" s="15"/>
-      <c r="E58" s="15"/>
-      <c r="F58" s="15"/>
-      <c r="G58" s="69" t="s">
-        <v>76</v>
-      </c>
-      <c r="H58" s="70"/>
-      <c r="I58" s="70"/>
-      <c r="J58" s="70"/>
-      <c r="K58" s="70"/>
-      <c r="L58" s="70"/>
-      <c r="M58" s="70"/>
-      <c r="N58" s="70"/>
-      <c r="O58" s="70"/>
-      <c r="P58" s="70"/>
-      <c r="Q58" s="70"/>
-      <c r="R58" s="70"/>
-      <c r="S58" s="70"/>
-      <c r="T58" s="70"/>
-      <c r="U58" s="70"/>
-      <c r="V58" s="70"/>
-      <c r="W58" s="70"/>
-      <c r="X58" s="70"/>
-      <c r="Y58" s="70"/>
-      <c r="Z58" s="70"/>
-      <c r="AA58" s="70"/>
-      <c r="AB58" s="70"/>
-      <c r="AC58" s="70"/>
-      <c r="AD58" s="70"/>
-      <c r="AE58" s="70"/>
-      <c r="AF58" s="70"/>
-      <c r="AG58" s="70"/>
-      <c r="AH58" s="70"/>
-      <c r="AI58" s="70"/>
-      <c r="AJ58" s="70"/>
-      <c r="AK58" s="70"/>
-      <c r="AL58" s="70"/>
-      <c r="AM58" s="70"/>
-      <c r="AN58" s="70"/>
-      <c r="AO58" s="70"/>
-      <c r="AP58" s="70"/>
-      <c r="AQ58" s="70"/>
-      <c r="AR58" s="70"/>
-      <c r="AS58" s="70"/>
-      <c r="AT58" s="70"/>
-      <c r="AU58" s="70"/>
-      <c r="AV58" s="70"/>
-      <c r="AW58" s="70"/>
-      <c r="AX58" s="70"/>
-      <c r="AY58" s="70"/>
-      <c r="AZ58" s="70"/>
-      <c r="BA58" s="70"/>
-      <c r="BB58" s="70"/>
-      <c r="BC58" s="70"/>
-      <c r="BD58" s="70"/>
-      <c r="BE58" s="70"/>
-      <c r="BF58" s="70"/>
-      <c r="BG58" s="70"/>
-      <c r="BH58" s="70"/>
-      <c r="BI58" s="70"/>
-      <c r="BJ58" s="70"/>
-      <c r="BK58" s="71"/>
+    <row r="58" spans="1:1025" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B58" s="16"/>
+      <c r="C58" s="13"/>
+      <c r="D58" s="13"/>
+      <c r="E58" s="13"/>
+      <c r="F58" s="13"/>
+      <c r="G58" s="73"/>
+      <c r="H58" s="74"/>
+      <c r="I58" s="74"/>
+      <c r="J58" s="74"/>
+      <c r="K58" s="74"/>
+      <c r="L58" s="74"/>
+      <c r="M58" s="74"/>
+      <c r="N58" s="74"/>
+      <c r="O58" s="74"/>
+      <c r="P58" s="74"/>
+      <c r="Q58" s="74"/>
+      <c r="R58" s="74"/>
+      <c r="S58" s="74"/>
+      <c r="T58" s="74"/>
+      <c r="U58" s="74"/>
+      <c r="V58" s="74"/>
+      <c r="W58" s="74"/>
+      <c r="X58" s="74"/>
+      <c r="Y58" s="74"/>
+      <c r="Z58" s="74"/>
+      <c r="AA58" s="74"/>
+      <c r="AB58" s="74"/>
+      <c r="AC58" s="74"/>
+      <c r="AD58" s="74"/>
+      <c r="AE58" s="74"/>
+      <c r="AF58" s="74"/>
+      <c r="AG58" s="74"/>
+      <c r="AH58" s="74"/>
+      <c r="AI58" s="74"/>
+      <c r="AJ58" s="74"/>
+      <c r="AK58" s="74"/>
+      <c r="AL58" s="74"/>
+      <c r="AM58" s="74"/>
+      <c r="AN58" s="74"/>
+      <c r="AO58" s="74"/>
+      <c r="AP58" s="74"/>
+      <c r="AQ58" s="74"/>
+      <c r="AR58" s="74"/>
+      <c r="AS58" s="74"/>
+      <c r="AT58" s="74"/>
+      <c r="AU58" s="74"/>
+      <c r="AV58" s="74"/>
+      <c r="AW58" s="74"/>
+      <c r="AX58" s="74"/>
+      <c r="AY58" s="74"/>
+      <c r="AZ58" s="74"/>
+      <c r="BA58" s="74"/>
+      <c r="BB58" s="74"/>
+      <c r="BC58" s="74"/>
+      <c r="BD58" s="74"/>
+      <c r="BE58" s="74"/>
+      <c r="BF58" s="74"/>
+      <c r="BG58" s="74"/>
+      <c r="BH58" s="74"/>
+      <c r="BI58" s="74"/>
+      <c r="BJ58" s="74"/>
+      <c r="BK58" s="74"/>
       <c r="BL58" s="24"/>
       <c r="BM58" s="24"/>
       <c r="BN58" s="24"/>
@@ -53013,74 +52760,74 @@
       <c r="CC58" s="13"/>
       <c r="CD58" s="13"/>
       <c r="CE58" s="13"/>
-      <c r="CF58" s="30"/>
-      <c r="CG58" s="30"/>
-      <c r="CH58" s="30"/>
-      <c r="CI58" s="17"/>
-      <c r="AMK58" s="29"/>
+      <c r="CF58" s="16"/>
+      <c r="CG58" s="16"/>
+      <c r="CH58" s="16"/>
+      <c r="CI58" s="16"/>
+      <c r="AMK58" s="28"/>
     </row>
-    <row r="59" spans="1:1025" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B59" s="12"/>
-      <c r="C59" s="15"/>
-      <c r="D59" s="15"/>
-      <c r="E59" s="15"/>
-      <c r="F59" s="15"/>
-      <c r="G59" s="72"/>
-      <c r="H59" s="73"/>
-      <c r="I59" s="73"/>
-      <c r="J59" s="73"/>
-      <c r="K59" s="73"/>
-      <c r="L59" s="73"/>
-      <c r="M59" s="73"/>
-      <c r="N59" s="73"/>
-      <c r="O59" s="73"/>
-      <c r="P59" s="73"/>
-      <c r="Q59" s="73"/>
-      <c r="R59" s="73"/>
-      <c r="S59" s="73"/>
-      <c r="T59" s="73"/>
-      <c r="U59" s="73"/>
-      <c r="V59" s="73"/>
-      <c r="W59" s="73"/>
-      <c r="X59" s="73"/>
-      <c r="Y59" s="73"/>
-      <c r="Z59" s="73"/>
-      <c r="AA59" s="73"/>
-      <c r="AB59" s="73"/>
-      <c r="AC59" s="73"/>
-      <c r="AD59" s="73"/>
-      <c r="AE59" s="73"/>
-      <c r="AF59" s="73"/>
-      <c r="AG59" s="73"/>
-      <c r="AH59" s="73"/>
-      <c r="AI59" s="73"/>
-      <c r="AJ59" s="73"/>
-      <c r="AK59" s="73"/>
-      <c r="AL59" s="73"/>
-      <c r="AM59" s="73"/>
-      <c r="AN59" s="73"/>
-      <c r="AO59" s="73"/>
-      <c r="AP59" s="73"/>
-      <c r="AQ59" s="73"/>
-      <c r="AR59" s="73"/>
-      <c r="AS59" s="73"/>
-      <c r="AT59" s="73"/>
-      <c r="AU59" s="73"/>
-      <c r="AV59" s="73"/>
-      <c r="AW59" s="73"/>
-      <c r="AX59" s="73"/>
-      <c r="AY59" s="73"/>
-      <c r="AZ59" s="73"/>
-      <c r="BA59" s="73"/>
-      <c r="BB59" s="73"/>
-      <c r="BC59" s="73"/>
-      <c r="BD59" s="73"/>
-      <c r="BE59" s="73"/>
-      <c r="BF59" s="73"/>
-      <c r="BG59" s="73"/>
-      <c r="BH59" s="73"/>
-      <c r="BI59" s="73"/>
-      <c r="BJ59" s="73"/>
+    <row r="59" spans="1:1025" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B59" s="16"/>
+      <c r="C59" s="13"/>
+      <c r="D59" s="13"/>
+      <c r="E59" s="13"/>
+      <c r="F59" s="13"/>
+      <c r="G59" s="74"/>
+      <c r="H59" s="74"/>
+      <c r="I59" s="74"/>
+      <c r="J59" s="74"/>
+      <c r="K59" s="74"/>
+      <c r="L59" s="74"/>
+      <c r="M59" s="74"/>
+      <c r="N59" s="74"/>
+      <c r="O59" s="74"/>
+      <c r="P59" s="74"/>
+      <c r="Q59" s="74"/>
+      <c r="R59" s="74"/>
+      <c r="S59" s="74"/>
+      <c r="T59" s="74"/>
+      <c r="U59" s="74"/>
+      <c r="V59" s="74"/>
+      <c r="W59" s="74"/>
+      <c r="X59" s="74"/>
+      <c r="Y59" s="74"/>
+      <c r="Z59" s="74"/>
+      <c r="AA59" s="74"/>
+      <c r="AB59" s="74"/>
+      <c r="AC59" s="74"/>
+      <c r="AD59" s="74"/>
+      <c r="AE59" s="74"/>
+      <c r="AF59" s="74"/>
+      <c r="AG59" s="74"/>
+      <c r="AH59" s="74"/>
+      <c r="AI59" s="74"/>
+      <c r="AJ59" s="74"/>
+      <c r="AK59" s="74"/>
+      <c r="AL59" s="74"/>
+      <c r="AM59" s="74"/>
+      <c r="AN59" s="74"/>
+      <c r="AO59" s="74"/>
+      <c r="AP59" s="74"/>
+      <c r="AQ59" s="74"/>
+      <c r="AR59" s="74"/>
+      <c r="AS59" s="74"/>
+      <c r="AT59" s="74"/>
+      <c r="AU59" s="74"/>
+      <c r="AV59" s="74"/>
+      <c r="AW59" s="74"/>
+      <c r="AX59" s="74"/>
+      <c r="AY59" s="74"/>
+      <c r="AZ59" s="74"/>
+      <c r="BA59" s="74"/>
+      <c r="BB59" s="74"/>
+      <c r="BC59" s="74"/>
+      <c r="BD59" s="74"/>
+      <c r="BE59" s="74"/>
+      <c r="BF59" s="74"/>
+      <c r="BG59" s="74"/>
+      <c r="BH59" s="74"/>
+      <c r="BI59" s="74"/>
+      <c r="BJ59" s="74"/>
       <c r="BK59" s="74"/>
       <c r="BL59" s="24"/>
       <c r="BM59" s="24"/>
@@ -53102,75 +52849,75 @@
       <c r="CC59" s="13"/>
       <c r="CD59" s="13"/>
       <c r="CE59" s="13"/>
-      <c r="CF59" s="30"/>
-      <c r="CG59" s="30"/>
-      <c r="CH59" s="30"/>
-      <c r="CI59" s="17"/>
-      <c r="AMK59" s="29"/>
+      <c r="CF59" s="16"/>
+      <c r="CG59" s="16"/>
+      <c r="CH59" s="16"/>
+      <c r="CI59" s="16"/>
+      <c r="AMK59" s="28"/>
     </row>
-    <row r="60" spans="1:1025" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B60" s="12"/>
-      <c r="C60" s="15"/>
-      <c r="D60" s="15"/>
-      <c r="E60" s="15"/>
-      <c r="F60" s="15"/>
-      <c r="G60" s="75"/>
-      <c r="H60" s="76"/>
-      <c r="I60" s="76"/>
-      <c r="J60" s="76"/>
-      <c r="K60" s="76"/>
-      <c r="L60" s="76"/>
-      <c r="M60" s="76"/>
-      <c r="N60" s="76"/>
-      <c r="O60" s="76"/>
-      <c r="P60" s="76"/>
-      <c r="Q60" s="76"/>
-      <c r="R60" s="76"/>
-      <c r="S60" s="76"/>
-      <c r="T60" s="76"/>
-      <c r="U60" s="76"/>
-      <c r="V60" s="76"/>
-      <c r="W60" s="76"/>
-      <c r="X60" s="76"/>
-      <c r="Y60" s="76"/>
-      <c r="Z60" s="76"/>
-      <c r="AA60" s="76"/>
-      <c r="AB60" s="76"/>
-      <c r="AC60" s="76"/>
-      <c r="AD60" s="76"/>
-      <c r="AE60" s="76"/>
-      <c r="AF60" s="76"/>
-      <c r="AG60" s="76"/>
-      <c r="AH60" s="76"/>
-      <c r="AI60" s="76"/>
-      <c r="AJ60" s="76"/>
-      <c r="AK60" s="76"/>
-      <c r="AL60" s="76"/>
-      <c r="AM60" s="76"/>
-      <c r="AN60" s="76"/>
-      <c r="AO60" s="76"/>
-      <c r="AP60" s="76"/>
-      <c r="AQ60" s="76"/>
-      <c r="AR60" s="76"/>
-      <c r="AS60" s="76"/>
-      <c r="AT60" s="76"/>
-      <c r="AU60" s="76"/>
-      <c r="AV60" s="76"/>
-      <c r="AW60" s="76"/>
-      <c r="AX60" s="76"/>
-      <c r="AY60" s="76"/>
-      <c r="AZ60" s="76"/>
-      <c r="BA60" s="76"/>
-      <c r="BB60" s="76"/>
-      <c r="BC60" s="76"/>
-      <c r="BD60" s="76"/>
-      <c r="BE60" s="76"/>
-      <c r="BF60" s="76"/>
-      <c r="BG60" s="76"/>
-      <c r="BH60" s="76"/>
-      <c r="BI60" s="76"/>
-      <c r="BJ60" s="76"/>
-      <c r="BK60" s="77"/>
+    <row r="60" spans="1:1025" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B60" s="16"/>
+      <c r="C60" s="13"/>
+      <c r="D60" s="13"/>
+      <c r="E60" s="13"/>
+      <c r="F60" s="13"/>
+      <c r="G60" s="74"/>
+      <c r="H60" s="74"/>
+      <c r="I60" s="74"/>
+      <c r="J60" s="74"/>
+      <c r="K60" s="74"/>
+      <c r="L60" s="74"/>
+      <c r="M60" s="74"/>
+      <c r="N60" s="74"/>
+      <c r="O60" s="74"/>
+      <c r="P60" s="74"/>
+      <c r="Q60" s="74"/>
+      <c r="R60" s="74"/>
+      <c r="S60" s="74"/>
+      <c r="T60" s="74"/>
+      <c r="U60" s="74"/>
+      <c r="V60" s="74"/>
+      <c r="W60" s="74"/>
+      <c r="X60" s="74"/>
+      <c r="Y60" s="74"/>
+      <c r="Z60" s="74"/>
+      <c r="AA60" s="74"/>
+      <c r="AB60" s="74"/>
+      <c r="AC60" s="74"/>
+      <c r="AD60" s="74"/>
+      <c r="AE60" s="74"/>
+      <c r="AF60" s="74"/>
+      <c r="AG60" s="74"/>
+      <c r="AH60" s="74"/>
+      <c r="AI60" s="74"/>
+      <c r="AJ60" s="74"/>
+      <c r="AK60" s="74"/>
+      <c r="AL60" s="74"/>
+      <c r="AM60" s="74"/>
+      <c r="AN60" s="74"/>
+      <c r="AO60" s="74"/>
+      <c r="AP60" s="74"/>
+      <c r="AQ60" s="74"/>
+      <c r="AR60" s="74"/>
+      <c r="AS60" s="74"/>
+      <c r="AT60" s="74"/>
+      <c r="AU60" s="74"/>
+      <c r="AV60" s="74"/>
+      <c r="AW60" s="74"/>
+      <c r="AX60" s="74"/>
+      <c r="AY60" s="74"/>
+      <c r="AZ60" s="74"/>
+      <c r="BA60" s="74"/>
+      <c r="BB60" s="74"/>
+      <c r="BC60" s="74"/>
+      <c r="BD60" s="74"/>
+      <c r="BE60" s="74"/>
+      <c r="BF60" s="74"/>
+      <c r="BG60" s="74"/>
+      <c r="BH60" s="74"/>
+      <c r="BI60" s="74"/>
+      <c r="BJ60" s="74"/>
+      <c r="BK60" s="74"/>
       <c r="BL60" s="24"/>
       <c r="BM60" s="24"/>
       <c r="BN60" s="24"/>
@@ -53191,81 +52938,75 @@
       <c r="CC60" s="13"/>
       <c r="CD60" s="13"/>
       <c r="CE60" s="13"/>
-      <c r="CF60" s="30"/>
-      <c r="CG60" s="30"/>
-      <c r="CH60" s="30"/>
-      <c r="CI60" s="17"/>
-      <c r="AMK60" s="29"/>
+      <c r="CF60" s="16"/>
+      <c r="CG60" s="16"/>
+      <c r="CH60" s="16"/>
+      <c r="CI60" s="16"/>
+      <c r="AMK60" s="28"/>
     </row>
-    <row r="61" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A61" s="1"/>
-      <c r="B61" s="12"/>
+      <c r="B61" s="16"/>
       <c r="C61" s="13"/>
       <c r="D61" s="24"/>
-      <c r="E61" s="15"/>
-      <c r="F61" s="15"/>
-      <c r="G61" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="H61" s="32"/>
-      <c r="I61" s="33"/>
-      <c r="J61" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="K61" s="35"/>
-      <c r="L61" s="35"/>
-      <c r="M61" s="35"/>
-      <c r="N61" s="35"/>
-      <c r="O61" s="35"/>
-      <c r="P61" s="35"/>
-      <c r="Q61" s="35"/>
-      <c r="R61" s="35"/>
-      <c r="S61" s="35"/>
-      <c r="T61" s="32"/>
-      <c r="U61" s="32"/>
-      <c r="V61" s="32"/>
-      <c r="W61" s="32"/>
-      <c r="X61" s="33"/>
-      <c r="Y61" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z61" s="37"/>
-      <c r="AA61" s="37"/>
-      <c r="AB61" s="37"/>
-      <c r="AC61" s="37"/>
-      <c r="AD61" s="37"/>
-      <c r="AE61" s="37"/>
-      <c r="AF61" s="37"/>
-      <c r="AG61" s="37"/>
-      <c r="AH61" s="37"/>
-      <c r="AI61" s="37"/>
-      <c r="AJ61" s="37"/>
-      <c r="AK61" s="37"/>
-      <c r="AL61" s="37"/>
-      <c r="AM61" s="37"/>
-      <c r="AN61" s="37"/>
-      <c r="AO61" s="37"/>
-      <c r="AP61" s="37"/>
-      <c r="AQ61" s="37"/>
-      <c r="AR61" s="37"/>
-      <c r="AS61" s="37"/>
-      <c r="AT61" s="37"/>
-      <c r="AU61" s="37"/>
-      <c r="AV61" s="37"/>
-      <c r="AW61" s="37"/>
-      <c r="AX61" s="37"/>
-      <c r="AY61" s="37"/>
-      <c r="AZ61" s="37"/>
-      <c r="BA61" s="37"/>
-      <c r="BB61" s="37"/>
-      <c r="BC61" s="37"/>
-      <c r="BD61" s="37"/>
-      <c r="BE61" s="37"/>
-      <c r="BF61" s="37"/>
-      <c r="BG61" s="37"/>
-      <c r="BH61" s="37"/>
-      <c r="BI61" s="37"/>
-      <c r="BJ61" s="37"/>
+      <c r="E61" s="13"/>
+      <c r="F61" s="13"/>
+      <c r="G61" s="72"/>
+      <c r="H61" s="76"/>
+      <c r="I61" s="76"/>
+      <c r="J61" s="77"/>
+      <c r="K61" s="77"/>
+      <c r="L61" s="77"/>
+      <c r="M61" s="77"/>
+      <c r="N61" s="77"/>
+      <c r="O61" s="77"/>
+      <c r="P61" s="77"/>
+      <c r="Q61" s="77"/>
+      <c r="R61" s="77"/>
+      <c r="S61" s="77"/>
+      <c r="T61" s="76"/>
+      <c r="U61" s="76"/>
+      <c r="V61" s="76"/>
+      <c r="W61" s="76"/>
+      <c r="X61" s="76"/>
+      <c r="Y61" s="72"/>
+      <c r="Z61" s="38"/>
+      <c r="AA61" s="38"/>
+      <c r="AB61" s="38"/>
+      <c r="AC61" s="38"/>
+      <c r="AD61" s="38"/>
+      <c r="AE61" s="38"/>
+      <c r="AF61" s="38"/>
+      <c r="AG61" s="38"/>
+      <c r="AH61" s="38"/>
+      <c r="AI61" s="38"/>
+      <c r="AJ61" s="38"/>
+      <c r="AK61" s="38"/>
+      <c r="AL61" s="38"/>
+      <c r="AM61" s="38"/>
+      <c r="AN61" s="38"/>
+      <c r="AO61" s="38"/>
+      <c r="AP61" s="38"/>
+      <c r="AQ61" s="38"/>
+      <c r="AR61" s="38"/>
+      <c r="AS61" s="38"/>
+      <c r="AT61" s="38"/>
+      <c r="AU61" s="38"/>
+      <c r="AV61" s="38"/>
+      <c r="AW61" s="38"/>
+      <c r="AX61" s="38"/>
+      <c r="AY61" s="38"/>
+      <c r="AZ61" s="38"/>
+      <c r="BA61" s="38"/>
+      <c r="BB61" s="38"/>
+      <c r="BC61" s="38"/>
+      <c r="BD61" s="38"/>
+      <c r="BE61" s="38"/>
+      <c r="BF61" s="38"/>
+      <c r="BG61" s="38"/>
+      <c r="BH61" s="38"/>
+      <c r="BI61" s="38"/>
+      <c r="BJ61" s="38"/>
       <c r="BK61" s="38"/>
       <c r="BL61" s="24"/>
       <c r="BM61" s="24"/>
@@ -53290,7 +53031,7 @@
       <c r="CF61" s="16"/>
       <c r="CG61" s="16"/>
       <c r="CH61" s="16"/>
-      <c r="CI61" s="17"/>
+      <c r="CI61" s="16"/>
       <c r="CJ61" s="1"/>
       <c r="CK61" s="1"/>
       <c r="CL61" s="1"/>
@@ -54229,75 +53970,69 @@
       <c r="AMI61" s="1"/>
       <c r="AMJ61" s="1"/>
     </row>
-    <row r="62" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A62" s="1"/>
-      <c r="B62" s="12"/>
+      <c r="B62" s="16"/>
       <c r="C62" s="13"/>
       <c r="D62" s="24"/>
-      <c r="E62" s="15"/>
-      <c r="F62" s="15"/>
-      <c r="G62" s="36">
-        <v>1</v>
-      </c>
-      <c r="H62" s="37"/>
+      <c r="E62" s="13"/>
+      <c r="F62" s="13"/>
+      <c r="G62" s="37"/>
+      <c r="H62" s="38"/>
       <c r="I62" s="38"/>
-      <c r="J62" s="36" t="s">
-        <v>74</v>
-      </c>
-      <c r="K62" s="37"/>
-      <c r="L62" s="37"/>
-      <c r="M62" s="37"/>
-      <c r="N62" s="37"/>
-      <c r="O62" s="37"/>
-      <c r="P62" s="37"/>
-      <c r="Q62" s="37"/>
-      <c r="R62" s="37"/>
-      <c r="S62" s="37"/>
-      <c r="T62" s="37"/>
-      <c r="U62" s="37"/>
-      <c r="V62" s="37"/>
-      <c r="W62" s="37"/>
+      <c r="J62" s="37"/>
+      <c r="K62" s="38"/>
+      <c r="L62" s="38"/>
+      <c r="M62" s="38"/>
+      <c r="N62" s="38"/>
+      <c r="O62" s="38"/>
+      <c r="P62" s="38"/>
+      <c r="Q62" s="38"/>
+      <c r="R62" s="38"/>
+      <c r="S62" s="38"/>
+      <c r="T62" s="38"/>
+      <c r="U62" s="38"/>
+      <c r="V62" s="38"/>
+      <c r="W62" s="38"/>
       <c r="X62" s="38"/>
-      <c r="Y62" s="36" t="s">
-        <v>75</v>
-      </c>
-      <c r="Z62" s="37"/>
-      <c r="AA62" s="37"/>
-      <c r="AB62" s="37"/>
-      <c r="AC62" s="37"/>
-      <c r="AD62" s="37"/>
-      <c r="AE62" s="37"/>
-      <c r="AF62" s="37"/>
-      <c r="AG62" s="37"/>
-      <c r="AH62" s="37"/>
-      <c r="AI62" s="37"/>
-      <c r="AJ62" s="37"/>
-      <c r="AK62" s="37"/>
-      <c r="AL62" s="37"/>
-      <c r="AM62" s="37"/>
-      <c r="AN62" s="37"/>
-      <c r="AO62" s="37"/>
-      <c r="AP62" s="37"/>
-      <c r="AQ62" s="37"/>
-      <c r="AR62" s="37"/>
-      <c r="AS62" s="37"/>
-      <c r="AT62" s="37"/>
-      <c r="AU62" s="37"/>
-      <c r="AV62" s="37"/>
-      <c r="AW62" s="37"/>
-      <c r="AX62" s="37"/>
-      <c r="AY62" s="37"/>
-      <c r="AZ62" s="37"/>
-      <c r="BA62" s="37"/>
-      <c r="BB62" s="37"/>
-      <c r="BC62" s="37"/>
-      <c r="BD62" s="37"/>
-      <c r="BE62" s="37"/>
-      <c r="BF62" s="37"/>
-      <c r="BG62" s="37"/>
-      <c r="BH62" s="37"/>
-      <c r="BI62" s="37"/>
-      <c r="BJ62" s="37"/>
+      <c r="Y62" s="37"/>
+      <c r="Z62" s="38"/>
+      <c r="AA62" s="38"/>
+      <c r="AB62" s="38"/>
+      <c r="AC62" s="38"/>
+      <c r="AD62" s="38"/>
+      <c r="AE62" s="38"/>
+      <c r="AF62" s="38"/>
+      <c r="AG62" s="38"/>
+      <c r="AH62" s="38"/>
+      <c r="AI62" s="38"/>
+      <c r="AJ62" s="38"/>
+      <c r="AK62" s="38"/>
+      <c r="AL62" s="38"/>
+      <c r="AM62" s="38"/>
+      <c r="AN62" s="38"/>
+      <c r="AO62" s="38"/>
+      <c r="AP62" s="38"/>
+      <c r="AQ62" s="38"/>
+      <c r="AR62" s="38"/>
+      <c r="AS62" s="38"/>
+      <c r="AT62" s="38"/>
+      <c r="AU62" s="38"/>
+      <c r="AV62" s="38"/>
+      <c r="AW62" s="38"/>
+      <c r="AX62" s="38"/>
+      <c r="AY62" s="38"/>
+      <c r="AZ62" s="38"/>
+      <c r="BA62" s="38"/>
+      <c r="BB62" s="38"/>
+      <c r="BC62" s="38"/>
+      <c r="BD62" s="38"/>
+      <c r="BE62" s="38"/>
+      <c r="BF62" s="38"/>
+      <c r="BG62" s="38"/>
+      <c r="BH62" s="38"/>
+      <c r="BI62" s="38"/>
+      <c r="BJ62" s="38"/>
       <c r="BK62" s="38"/>
       <c r="BL62" s="24"/>
       <c r="BM62" s="24"/>
@@ -54322,7 +54057,7 @@
       <c r="CF62" s="16"/>
       <c r="CG62" s="16"/>
       <c r="CH62" s="16"/>
-      <c r="CI62" s="17"/>
+      <c r="CI62" s="16"/>
       <c r="CJ62" s="1"/>
       <c r="CK62" s="1"/>
       <c r="CL62" s="1"/>
@@ -55261,38 +54996,38 @@
       <c r="AMI62" s="1"/>
       <c r="AMJ62" s="1"/>
     </row>
-    <row r="63" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A63" s="1"/>
-      <c r="B63" s="12"/>
+      <c r="B63" s="16"/>
       <c r="C63" s="13"/>
       <c r="D63" s="24"/>
-      <c r="E63" s="15"/>
-      <c r="F63" s="15"/>
-      <c r="G63" s="15"/>
-      <c r="H63" s="15"/>
-      <c r="I63" s="15"/>
-      <c r="J63" s="15"/>
-      <c r="K63" s="15"/>
-      <c r="L63" s="15"/>
-      <c r="M63" s="15"/>
-      <c r="N63" s="15"/>
-      <c r="O63" s="15"/>
-      <c r="P63" s="15"/>
-      <c r="Q63" s="15"/>
-      <c r="R63" s="15"/>
-      <c r="S63" s="15"/>
-      <c r="T63" s="15"/>
-      <c r="U63" s="15"/>
-      <c r="V63" s="15"/>
-      <c r="W63" s="15"/>
-      <c r="X63" s="15"/>
-      <c r="Y63" s="15"/>
-      <c r="Z63" s="15"/>
-      <c r="AA63" s="15"/>
-      <c r="AB63" s="15"/>
-      <c r="AC63" s="15"/>
-      <c r="AD63" s="15"/>
-      <c r="AE63" s="15"/>
+      <c r="E63" s="13"/>
+      <c r="F63" s="13"/>
+      <c r="G63" s="13"/>
+      <c r="H63" s="13"/>
+      <c r="I63" s="13"/>
+      <c r="J63" s="13"/>
+      <c r="K63" s="13"/>
+      <c r="L63" s="13"/>
+      <c r="M63" s="13"/>
+      <c r="N63" s="13"/>
+      <c r="O63" s="13"/>
+      <c r="P63" s="13"/>
+      <c r="Q63" s="13"/>
+      <c r="R63" s="13"/>
+      <c r="S63" s="13"/>
+      <c r="T63" s="13"/>
+      <c r="U63" s="13"/>
+      <c r="V63" s="13"/>
+      <c r="W63" s="13"/>
+      <c r="X63" s="13"/>
+      <c r="Y63" s="13"/>
+      <c r="Z63" s="13"/>
+      <c r="AA63" s="13"/>
+      <c r="AB63" s="13"/>
+      <c r="AC63" s="13"/>
+      <c r="AD63" s="13"/>
+      <c r="AE63" s="13"/>
       <c r="AF63" s="24"/>
       <c r="AG63" s="24"/>
       <c r="AH63" s="24"/>
@@ -55348,7 +55083,7 @@
       <c r="CF63" s="16"/>
       <c r="CG63" s="16"/>
       <c r="CH63" s="16"/>
-      <c r="CI63" s="17"/>
+      <c r="CI63" s="16"/>
       <c r="CJ63" s="1"/>
       <c r="CK63" s="1"/>
       <c r="CL63" s="1"/>
@@ -56287,42 +56022,38 @@
       <c r="AMI63" s="1"/>
       <c r="AMJ63" s="1"/>
     </row>
-    <row r="64" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A64" s="1"/>
-      <c r="B64" s="12"/>
+      <c r="B64" s="16"/>
       <c r="C64" s="13"/>
       <c r="D64" s="24"/>
-      <c r="E64" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="F64" s="15"/>
-      <c r="G64" s="15"/>
-      <c r="H64" s="1"/>
-      <c r="I64" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="J64" s="15"/>
-      <c r="K64" s="15"/>
-      <c r="L64" s="15"/>
-      <c r="M64" s="15"/>
-      <c r="N64" s="15"/>
-      <c r="O64" s="15"/>
-      <c r="P64" s="15"/>
-      <c r="Q64" s="15"/>
-      <c r="R64" s="15"/>
-      <c r="S64" s="15"/>
-      <c r="T64" s="15"/>
-      <c r="U64" s="15"/>
-      <c r="V64" s="15"/>
-      <c r="W64" s="15"/>
-      <c r="X64" s="15"/>
-      <c r="Y64" s="15"/>
-      <c r="Z64" s="15"/>
-      <c r="AA64" s="15"/>
-      <c r="AB64" s="15"/>
-      <c r="AC64" s="15"/>
-      <c r="AD64" s="15"/>
-      <c r="AE64" s="15"/>
+      <c r="E64" s="33"/>
+      <c r="F64" s="13"/>
+      <c r="G64" s="13"/>
+      <c r="H64" s="34"/>
+      <c r="I64" s="13"/>
+      <c r="J64" s="13"/>
+      <c r="K64" s="13"/>
+      <c r="L64" s="13"/>
+      <c r="M64" s="13"/>
+      <c r="N64" s="13"/>
+      <c r="O64" s="13"/>
+      <c r="P64" s="13"/>
+      <c r="Q64" s="13"/>
+      <c r="R64" s="13"/>
+      <c r="S64" s="13"/>
+      <c r="T64" s="13"/>
+      <c r="U64" s="13"/>
+      <c r="V64" s="13"/>
+      <c r="W64" s="13"/>
+      <c r="X64" s="13"/>
+      <c r="Y64" s="13"/>
+      <c r="Z64" s="13"/>
+      <c r="AA64" s="13"/>
+      <c r="AB64" s="13"/>
+      <c r="AC64" s="13"/>
+      <c r="AD64" s="13"/>
+      <c r="AE64" s="13"/>
       <c r="AF64" s="7"/>
       <c r="AG64" s="7"/>
       <c r="AH64" s="7"/>
@@ -56378,7 +56109,7 @@
       <c r="CF64" s="16"/>
       <c r="CG64" s="16"/>
       <c r="CH64" s="16"/>
-      <c r="CI64" s="17"/>
+      <c r="CI64" s="16"/>
       <c r="CJ64" s="1"/>
       <c r="CK64" s="1"/>
       <c r="CL64" s="1"/>
@@ -57317,94 +57048,94 @@
       <c r="AMI64" s="1"/>
       <c r="AMJ64" s="1"/>
     </row>
-    <row r="65" spans="1:1024" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A65" s="1"/>
-      <c r="B65" s="18"/>
-      <c r="C65" s="19"/>
-      <c r="D65" s="19"/>
-      <c r="E65" s="19"/>
-      <c r="F65" s="19"/>
-      <c r="G65" s="19"/>
-      <c r="H65" s="19"/>
-      <c r="I65" s="19"/>
-      <c r="J65" s="19"/>
-      <c r="K65" s="19"/>
-      <c r="L65" s="19"/>
-      <c r="M65" s="19"/>
-      <c r="N65" s="19"/>
-      <c r="O65" s="19"/>
-      <c r="P65" s="19"/>
-      <c r="Q65" s="19"/>
-      <c r="R65" s="19"/>
-      <c r="S65" s="19"/>
-      <c r="T65" s="19"/>
-      <c r="U65" s="19"/>
-      <c r="V65" s="19"/>
-      <c r="W65" s="19"/>
-      <c r="X65" s="19"/>
-      <c r="Y65" s="19"/>
-      <c r="Z65" s="19"/>
-      <c r="AA65" s="19"/>
-      <c r="AB65" s="19"/>
-      <c r="AC65" s="19"/>
-      <c r="AD65" s="19"/>
-      <c r="AE65" s="19"/>
-      <c r="AF65" s="19"/>
-      <c r="AG65" s="19"/>
-      <c r="AH65" s="19"/>
-      <c r="AI65" s="19"/>
-      <c r="AJ65" s="19"/>
-      <c r="AK65" s="19"/>
-      <c r="AL65" s="19"/>
-      <c r="AM65" s="19"/>
-      <c r="AN65" s="19"/>
-      <c r="AO65" s="19"/>
-      <c r="AP65" s="19"/>
-      <c r="AQ65" s="19"/>
-      <c r="AR65" s="19"/>
-      <c r="AS65" s="19"/>
-      <c r="AT65" s="19"/>
-      <c r="AU65" s="19"/>
-      <c r="AV65" s="19"/>
-      <c r="AW65" s="19"/>
-      <c r="AX65" s="19"/>
-      <c r="AY65" s="19"/>
-      <c r="AZ65" s="19"/>
-      <c r="BA65" s="19"/>
-      <c r="BB65" s="19"/>
-      <c r="BC65" s="19"/>
-      <c r="BD65" s="19"/>
-      <c r="BE65" s="19"/>
-      <c r="BF65" s="19"/>
-      <c r="BG65" s="19"/>
-      <c r="BH65" s="19"/>
-      <c r="BI65" s="19"/>
-      <c r="BJ65" s="19"/>
-      <c r="BK65" s="19"/>
-      <c r="BL65" s="19"/>
-      <c r="BM65" s="19"/>
-      <c r="BN65" s="19"/>
-      <c r="BO65" s="19"/>
-      <c r="BP65" s="19"/>
-      <c r="BQ65" s="19"/>
-      <c r="BR65" s="21"/>
-      <c r="BS65" s="21"/>
-      <c r="BT65" s="21"/>
-      <c r="BU65" s="21"/>
-      <c r="BV65" s="21"/>
-      <c r="BW65" s="21"/>
-      <c r="BX65" s="21"/>
-      <c r="BY65" s="21"/>
-      <c r="BZ65" s="21"/>
-      <c r="CA65" s="21"/>
-      <c r="CB65" s="21"/>
-      <c r="CC65" s="21"/>
-      <c r="CD65" s="21"/>
-      <c r="CE65" s="21"/>
-      <c r="CF65" s="21"/>
-      <c r="CG65" s="21"/>
-      <c r="CH65" s="21"/>
-      <c r="CI65" s="22"/>
+      <c r="B65" s="16"/>
+      <c r="C65" s="13"/>
+      <c r="D65" s="13"/>
+      <c r="E65" s="13"/>
+      <c r="F65" s="13"/>
+      <c r="G65" s="13"/>
+      <c r="H65" s="13"/>
+      <c r="I65" s="13"/>
+      <c r="J65" s="13"/>
+      <c r="K65" s="13"/>
+      <c r="L65" s="13"/>
+      <c r="M65" s="13"/>
+      <c r="N65" s="13"/>
+      <c r="O65" s="13"/>
+      <c r="P65" s="13"/>
+      <c r="Q65" s="13"/>
+      <c r="R65" s="13"/>
+      <c r="S65" s="13"/>
+      <c r="T65" s="13"/>
+      <c r="U65" s="13"/>
+      <c r="V65" s="13"/>
+      <c r="W65" s="13"/>
+      <c r="X65" s="13"/>
+      <c r="Y65" s="13"/>
+      <c r="Z65" s="13"/>
+      <c r="AA65" s="13"/>
+      <c r="AB65" s="13"/>
+      <c r="AC65" s="13"/>
+      <c r="AD65" s="13"/>
+      <c r="AE65" s="13"/>
+      <c r="AF65" s="13"/>
+      <c r="AG65" s="13"/>
+      <c r="AH65" s="13"/>
+      <c r="AI65" s="13"/>
+      <c r="AJ65" s="13"/>
+      <c r="AK65" s="13"/>
+      <c r="AL65" s="13"/>
+      <c r="AM65" s="13"/>
+      <c r="AN65" s="13"/>
+      <c r="AO65" s="13"/>
+      <c r="AP65" s="13"/>
+      <c r="AQ65" s="13"/>
+      <c r="AR65" s="13"/>
+      <c r="AS65" s="13"/>
+      <c r="AT65" s="13"/>
+      <c r="AU65" s="13"/>
+      <c r="AV65" s="13"/>
+      <c r="AW65" s="13"/>
+      <c r="AX65" s="13"/>
+      <c r="AY65" s="13"/>
+      <c r="AZ65" s="13"/>
+      <c r="BA65" s="13"/>
+      <c r="BB65" s="13"/>
+      <c r="BC65" s="13"/>
+      <c r="BD65" s="13"/>
+      <c r="BE65" s="13"/>
+      <c r="BF65" s="13"/>
+      <c r="BG65" s="13"/>
+      <c r="BH65" s="13"/>
+      <c r="BI65" s="13"/>
+      <c r="BJ65" s="13"/>
+      <c r="BK65" s="13"/>
+      <c r="BL65" s="13"/>
+      <c r="BM65" s="13"/>
+      <c r="BN65" s="13"/>
+      <c r="BO65" s="13"/>
+      <c r="BP65" s="13"/>
+      <c r="BQ65" s="13"/>
+      <c r="BR65" s="16"/>
+      <c r="BS65" s="16"/>
+      <c r="BT65" s="16"/>
+      <c r="BU65" s="16"/>
+      <c r="BV65" s="16"/>
+      <c r="BW65" s="16"/>
+      <c r="BX65" s="16"/>
+      <c r="BY65" s="16"/>
+      <c r="BZ65" s="16"/>
+      <c r="CA65" s="16"/>
+      <c r="CB65" s="16"/>
+      <c r="CC65" s="16"/>
+      <c r="CD65" s="16"/>
+      <c r="CE65" s="16"/>
+      <c r="CF65" s="16"/>
+      <c r="CG65" s="16"/>
+      <c r="CH65" s="16"/>
+      <c r="CI65" s="16"/>
       <c r="CJ65" s="1"/>
       <c r="CK65" s="1"/>
       <c r="CL65" s="1"/>
@@ -58343,37 +58074,139 @@
       <c r="AMI65" s="1"/>
       <c r="AMJ65" s="1"/>
     </row>
+    <row r="66" spans="1:1024" x14ac:dyDescent="0.45">
+      <c r="B66" s="36"/>
+      <c r="C66" s="36"/>
+      <c r="D66" s="36"/>
+      <c r="E66" s="36"/>
+      <c r="F66" s="36"/>
+      <c r="G66" s="36"/>
+      <c r="H66" s="36"/>
+      <c r="I66" s="36"/>
+      <c r="J66" s="36"/>
+      <c r="K66" s="36"/>
+      <c r="L66" s="36"/>
+      <c r="M66" s="36"/>
+      <c r="N66" s="36"/>
+      <c r="O66" s="36"/>
+      <c r="P66" s="36"/>
+      <c r="Q66" s="36"/>
+      <c r="R66" s="36"/>
+      <c r="S66" s="36"/>
+      <c r="T66" s="36"/>
+      <c r="U66" s="36"/>
+      <c r="V66" s="36"/>
+      <c r="W66" s="36"/>
+      <c r="X66" s="36"/>
+      <c r="Y66" s="36"/>
+      <c r="Z66" s="36"/>
+      <c r="AA66" s="36"/>
+      <c r="AB66" s="36"/>
+      <c r="AC66" s="36"/>
+      <c r="AD66" s="36"/>
+      <c r="AE66" s="36"/>
+      <c r="AF66" s="36"/>
+      <c r="AG66" s="36"/>
+      <c r="AH66" s="36"/>
+      <c r="AI66" s="36"/>
+      <c r="AJ66" s="36"/>
+      <c r="AK66" s="36"/>
+      <c r="AL66" s="36"/>
+      <c r="AM66" s="36"/>
+      <c r="AN66" s="36"/>
+      <c r="AO66" s="36"/>
+      <c r="AP66" s="36"/>
+      <c r="AQ66" s="36"/>
+      <c r="AR66" s="36"/>
+      <c r="AS66" s="36"/>
+      <c r="AT66" s="36"/>
+      <c r="AU66" s="36"/>
+      <c r="AV66" s="36"/>
+      <c r="AW66" s="36"/>
+      <c r="AX66" s="36"/>
+      <c r="AY66" s="36"/>
+      <c r="AZ66" s="36"/>
+      <c r="BA66" s="36"/>
+      <c r="BB66" s="36"/>
+      <c r="BC66" s="36"/>
+      <c r="BD66" s="36"/>
+      <c r="BE66" s="36"/>
+      <c r="BF66" s="36"/>
+      <c r="BG66" s="36"/>
+      <c r="BH66" s="36"/>
+      <c r="BI66" s="36"/>
+      <c r="BJ66" s="36"/>
+      <c r="BK66" s="36"/>
+      <c r="BL66" s="36"/>
+      <c r="BM66" s="36"/>
+      <c r="BN66" s="36"/>
+      <c r="BO66" s="36"/>
+      <c r="BP66" s="36"/>
+      <c r="BQ66" s="36"/>
+      <c r="BR66" s="36"/>
+      <c r="BS66" s="36"/>
+      <c r="BT66" s="36"/>
+      <c r="BU66" s="36"/>
+      <c r="BV66" s="36"/>
+      <c r="BW66" s="36"/>
+      <c r="BX66" s="36"/>
+      <c r="BY66" s="36"/>
+      <c r="BZ66" s="36"/>
+      <c r="CA66" s="36"/>
+      <c r="CB66" s="36"/>
+      <c r="CC66" s="36"/>
+      <c r="CD66" s="36"/>
+      <c r="CE66" s="36"/>
+      <c r="CF66" s="36"/>
+      <c r="CG66" s="36"/>
+      <c r="CH66" s="36"/>
+      <c r="CI66" s="36"/>
+    </row>
   </sheetData>
-  <mergeCells count="95">
+  <mergeCells count="94">
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:X31"/>
+    <mergeCell ref="Y31:BK31"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="J38:X38"/>
+    <mergeCell ref="Y38:BK38"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:X25"/>
+    <mergeCell ref="Y25:AH25"/>
+    <mergeCell ref="AI25:AR25"/>
+    <mergeCell ref="AS25:CI25"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:X24"/>
+    <mergeCell ref="Y24:AH24"/>
+    <mergeCell ref="AI24:AR24"/>
+    <mergeCell ref="AS24:CI24"/>
     <mergeCell ref="G61:I61"/>
     <mergeCell ref="J61:X61"/>
     <mergeCell ref="Y61:BK61"/>
     <mergeCell ref="G62:I62"/>
     <mergeCell ref="J62:X62"/>
     <mergeCell ref="Y62:BK62"/>
-    <mergeCell ref="G57:BK57"/>
     <mergeCell ref="G58:BK60"/>
-    <mergeCell ref="Y20:BK20"/>
     <mergeCell ref="Y21:BK21"/>
-    <mergeCell ref="Y22:BK22"/>
-    <mergeCell ref="Y26:BK26"/>
-    <mergeCell ref="Y27:BK27"/>
-    <mergeCell ref="Y28:BK28"/>
     <mergeCell ref="Y29:BK29"/>
     <mergeCell ref="G47:BK47"/>
     <mergeCell ref="G48:BK50"/>
-    <mergeCell ref="BX1:CA1"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:X30"/>
+    <mergeCell ref="Y30:BK30"/>
     <mergeCell ref="G21:I21"/>
     <mergeCell ref="J21:X21"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:X22"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:X26"/>
-    <mergeCell ref="G40:P40"/>
-    <mergeCell ref="Q40:Z40"/>
-    <mergeCell ref="AA40:AK40"/>
-    <mergeCell ref="Y34:AH34"/>
-    <mergeCell ref="AI34:AR34"/>
+    <mergeCell ref="E7:X7"/>
+    <mergeCell ref="AS7:CI7"/>
+    <mergeCell ref="G57:BK57"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="J35:X35"/>
+    <mergeCell ref="Y35:BK35"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="J36:X36"/>
+    <mergeCell ref="Y36:BK36"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="J37:X37"/>
     <mergeCell ref="CB1:CI1"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="H2:V2"/>
@@ -58387,9 +58220,7 @@
     <mergeCell ref="W1:BK1"/>
     <mergeCell ref="BL1:BO1"/>
     <mergeCell ref="BP1:BW1"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:X7"/>
-    <mergeCell ref="AS7:CI7"/>
+    <mergeCell ref="BX1:CA1"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="E8:X8"/>
     <mergeCell ref="AS8:CI8"/>
@@ -58397,10 +58228,7 @@
     <mergeCell ref="Y8:AH8"/>
     <mergeCell ref="AI7:AR7"/>
     <mergeCell ref="AI8:AR8"/>
-    <mergeCell ref="AS34:CI34"/>
-    <mergeCell ref="AL40:BK40"/>
-    <mergeCell ref="E35:X35"/>
-    <mergeCell ref="AS35:CI35"/>
+    <mergeCell ref="B7:D7"/>
     <mergeCell ref="G42:P42"/>
     <mergeCell ref="Q42:Z42"/>
     <mergeCell ref="AA42:AK42"/>
@@ -58409,6 +58237,7 @@
     <mergeCell ref="AA41:AK41"/>
     <mergeCell ref="AL41:BK41"/>
     <mergeCell ref="AL42:BK42"/>
+    <mergeCell ref="Y37:BK37"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="E4:X4"/>
     <mergeCell ref="Y4:AR4"/>
@@ -58417,11 +58246,6 @@
     <mergeCell ref="E5:X5"/>
     <mergeCell ref="Y5:AR5"/>
     <mergeCell ref="AS5:CI5"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="E34:X34"/>
-    <mergeCell ref="Y35:AH35"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="AI35:AR35"/>
     <mergeCell ref="B16:D16"/>
     <mergeCell ref="E16:X16"/>
     <mergeCell ref="Y16:AH16"/>
@@ -58432,14 +58256,8 @@
     <mergeCell ref="Y15:AH15"/>
     <mergeCell ref="AI15:AR15"/>
     <mergeCell ref="AS15:CI15"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:X20"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:X27"/>
     <mergeCell ref="G29:I29"/>
     <mergeCell ref="J29:X29"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:X28"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
